--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_0.12 L TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_0.12 L TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4282 +417,4802 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="B2">
-        <v>50384.07910509376</v>
+        <v>57101.3340876615</v>
       </c>
       <c r="C2">
-        <v>10459.76092491577</v>
+        <v>5605.995042940895</v>
       </c>
       <c r="D2">
-        <v>56159.9481522038</v>
+        <v>13859.69767461086</v>
       </c>
       <c r="E2">
-        <v>3749.444271651943</v>
+        <v>1491.063546045804</v>
       </c>
       <c r="F2">
-        <v>1899.86129974626</v>
+        <v>709.0655491601493</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>102.8</v>
+        <v>91</v>
       </c>
       <c r="B3">
-        <v>49755.89809303859</v>
+        <v>7300</v>
       </c>
       <c r="C3">
-        <v>9621.341502943151</v>
+        <v>7449.220942646188</v>
       </c>
       <c r="D3">
-        <v>60702.06875802566</v>
+        <v>12733.60547497913</v>
       </c>
       <c r="E3">
-        <v>3649.330544496189</v>
+        <v>903.2003755302046</v>
       </c>
       <c r="F3">
-        <v>2517.572278626571</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>105.7</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>44933.85347340998</v>
+        <v>7800</v>
       </c>
       <c r="C4">
-        <v>6580.121387328709</v>
+        <v>5549.220942646188</v>
       </c>
       <c r="D4">
-        <v>56665.33652834118</v>
+        <v>13703.60547497913</v>
       </c>
       <c r="E4">
-        <v>2443.141327084872</v>
+        <v>1513.200375530205</v>
       </c>
       <c r="F4">
-        <v>1866.63007818118</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>108.9</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>38530.21803106119</v>
+        <v>12900</v>
       </c>
       <c r="C5">
-        <v>4770.499190788591</v>
+        <v>8589.220942646189</v>
       </c>
       <c r="D5">
-        <v>53972.04579213761</v>
+        <v>15583.60547497913</v>
       </c>
       <c r="E5">
-        <v>2478.725638906863</v>
+        <v>1333.200375530205</v>
       </c>
       <c r="F5">
-        <v>1239.728339758677</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>111.5</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>32789.76423415277</v>
+        <v>5000</v>
       </c>
       <c r="C6">
-        <v>2427.681156099767</v>
+        <v>8319.220942646189</v>
       </c>
       <c r="D6">
-        <v>48611.87206897224</v>
+        <v>14013.60547497913</v>
       </c>
       <c r="E6">
-        <v>3660.762892262229</v>
+        <v>1263.200375530205</v>
       </c>
       <c r="F6">
-        <v>604.7456772903959</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>114.1</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>21049.31043724445</v>
+        <v>15000</v>
       </c>
       <c r="C7">
-        <v>1884.863121410914</v>
+        <v>9499.220942646189</v>
       </c>
       <c r="D7">
-        <v>42321.69834580683</v>
+        <v>15623.60547497913</v>
       </c>
       <c r="E7">
-        <v>1592.800145617603</v>
+        <v>1843.200375530205</v>
       </c>
       <c r="F7">
-        <v>719.7630148221112</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>116.4</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="B8">
-        <v>19690.4474630562</v>
+        <v>9701.334087661497</v>
       </c>
       <c r="C8">
-        <v>1630.447167647708</v>
+        <v>9785.995042940895</v>
       </c>
       <c r="D8">
-        <v>36898.08312916051</v>
+        <v>14589.69767461086</v>
       </c>
       <c r="E8">
-        <v>853.0638697396525</v>
+        <v>1701.063546045804</v>
       </c>
       <c r="F8">
-        <v>280.739890330939</v>
+        <v>419.0655491601493</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>118.7</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>11431.58448886809</v>
+        <v>10500</v>
       </c>
       <c r="C9">
-        <v>1446.031213884531</v>
+        <v>10649.22094264619</v>
       </c>
       <c r="D9">
-        <v>29374.4679125142</v>
+        <v>15333.60547497913</v>
       </c>
       <c r="E9">
-        <v>1193.32759386171</v>
+        <v>1053.200375530205</v>
       </c>
       <c r="F9">
-        <v>21.71676583976705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>120.8</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>6960.448729826705</v>
+        <v>9700</v>
       </c>
       <c r="C10">
-        <v>3127.216647405061</v>
+        <v>8739.220942646189</v>
       </c>
       <c r="D10">
-        <v>27048.55836688061</v>
+        <v>16273.60547497913</v>
       </c>
       <c r="E10">
-        <v>1215.742298494894</v>
+        <v>2723.200375530205</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>123.2</v>
+        <v>91</v>
       </c>
       <c r="B11">
-        <v>11107.72214806502</v>
+        <v>12300</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10689.22094264619</v>
       </c>
       <c r="D11">
-        <v>25386.09031472793</v>
+        <v>15933.60547497913</v>
       </c>
       <c r="E11">
-        <v>1929.930532361388</v>
+        <v>2813.200375530205</v>
       </c>
       <c r="F11">
-        <v>452.3236961831235</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>125.3</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>2336.586389023651</v>
+        <v>6800</v>
       </c>
       <c r="C12">
-        <v>2571.185433520559</v>
+        <v>10919.22094264619</v>
       </c>
       <c r="D12">
-        <v>24850.18076909433</v>
+        <v>15373.60547497913</v>
       </c>
       <c r="E12">
-        <v>1712.345236994573</v>
+        <v>2733.200375530205</v>
       </c>
       <c r="F12">
-        <v>150.6069303433565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>127.4</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>9165.450629982268</v>
+        <v>6600</v>
       </c>
       <c r="C13">
-        <v>5012.370867041118</v>
+        <v>10559.22094264619</v>
       </c>
       <c r="D13">
-        <v>24224.27122346074</v>
+        <v>15063.60547497913</v>
       </c>
       <c r="E13">
-        <v>1754.75994162775</v>
+        <v>1993.200375530205</v>
       </c>
       <c r="F13">
-        <v>658.8901645035889</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>129.5</v>
+        <v>91</v>
       </c>
       <c r="B14">
-        <v>5894.314870940885</v>
+        <v>7600</v>
       </c>
       <c r="C14">
-        <v>1983.556300561648</v>
+        <v>11109.22094264619</v>
       </c>
       <c r="D14">
-        <v>25678.36167782718</v>
+        <v>15423.60547497913</v>
       </c>
       <c r="E14">
-        <v>2877.174646260934</v>
+        <v>2353.200375530205</v>
       </c>
       <c r="F14">
-        <v>727.1733986638255</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>131.7</v>
+        <v>91</v>
       </c>
       <c r="B15">
-        <v>4029.315504326063</v>
+        <v>3400</v>
       </c>
       <c r="C15">
-        <v>4331.941040440353</v>
+        <v>13469.22094264619</v>
       </c>
       <c r="D15">
-        <v>25373.59929668721</v>
+        <v>14643.60547497913</v>
       </c>
       <c r="E15">
-        <v>1993.513860638555</v>
+        <v>3213.200375530205</v>
       </c>
       <c r="F15">
-        <v>1456.803453498354</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>133.9</v>
+        <v>91</v>
       </c>
       <c r="B16">
-        <v>4664.316137711372</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>5470.325780319028</v>
+        <v>13209.22094264619</v>
       </c>
       <c r="D16">
-        <v>24548.83691554726</v>
+        <v>15313.60547497913</v>
       </c>
       <c r="E16">
-        <v>3059.853075016176</v>
+        <v>2883.200375530205</v>
       </c>
       <c r="F16">
-        <v>1146.433508332882</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>136.2</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>4005.453163523125</v>
+        <v>6900</v>
       </c>
       <c r="C17">
-        <v>5585.909826555824</v>
+        <v>14999.22094264619</v>
       </c>
       <c r="D17">
-        <v>25625.22169890095</v>
+        <v>16133.60547497913</v>
       </c>
       <c r="E17">
-        <v>3240.116799138234</v>
+        <v>2723.200375530205</v>
       </c>
       <c r="F17">
-        <v>947.4103838417109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>138.8</v>
+        <v>91</v>
       </c>
       <c r="B18">
-        <v>2264.999366614706</v>
+        <v>10400</v>
       </c>
       <c r="C18">
-        <v>5103.091791866969</v>
+        <v>13299.22094264619</v>
       </c>
       <c r="D18">
-        <v>22305.04797573555</v>
+        <v>21353.60547497913</v>
       </c>
       <c r="E18">
-        <v>2782.154052493599</v>
+        <v>3793.200375530205</v>
       </c>
       <c r="F18">
-        <v>1042.427721373429</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>141</v>
+        <v>91.2</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5997.331824677123</v>
       </c>
       <c r="C19">
-        <v>3911.476531745646</v>
+        <v>13665.67274205675</v>
       </c>
       <c r="D19">
-        <v>20400.28559459559</v>
+        <v>41361.4210757156</v>
       </c>
       <c r="E19">
-        <v>3668.49326687122</v>
+        <v>6647.474034499006</v>
       </c>
       <c r="F19">
-        <v>1452.057776207958</v>
+        <v>781.8689016797085</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>143.3</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="B20">
-        <v>4741.137025811753</v>
+        <v>16691.99547403149</v>
       </c>
       <c r="C20">
-        <v>3367.060577982469</v>
+        <v>26598.57634087786</v>
       </c>
       <c r="D20">
-        <v>19496.67037794927</v>
+        <v>70797.05227718856</v>
       </c>
       <c r="E20">
-        <v>4148.756990993277</v>
+        <v>12356.02135243661</v>
       </c>
       <c r="F20">
-        <v>2003.034651716786</v>
+        <v>6425.606705039118</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>145.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B21">
-        <v>5088.410444050198</v>
+        <v>34881.32277274011</v>
       </c>
       <c r="C21">
-        <v>4739.843930577381</v>
+        <v>24724.38353852012</v>
       </c>
       <c r="D21">
-        <v>18464.20232579659</v>
+        <v>89068.31468013448</v>
       </c>
       <c r="E21">
-        <v>4402.945224859772</v>
+        <v>11853.1159883118</v>
       </c>
       <c r="F21">
-        <v>3105.35834789991</v>
+        <v>3913.082311757942</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>148.3</v>
+        <v>93.7</v>
       </c>
       <c r="B22">
-        <v>12847.95664714178</v>
+        <v>52363.97963314173</v>
       </c>
       <c r="C22">
-        <v>5037.025895888557</v>
+        <v>29246.32023468879</v>
       </c>
       <c r="D22">
-        <v>19104.0286026312</v>
+        <v>89639.11608492161</v>
       </c>
       <c r="E22">
-        <v>4534.982478215137</v>
+        <v>10760.89477160901</v>
       </c>
       <c r="F22">
-        <v>4990.375685431625</v>
+        <v>3205.230172676029</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>150.6</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="B23">
-        <v>10489.09367295365</v>
+        <v>58445.30240588184</v>
       </c>
       <c r="C23">
-        <v>5572.609942125351</v>
+        <v>23831.48283056272</v>
       </c>
       <c r="D23">
-        <v>17580.4133859849</v>
+        <v>94793.82529007697</v>
       </c>
       <c r="E23">
-        <v>5245.246202337202</v>
+        <v>9510.810384390606</v>
       </c>
       <c r="F23">
-        <v>8601.352560940453</v>
+        <v>2698.312484433971</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>152.9</v>
+        <v>97.5</v>
       </c>
       <c r="B24">
-        <v>18230.2306987654</v>
+        <v>62413.28430200771</v>
       </c>
       <c r="C24">
-        <v>9198.193988362145</v>
+        <v>22348.90442348948</v>
       </c>
       <c r="D24">
-        <v>15556.79816933859</v>
+        <v>94587.61249891475</v>
       </c>
       <c r="E24">
-        <v>6175.509926459259</v>
+        <v>7872.094292016209</v>
       </c>
       <c r="F24">
-        <v>15702.32943644928</v>
+        <v>2460.739304590441</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>155.1</v>
+        <v>100</v>
       </c>
       <c r="B25">
-        <v>18765.23133215058</v>
+        <v>61179.93211047231</v>
       </c>
       <c r="C25">
-        <v>13526.57872824082</v>
+        <v>26039.55191612152</v>
       </c>
       <c r="D25">
-        <v>20232.03578819863</v>
+        <v>93815.30750812076</v>
       </c>
       <c r="E25">
-        <v>8351.849140836872</v>
+        <v>9735.515029126213</v>
       </c>
       <c r="F25">
-        <v>26221.95949128381</v>
+        <v>2714.100575586765</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>157.4</v>
+        <v>102.8</v>
       </c>
       <c r="B26">
-        <v>22406.36835796246</v>
+        <v>60342.57765595254</v>
       </c>
       <c r="C26">
-        <v>20812.16277447761</v>
+        <v>25089.87710786942</v>
       </c>
       <c r="D26">
-        <v>24368.42057155231</v>
+        <v>97874.72591843152</v>
       </c>
       <c r="E26">
-        <v>12852.11286495893</v>
+        <v>9585.34625468941</v>
       </c>
       <c r="F26">
-        <v>43852.93636679263</v>
+        <v>3320.265199102649</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>160</v>
+        <v>105.7</v>
       </c>
       <c r="B27">
-        <v>26765.91456105403</v>
+        <v>55303.88911377139</v>
       </c>
       <c r="C27">
-        <v>30939.34473978879</v>
+        <v>21933.42819932258</v>
       </c>
       <c r="D27">
-        <v>31758.24684838692</v>
+        <v>93338.0521291105</v>
       </c>
       <c r="E27">
-        <v>17214.1501183143</v>
+        <v>8327.314309737012</v>
       </c>
       <c r="F27">
-        <v>63257.95370432435</v>
+        <v>2657.364273458387</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>162.2</v>
+        <v>108.9</v>
       </c>
       <c r="B28">
-        <v>44800.91519443934</v>
+        <v>48661.19830860589</v>
       </c>
       <c r="C28">
-        <v>42827.72947966747</v>
+        <v>19996.65698989159</v>
       </c>
       <c r="D28">
-        <v>39943.48446724696</v>
+        <v>90093.10174089421</v>
       </c>
       <c r="E28">
-        <v>21770.48933269192</v>
+        <v>8305.692853237812</v>
       </c>
       <c r="F28">
-        <v>74667.58375915889</v>
+        <v>2017.266700333681</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>164.5</v>
+        <v>111.5</v>
       </c>
       <c r="B29">
-        <v>61542.05222025109</v>
+        <v>42726.512029409</v>
       </c>
       <c r="C29">
-        <v>51903.31352590426</v>
+        <v>17550.53038222893</v>
       </c>
       <c r="D29">
-        <v>35419.86925060064</v>
+        <v>84284.70455046846</v>
       </c>
       <c r="E29">
-        <v>17180.75305681397</v>
+        <v>9441.250419832215</v>
       </c>
       <c r="F29">
-        <v>47138.56063466771</v>
+        <v>1371.562422169856</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>166.7</v>
+        <v>114.1</v>
       </c>
       <c r="B30">
-        <v>50977.05285363627</v>
+        <v>30791.8257502121</v>
       </c>
       <c r="C30">
-        <v>44131.69826578294</v>
+        <v>16904.40377456624</v>
       </c>
       <c r="D30">
-        <v>24255.10686946068</v>
+        <v>77546.30736004275</v>
       </c>
       <c r="E30">
-        <v>10217.09227119159</v>
+        <v>7326.807986426611</v>
       </c>
       <c r="F30">
-        <v>26708.19068950224</v>
+        <v>1475.858144006034</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>169</v>
+        <v>116.4</v>
       </c>
       <c r="B31">
-        <v>39118.18987944814</v>
+        <v>29261.14173399947</v>
       </c>
       <c r="C31">
-        <v>42757.28231201973</v>
+        <v>16558.59946778773</v>
       </c>
       <c r="D31">
-        <v>19731.49165281437</v>
+        <v>71726.18676851227</v>
       </c>
       <c r="E31">
-        <v>11177.35599531364</v>
+        <v>6545.955064567812</v>
       </c>
       <c r="F31">
-        <v>20459.16756501107</v>
+        <v>1027.35051332265</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>171.5</v>
+        <v>118.7</v>
       </c>
       <c r="B32">
-        <v>38171.59969011316</v>
+        <v>20830.45771778682</v>
       </c>
       <c r="C32">
-        <v>38007.26497097279</v>
+        <v>16282.79516100922</v>
       </c>
       <c r="D32">
-        <v>17280.17076515536</v>
+        <v>63806.06617698183</v>
       </c>
       <c r="E32">
-        <v>9245.468738924588</v>
+        <v>6845.102142709015</v>
       </c>
       <c r="F32">
-        <v>20362.83808186849</v>
+        <v>758.8428826392694</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>173.8</v>
+        <v>120.8</v>
       </c>
       <c r="B33">
-        <v>25312.73671592491</v>
+        <v>16202.44187689694</v>
       </c>
       <c r="C33">
-        <v>37032.84901720958</v>
+        <v>17880.53905482012</v>
       </c>
       <c r="D33">
-        <v>16556.55554850904</v>
+        <v>61118.12998471488</v>
       </c>
       <c r="E33">
-        <v>10355.73246304663</v>
+        <v>6829.975561881416</v>
       </c>
       <c r="F33">
-        <v>18813.81495737732</v>
+        <v>728.4663502761805</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>176.1</v>
+        <v>123.2</v>
       </c>
       <c r="B34">
-        <v>29353.87374173678</v>
+        <v>20170.42377302292</v>
       </c>
       <c r="C34">
-        <v>37558.43306344638</v>
+        <v>14657.9606477469</v>
       </c>
       <c r="D34">
-        <v>15312.94033186272</v>
+        <v>59041.91719355267</v>
       </c>
       <c r="E34">
-        <v>9005.996187168703</v>
+        <v>7501.259469507018</v>
       </c>
       <c r="F34">
-        <v>17554.79183288615</v>
+        <v>1170.893170432654</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>178.4</v>
+        <v>125.3</v>
       </c>
       <c r="B35">
-        <v>17495.01076754853</v>
+        <v>11242.40793213316</v>
       </c>
       <c r="C35">
-        <v>41604.01710968318</v>
+        <v>17145.7045415578</v>
       </c>
       <c r="D35">
-        <v>13879.32511521641</v>
+        <v>58143.98100128572</v>
       </c>
       <c r="E35">
-        <v>9646.259911290746</v>
+        <v>7246.13288867942</v>
       </c>
       <c r="F35">
-        <v>13805.76870839497</v>
+        <v>860.516638069565</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>180.7</v>
+        <v>127.4</v>
       </c>
       <c r="B36">
-        <v>25536.1477933604</v>
+        <v>17914.39209124328</v>
       </c>
       <c r="C36">
-        <v>41149.60115592</v>
+        <v>19503.4484353687</v>
       </c>
       <c r="D36">
-        <v>13185.70989857009</v>
+        <v>57156.04480901877</v>
       </c>
       <c r="E36">
-        <v>8416.523635412817</v>
+        <v>7251.006307851821</v>
       </c>
       <c r="F36">
-        <v>12906.7455839038</v>
+        <v>1360.140105706476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>183.3</v>
+        <v>129.5</v>
       </c>
       <c r="B37">
-        <v>19395.69399645198</v>
+        <v>14486.37625035351</v>
       </c>
       <c r="C37">
-        <v>39446.78312123114</v>
+        <v>16391.19232917963</v>
       </c>
       <c r="D37">
-        <v>14965.53617540469</v>
+        <v>58248.10861675182</v>
       </c>
       <c r="E37">
-        <v>7268.560888768177</v>
+        <v>8335.879727024221</v>
       </c>
       <c r="F37">
-        <v>11401.76292143551</v>
+        <v>1419.76357334339</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>185.5</v>
+        <v>131.7</v>
       </c>
       <c r="B38">
-        <v>10730.69462983716</v>
+        <v>12457.02632180224</v>
       </c>
       <c r="C38">
-        <v>40325.16786110982</v>
+        <v>18652.16212269582</v>
       </c>
       <c r="D38">
-        <v>11240.77379426474</v>
+        <v>57564.08022485311</v>
       </c>
       <c r="E38">
-        <v>7534.90010314579</v>
+        <v>7412.889975681024</v>
       </c>
       <c r="F38">
-        <v>10491.39297627005</v>
+        <v>2140.321491820152</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>187.8</v>
+        <v>133.9</v>
       </c>
       <c r="B39">
-        <v>10071.83165564905</v>
+        <v>12927.67639325099</v>
       </c>
       <c r="C39">
-        <v>41030.75190734661</v>
+        <v>19703.13191621202</v>
       </c>
       <c r="D39">
-        <v>9677.158577618415</v>
+        <v>56360.05183295443</v>
       </c>
       <c r="E39">
-        <v>6815.163827267863</v>
+        <v>8439.900224337818</v>
       </c>
       <c r="F39">
-        <v>9272.369851778873</v>
+        <v>1820.879410296921</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>189.8</v>
+        <v>136.2</v>
       </c>
       <c r="B40">
-        <v>20194.55950418099</v>
+        <v>12096.99237703835</v>
       </c>
       <c r="C40">
-        <v>39434.73803450905</v>
+        <v>19727.32760943351</v>
       </c>
       <c r="D40">
-        <v>9510.101867491212</v>
+        <v>57039.93124142395</v>
       </c>
       <c r="E40">
-        <v>8243.654022156603</v>
+        <v>8579.047302479028</v>
       </c>
       <c r="F40">
-        <v>8629.30626526481</v>
+        <v>1612.371779613537</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>192.3</v>
+        <v>138.8</v>
       </c>
       <c r="B41">
-        <v>17047.96931484599</v>
+        <v>10162.30609784146</v>
       </c>
       <c r="C41">
-        <v>41024.72069346211</v>
+        <v>19141.20100177081</v>
       </c>
       <c r="D41">
-        <v>9248.780979832169</v>
+        <v>53271.53405099821</v>
       </c>
       <c r="E41">
-        <v>6851.766765767532</v>
+        <v>8074.604869073422</v>
       </c>
       <c r="F41">
-        <v>8972.976782122229</v>
+        <v>1696.667501449715</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>194.6</v>
+        <v>141</v>
       </c>
       <c r="B42">
-        <v>19289.10634065785</v>
+        <v>7732.956169290192</v>
       </c>
       <c r="C42">
-        <v>41120.30473969891</v>
+        <v>17862.17079528703</v>
       </c>
       <c r="D42">
-        <v>10505.16576318585</v>
+        <v>50987.50565909952</v>
       </c>
       <c r="E42">
-        <v>7092.03048988959</v>
+        <v>8921.615117730225</v>
       </c>
       <c r="F42">
-        <v>8823.953657631057</v>
+        <v>2097.225419926477</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>197.2</v>
+        <v>143.3</v>
       </c>
       <c r="B43">
-        <v>21648.65254374941</v>
+        <v>12302.27215307755</v>
       </c>
       <c r="C43">
-        <v>40897.48670501006</v>
+        <v>17226.36648850849</v>
       </c>
       <c r="D43">
-        <v>8894.99204002045</v>
+        <v>49687.38506756905</v>
       </c>
       <c r="E43">
-        <v>7284.067743244963</v>
+        <v>9360.762195871426</v>
       </c>
       <c r="F43">
-        <v>8208.970995162772</v>
+        <v>2638.717789243096</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>199.5</v>
+        <v>145.7</v>
       </c>
       <c r="B44">
-        <v>24389.7895695613</v>
+        <v>12470.25404920353</v>
       </c>
       <c r="C44">
-        <v>36423.07075124688</v>
+        <v>18503.78808143528</v>
       </c>
       <c r="D44">
-        <v>8151.376823374136</v>
+        <v>48241.17227640683</v>
       </c>
       <c r="E44">
-        <v>6594.331467367021</v>
+        <v>9572.04610349703</v>
       </c>
       <c r="F44">
-        <v>8359.9478706716</v>
+        <v>3731.144609399566</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>201.7</v>
+        <v>148.3</v>
       </c>
       <c r="B45">
-        <v>18124.79020294647</v>
+        <v>20035.56777000664</v>
       </c>
       <c r="C45">
-        <v>39321.45549112555</v>
+        <v>18697.66147377259</v>
       </c>
       <c r="D45">
-        <v>5706.614442234175</v>
+        <v>48432.77508598108</v>
       </c>
       <c r="E45">
-        <v>6480.670681744634</v>
+        <v>9657.603670091426</v>
       </c>
       <c r="F45">
-        <v>8369.577925506128</v>
+        <v>5605.440331235744</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>204</v>
+        <v>150.6</v>
       </c>
       <c r="B46">
-        <v>25265.92722875824</v>
+        <v>17504.883753794</v>
       </c>
       <c r="C46">
-        <v>39327.03953736235</v>
+        <v>19141.85716699407</v>
       </c>
       <c r="D46">
-        <v>6452.999225587861</v>
+        <v>46512.65449445063</v>
       </c>
       <c r="E46">
-        <v>5810.934405866692</v>
+        <v>10326.75074823263</v>
       </c>
       <c r="F46">
-        <v>8510.554801014956</v>
+        <v>9206.932700552361</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>206.6</v>
+        <v>152.9</v>
       </c>
       <c r="B47">
-        <v>34925.47343184992</v>
+        <v>25074.19973758137</v>
       </c>
       <c r="C47">
-        <v>37734.22150267349</v>
+        <v>22676.05286021553</v>
       </c>
       <c r="D47">
-        <v>6552.825502422464</v>
+        <v>44092.53390292019</v>
       </c>
       <c r="E47">
-        <v>6492.971659222065</v>
+        <v>11215.89782637383</v>
       </c>
       <c r="F47">
-        <v>8245.572138546675</v>
+        <v>16298.42506986898</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>208.9</v>
+        <v>155.1</v>
       </c>
       <c r="B48">
-        <v>43266.61045766169</v>
+        <v>25444.8498090301</v>
       </c>
       <c r="C48">
-        <v>38489.80554891031</v>
+        <v>26917.02265373172</v>
       </c>
       <c r="D48">
-        <v>6679.210285776178</v>
+        <v>48388.50551102147</v>
       </c>
       <c r="E48">
-        <v>5633.235383344108</v>
+        <v>13352.90807503063</v>
       </c>
       <c r="F48">
-        <v>7366.549014055503</v>
+        <v>26808.98298834575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>211.2</v>
+        <v>157.4</v>
       </c>
       <c r="B49">
-        <v>57907.74748347355</v>
+        <v>28914.16579281747</v>
       </c>
       <c r="C49">
-        <v>34475.38959514711</v>
+        <v>34111.21834695322</v>
       </c>
       <c r="D49">
-        <v>6085.595069129857</v>
+        <v>52128.38491949099</v>
       </c>
       <c r="E49">
-        <v>5913.499107466179</v>
+        <v>17812.05515317183</v>
       </c>
       <c r="F49">
-        <v>7837.525889564327</v>
+        <v>44430.47535766236</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>213.5</v>
+        <v>160</v>
       </c>
       <c r="B50">
-        <v>73948.88450928532</v>
+        <v>33079.47951362056</v>
       </c>
       <c r="C50">
-        <v>37900.97364138391</v>
+        <v>44135.09173929055</v>
       </c>
       <c r="D50">
-        <v>7241.979852483535</v>
+        <v>59069.98772906527</v>
       </c>
       <c r="E50">
-        <v>6863.762831588221</v>
+        <v>22127.61271976624</v>
       </c>
       <c r="F50">
-        <v>7268.502765073155</v>
+        <v>63824.77107949854</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>215.7</v>
+        <v>162.2</v>
       </c>
       <c r="B51">
-        <v>94083.88514267049</v>
+        <v>50950.1295850693</v>
       </c>
       <c r="C51">
-        <v>36279.35838126259</v>
+        <v>55936.06153280674</v>
       </c>
       <c r="D51">
-        <v>5607.217471343582</v>
+        <v>66875.95933716655</v>
       </c>
       <c r="E51">
-        <v>6200.10204596585</v>
+        <v>26644.62296842303</v>
       </c>
       <c r="F51">
-        <v>7868.132819907685</v>
+        <v>75225.3289979753</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>218.4</v>
+        <v>164.5</v>
       </c>
       <c r="B52">
-        <v>119449.5677381888</v>
+        <v>67519.44556885667</v>
       </c>
       <c r="C52">
-        <v>35033.73965293188</v>
+        <v>64920.25722602821</v>
       </c>
       <c r="D52">
-        <v>6398.190912671824</v>
+        <v>61955.83874563611</v>
       </c>
       <c r="E52">
-        <v>6196.063809065652</v>
+        <v>22013.77004656424</v>
       </c>
       <c r="F52">
-        <v>7594.496978113699</v>
+        <v>47686.82136729192</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>220.7</v>
+        <v>166.7</v>
       </c>
       <c r="B53">
-        <v>138490.7047640006</v>
+        <v>56790.0956403054</v>
       </c>
       <c r="C53">
-        <v>35409.32369916867</v>
+        <v>57061.22701954441</v>
       </c>
       <c r="D53">
-        <v>7284.575696025502</v>
+        <v>50411.8103537374</v>
       </c>
       <c r="E53">
-        <v>6356.32753318771</v>
+        <v>15010.78029522103</v>
       </c>
       <c r="F53">
-        <v>7275.473853622527</v>
+        <v>27247.37928576869</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B54">
-        <v>178231.8417898124</v>
+        <v>44759.41162409277</v>
       </c>
       <c r="C54">
-        <v>33264.90774540546</v>
+        <v>55595.42271276589</v>
       </c>
       <c r="D54">
-        <v>6990.960479379188</v>
+        <v>45491.68976220695</v>
       </c>
       <c r="E54">
-        <v>5276.591257309767</v>
+        <v>15929.92737336223</v>
       </c>
       <c r="F54">
-        <v>7596.450729131355</v>
+        <v>20988.87165508531</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>225.2</v>
+        <v>171.5</v>
       </c>
       <c r="B55">
-        <v>209266.8424231976</v>
+        <v>43626.05943255725</v>
       </c>
       <c r="C55">
-        <v>34853.29248528414</v>
+        <v>50746.07020539793</v>
       </c>
       <c r="D55">
-        <v>4896.198098239227</v>
+        <v>42609.38477141297</v>
       </c>
       <c r="E55">
-        <v>4592.930471687388</v>
+        <v>13953.34811047224</v>
       </c>
       <c r="F55">
-        <v>6516.080783965883</v>
+        <v>20882.23292608163</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>227.5</v>
+        <v>173.8</v>
       </c>
       <c r="B56">
-        <v>253307.9794490094</v>
+        <v>30595.37541634461</v>
       </c>
       <c r="C56">
-        <v>35898.87653152093</v>
+        <v>49680.26589861942</v>
       </c>
       <c r="D56">
-        <v>7352.582881592913</v>
+        <v>41489.26417988249</v>
       </c>
       <c r="E56">
-        <v>6113.194195809452</v>
+        <v>15022.49518861343</v>
       </c>
       <c r="F56">
-        <v>7157.057659474711</v>
+        <v>19323.72529539825</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>229.7</v>
+        <v>176.1</v>
       </c>
       <c r="B57">
-        <v>283842.9800823947</v>
+        <v>34464.69140013198</v>
       </c>
       <c r="C57">
-        <v>33837.26127139964</v>
+        <v>50114.46159184087</v>
       </c>
       <c r="D57">
-        <v>5367.820500452988</v>
+        <v>39849.14358835205</v>
       </c>
       <c r="E57">
-        <v>5319.533410187067</v>
+        <v>13631.64226675464</v>
       </c>
       <c r="F57">
-        <v>7066.687714309241</v>
+        <v>18055.21766471487</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>232.4</v>
+        <v>178.4</v>
       </c>
       <c r="B58">
-        <v>318808.6626779129</v>
+        <v>22434.00738391934</v>
       </c>
       <c r="C58">
-        <v>33021.6425430689</v>
+        <v>54068.65728506237</v>
       </c>
       <c r="D58">
-        <v>4768.79394178123</v>
+        <v>38019.02299682156</v>
       </c>
       <c r="E58">
-        <v>5445.495173286869</v>
+        <v>14230.78934489584</v>
       </c>
       <c r="F58">
-        <v>6193.051872515254</v>
+        <v>14296.71003403148</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>234.7</v>
+        <v>180.7</v>
       </c>
       <c r="B59">
-        <v>345649.7997037247</v>
+        <v>30303.32336770669</v>
       </c>
       <c r="C59">
-        <v>31647.2265893057</v>
+        <v>53522.85297828385</v>
       </c>
       <c r="D59">
-        <v>3295.178725134909</v>
+        <v>36928.90240529111</v>
       </c>
       <c r="E59">
-        <v>4065.758897408926</v>
+        <v>12959.93642303705</v>
       </c>
       <c r="F59">
-        <v>5684.028748024082</v>
+        <v>13388.2024033481</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>236.9</v>
+        <v>183.3</v>
       </c>
       <c r="B60">
-        <v>396684.8003371098</v>
+        <v>23968.6370885098</v>
       </c>
       <c r="C60">
-        <v>30835.61132918438</v>
+        <v>51716.72637062116</v>
       </c>
       <c r="D60">
-        <v>6080.416343994948</v>
+        <v>38260.50521486536</v>
       </c>
       <c r="E60">
-        <v>4962.098111786539</v>
+        <v>11765.49398963144</v>
       </c>
       <c r="F60">
-        <v>6013.658802858614</v>
+        <v>11872.49812518428</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>239.2</v>
+        <v>185.5</v>
       </c>
       <c r="B61">
-        <v>437125.9373629217</v>
+        <v>15139.28715995854</v>
       </c>
       <c r="C61">
-        <v>29881.1953754212</v>
+        <v>52507.69616413736</v>
       </c>
       <c r="D61">
-        <v>6976.801127348634</v>
+        <v>34156.47682296665</v>
       </c>
       <c r="E61">
-        <v>6152.36183590861</v>
+        <v>11992.50423828824</v>
       </c>
       <c r="F61">
-        <v>5804.635678367438</v>
+        <v>10953.05604366104</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>241.5</v>
+        <v>187.8</v>
       </c>
       <c r="B62">
-        <v>478967.0743887335</v>
+        <v>14308.6031437459</v>
       </c>
       <c r="C62">
-        <v>31686.77942165799</v>
+        <v>53121.89185735884</v>
       </c>
       <c r="D62">
-        <v>5473.185910702319</v>
+        <v>32196.3562314362</v>
       </c>
       <c r="E62">
-        <v>5572.625560030654</v>
+        <v>11231.65131642944</v>
       </c>
       <c r="F62">
-        <v>5105.612553876266</v>
+        <v>9724.54841297766</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>243.7</v>
+        <v>189.8</v>
       </c>
       <c r="B63">
-        <v>513502.0750221186</v>
+        <v>24281.92139051751</v>
       </c>
       <c r="C63">
-        <v>29825.16416153667</v>
+        <v>51446.40985146448</v>
       </c>
       <c r="D63">
-        <v>6848.423529562366</v>
+        <v>31684.51223880102</v>
       </c>
       <c r="E63">
-        <v>4518.964774408281</v>
+        <v>12624.38790611744</v>
       </c>
       <c r="F63">
-        <v>4805.242608710795</v>
+        <v>9073.237429774719</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>246</v>
+        <v>192.3</v>
       </c>
       <c r="B64">
-        <v>546543.2120479306</v>
+        <v>20948.569198982</v>
       </c>
       <c r="C64">
-        <v>29660.74820777346</v>
+        <v>52937.05734409653</v>
       </c>
       <c r="D64">
-        <v>2934.808312916051</v>
+        <v>30992.20724800705</v>
       </c>
       <c r="E64">
-        <v>4689.228498530339</v>
+        <v>11187.80864322744</v>
       </c>
       <c r="F64">
-        <v>5186.219484219623</v>
+        <v>9406.598700771045</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>248.6</v>
+        <v>194.6</v>
       </c>
       <c r="B65">
-        <v>574902.7582510222</v>
+        <v>23017.88518276936</v>
       </c>
       <c r="C65">
-        <v>27467.93017308464</v>
+        <v>52941.25303731801</v>
       </c>
       <c r="D65">
-        <v>3834.63458975064</v>
+        <v>31852.08665647659</v>
       </c>
       <c r="E65">
-        <v>4121.265751885705</v>
+        <v>11386.95572136865</v>
       </c>
       <c r="F65">
-        <v>4651.236821751339</v>
+        <v>9248.091070087661</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>250.9</v>
+        <v>197.2</v>
       </c>
       <c r="B66">
-        <v>632243.8952768339</v>
+        <v>25183.19890357247</v>
       </c>
       <c r="C66">
-        <v>26763.51421932143</v>
+        <v>52615.12642965532</v>
       </c>
       <c r="D66">
-        <v>3101.019373104355</v>
+        <v>29793.68946605085</v>
       </c>
       <c r="E66">
-        <v>4191.529476007762</v>
+        <v>11532.51328796304</v>
       </c>
       <c r="F66">
-        <v>4332.213697260166</v>
+        <v>8622.38679192384</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>253.2</v>
+        <v>199.5</v>
       </c>
       <c r="B67">
-        <v>673285.0323026457</v>
+        <v>27752.51488735982</v>
       </c>
       <c r="C67">
-        <v>26499.09826555822</v>
+        <v>48049.32212287682</v>
       </c>
       <c r="D67">
-        <v>1207.40415645804</v>
+        <v>28653.56887452037</v>
       </c>
       <c r="E67">
-        <v>5041.793200129812</v>
+        <v>10801.66036610425</v>
       </c>
       <c r="F67">
-        <v>3593.190572768995</v>
+        <v>8763.879161240458</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>255.5</v>
+        <v>201.7</v>
       </c>
       <c r="B68">
-        <v>703226.1693284576</v>
+        <v>21323.16495880856</v>
       </c>
       <c r="C68">
-        <v>22574.68231179502</v>
+        <v>50860.29191639301</v>
       </c>
       <c r="D68">
-        <v>3443.788939811726</v>
+        <v>25829.54048262169</v>
       </c>
       <c r="E68">
-        <v>3982.056924251877</v>
+        <v>10648.67061476105</v>
       </c>
       <c r="F68">
-        <v>3604.167448277822</v>
+        <v>8764.437079717223</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>257.8</v>
+        <v>204</v>
       </c>
       <c r="B69">
-        <v>694967.3063542695</v>
+        <v>28292.48094259592</v>
       </c>
       <c r="C69">
-        <v>24280.26635803181</v>
+        <v>50774.48760961447</v>
       </c>
       <c r="D69">
-        <v>2060.173723165412</v>
+        <v>26179.41989109121</v>
       </c>
       <c r="E69">
-        <v>5172.320648373927</v>
+        <v>9937.817692902247</v>
       </c>
       <c r="F69">
-        <v>3565.14432378665</v>
+        <v>8895.92944903384</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>260.4</v>
+        <v>206.6</v>
       </c>
       <c r="B70">
-        <v>711126.8525573609</v>
+        <v>37757.79466339904</v>
       </c>
       <c r="C70">
-        <v>24197.44832334299</v>
+        <v>49078.3610019518</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>25831.02270066549</v>
       </c>
       <c r="E70">
-        <v>2494.3579017293</v>
+        <v>10573.37525949665</v>
       </c>
       <c r="F70">
-        <v>2870.161661318366</v>
+        <v>8620.225170870019</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>262.7</v>
+        <v>208.9</v>
       </c>
       <c r="B71">
-        <v>722867.9895831728</v>
+        <v>45927.11064718639</v>
       </c>
       <c r="C71">
-        <v>17793.03236957978</v>
+        <v>49742.55669517328</v>
       </c>
       <c r="D71">
-        <v>1766.384783353686</v>
+        <v>25560.90210913501</v>
       </c>
       <c r="E71">
-        <v>2494.621625851357</v>
+        <v>9672.522337637853</v>
       </c>
       <c r="F71">
-        <v>3111.138536827193</v>
+        <v>7731.717540186633</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>264.9</v>
+        <v>211.2</v>
       </c>
       <c r="B72">
-        <v>747102.990216558</v>
+        <v>60396.42663097376</v>
       </c>
       <c r="C72">
-        <v>22511.41710945846</v>
+        <v>45636.75238839478</v>
       </c>
       <c r="D72">
-        <v>3951.622402213732</v>
+        <v>24570.78151760456</v>
       </c>
       <c r="E72">
-        <v>4280.960840228978</v>
+        <v>9911.669415779055</v>
       </c>
       <c r="F72">
-        <v>3030.768591661722</v>
+        <v>8193.209909503254</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>267.2</v>
+        <v>213.5</v>
       </c>
       <c r="B73">
-        <v>743544.1272423698</v>
+        <v>76265.74261476111</v>
       </c>
       <c r="C73">
-        <v>26117.00115569526</v>
+        <v>48970.94808161623</v>
       </c>
       <c r="D73">
-        <v>3528.007185567447</v>
+        <v>25330.66092607408</v>
       </c>
       <c r="E73">
-        <v>4621.224564351043</v>
+        <v>10820.81649392025</v>
       </c>
       <c r="F73">
-        <v>2701.74546717055</v>
+        <v>7614.702278819869</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>269.5</v>
+        <v>215.7</v>
       </c>
       <c r="B74">
-        <v>700685.2642681818</v>
+        <v>96236.39268620986</v>
       </c>
       <c r="C74">
-        <v>21202.58520193207</v>
+        <v>47261.91787513243</v>
       </c>
       <c r="D74">
-        <v>5954.391968921096</v>
+        <v>23316.6325341754</v>
       </c>
       <c r="E74">
-        <v>3371.488288473093</v>
+        <v>10117.82674257706</v>
       </c>
       <c r="F74">
-        <v>2412.722342679378</v>
+        <v>8205.260197296635</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>271.8</v>
+        <v>218.4</v>
       </c>
       <c r="B75">
-        <v>659526.4012939933</v>
+        <v>121400.3723193515</v>
       </c>
       <c r="C75">
-        <v>21658.16924816887</v>
+        <v>45909.01716717504</v>
       </c>
       <c r="D75">
-        <v>3650.776752274811</v>
+        <v>23642.14314411789</v>
       </c>
       <c r="E75">
-        <v>3541.75201259515</v>
+        <v>10065.52113865585</v>
       </c>
       <c r="F75">
-        <v>2523.699218188201</v>
+        <v>7920.490369972667</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>274.4</v>
+        <v>220.7</v>
       </c>
       <c r="B76">
-        <v>615185.9474970851</v>
+        <v>140269.6883031388</v>
       </c>
       <c r="C76">
-        <v>17705.35121348002</v>
+        <v>46193.21286039652</v>
       </c>
       <c r="D76">
-        <v>5470.603029109407</v>
+        <v>24132.02255258744</v>
       </c>
       <c r="E76">
-        <v>2763.789265950516</v>
+        <v>10184.66821679706</v>
       </c>
       <c r="F76">
-        <v>1848.716555719921</v>
+        <v>7591.982739289283</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>276.6</v>
+        <v>223</v>
       </c>
       <c r="B77">
-        <v>539420.9481304702</v>
+        <v>179839.0042869262</v>
       </c>
       <c r="C77">
-        <v>16443.73595335869</v>
+        <v>43957.40855361801</v>
       </c>
       <c r="D77">
-        <v>5445.840647969453</v>
+        <v>23441.90196105696</v>
       </c>
       <c r="E77">
-        <v>1770.128480328137</v>
+        <v>9063.815294938258</v>
       </c>
       <c r="F77">
-        <v>2028.346610554453</v>
+        <v>7903.475108605902</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>278.9</v>
+        <v>225.2</v>
       </c>
       <c r="B78">
-        <v>480262.0851562821</v>
+        <v>210709.6543583751</v>
       </c>
       <c r="C78">
-        <v>13609.31999959551</v>
+        <v>45458.37834713421</v>
       </c>
       <c r="D78">
-        <v>3612.225431323131</v>
+        <v>20967.87356915828</v>
       </c>
       <c r="E78">
-        <v>2720.392204450194</v>
+        <v>8340.82554359506</v>
       </c>
       <c r="F78">
-        <v>1419.323486063277</v>
+        <v>6814.033027082664</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>281.2</v>
+        <v>227.5</v>
       </c>
       <c r="B79">
-        <v>441103.2221820939</v>
+        <v>254578.9703421623</v>
       </c>
       <c r="C79">
-        <v>15344.90404583231</v>
+        <v>46412.57404035566</v>
       </c>
       <c r="D79">
-        <v>2948.610214676817</v>
+        <v>23027.7529776278</v>
       </c>
       <c r="E79">
-        <v>2090.655928572251</v>
+        <v>9819.972621736255</v>
       </c>
       <c r="F79">
-        <v>1320.300361572105</v>
+        <v>7445.525396399284</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>283.8</v>
+        <v>229.7</v>
       </c>
       <c r="B80">
-        <v>413962.7683851854</v>
+        <v>284949.6204136112</v>
       </c>
       <c r="C80">
-        <v>17672.08601114345</v>
+        <v>44263.54383387189</v>
       </c>
       <c r="D80">
-        <v>5308.436491511413</v>
+        <v>20663.72458572912</v>
       </c>
       <c r="E80">
-        <v>2102.693181927617</v>
+        <v>8986.982870393056</v>
       </c>
       <c r="F80">
-        <v>1325.317699103824</v>
+        <v>7346.083314876048</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>285.8</v>
+        <v>232.4</v>
       </c>
       <c r="B81">
-        <v>377785.4962337174</v>
+        <v>319713.6000467528</v>
       </c>
       <c r="C81">
-        <v>16946.0721383059</v>
+        <v>43340.64312591448</v>
       </c>
       <c r="D81">
-        <v>3751.379781384181</v>
+        <v>19599.2351956716</v>
       </c>
       <c r="E81">
-        <v>3091.183376816366</v>
+        <v>9064.677266471859</v>
       </c>
       <c r="F81">
-        <v>1762.254112589761</v>
+        <v>6461.313487552078</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>288.4</v>
+        <v>234.7</v>
       </c>
       <c r="B82">
-        <v>356745.0424368092</v>
+        <v>346382.9160305401</v>
       </c>
       <c r="C82">
-        <v>21673.25410361707</v>
+        <v>41874.83881913595</v>
       </c>
       <c r="D82">
-        <v>8401.206058218784</v>
+        <v>17729.11460414115</v>
       </c>
       <c r="E82">
-        <v>2393.220630171732</v>
+        <v>7643.824344613062</v>
       </c>
       <c r="F82">
-        <v>1467.271450121477</v>
+        <v>5942.805856868697</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>290.7</v>
+        <v>236.9</v>
       </c>
       <c r="B83">
-        <v>341586.1794626209</v>
+        <v>397253.5661019889</v>
       </c>
       <c r="C83">
-        <v>20418.83814985387</v>
+        <v>40975.80861265214</v>
       </c>
       <c r="D83">
-        <v>4557.590841572492</v>
+        <v>20135.08621224244</v>
       </c>
       <c r="E83">
-        <v>1823.484354293789</v>
+        <v>8500.834593269856</v>
       </c>
       <c r="F83">
-        <v>1508.248325630301</v>
+        <v>6263.363775345462</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>293</v>
+        <v>239.2</v>
       </c>
       <c r="B84">
-        <v>343327.3164884327</v>
+        <v>437522.8820857762</v>
       </c>
       <c r="C84">
-        <v>21464.42219609066</v>
+        <v>39930.00430587363</v>
       </c>
       <c r="D84">
-        <v>6193.975624926177</v>
+        <v>20634.96562071199</v>
       </c>
       <c r="E84">
-        <v>393.7480784158465</v>
+        <v>9649.981671411066</v>
       </c>
       <c r="F84">
-        <v>1579.225201139128</v>
+        <v>6044.856144662079</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>295.3</v>
+        <v>241.5</v>
       </c>
       <c r="B85">
-        <v>330868.4535142445</v>
+        <v>479192.1980695635</v>
       </c>
       <c r="C85">
-        <v>23680.00624232745</v>
+        <v>41644.19999909512</v>
       </c>
       <c r="D85">
-        <v>6130.360408279863</v>
+        <v>18734.84502918151</v>
       </c>
       <c r="E85">
-        <v>2844.011802537903</v>
+        <v>9029.128749552261</v>
       </c>
       <c r="F85">
-        <v>1240.202076647956</v>
+        <v>5336.348513978698</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>297.9</v>
+        <v>243.7</v>
       </c>
       <c r="B86">
-        <v>305127.9997173361</v>
+        <v>513562.8481410123</v>
       </c>
       <c r="C86">
-        <v>21357.18820763863</v>
+        <v>39695.1697926113</v>
       </c>
       <c r="D86">
-        <v>4300.186685114459</v>
+        <v>19730.81663728283</v>
       </c>
       <c r="E86">
-        <v>1576.049055893277</v>
+        <v>7936.13899820907</v>
       </c>
       <c r="F86">
-        <v>1365.219414179676</v>
+        <v>5026.906432455464</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>299.6</v>
+        <v>246</v>
       </c>
       <c r="B87">
-        <v>303432.3183885884</v>
+        <v>546432.1641247998</v>
       </c>
       <c r="C87">
-        <v>27799.57641572669</v>
+        <v>39439.3654858328</v>
       </c>
       <c r="D87">
-        <v>7799.688481506309</v>
+        <v>15420.69604575235</v>
       </c>
       <c r="E87">
-        <v>1082.765721548702</v>
+        <v>8065.286076350263</v>
       </c>
       <c r="F87">
-        <v>1278.115365642721</v>
+        <v>5398.398801772079</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>302.5</v>
+        <v>248.6</v>
       </c>
       <c r="B88">
-        <v>297910.2737689597</v>
+        <v>574597.4778456028</v>
       </c>
       <c r="C88">
-        <v>25358.35630011222</v>
+        <v>37143.2388781701</v>
       </c>
       <c r="D88">
-        <v>6922.956251821823</v>
+        <v>15872.2988553266</v>
       </c>
       <c r="E88">
-        <v>2106.576504137384</v>
+        <v>7450.843642944666</v>
       </c>
       <c r="F88">
-        <v>1107.173165197328</v>
+        <v>4852.694523608257</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>304.7</v>
+        <v>250.9</v>
       </c>
       <c r="B89">
-        <v>279245.2744023449</v>
+        <v>631766.7938293902</v>
       </c>
       <c r="C89">
-        <v>24426.74103999089</v>
+        <v>36347.4345713916</v>
       </c>
       <c r="D89">
-        <v>3418.193870681869</v>
+        <v>14742.17826379616</v>
       </c>
       <c r="E89">
-        <v>902.9157185150048</v>
+        <v>7479.990721085869</v>
       </c>
       <c r="F89">
-        <v>796.8032200318603</v>
+        <v>4524.186892924877</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>307</v>
+        <v>253.2</v>
       </c>
       <c r="B90">
-        <v>268586.4114281568</v>
+        <v>672636.1098131775</v>
       </c>
       <c r="C90">
-        <v>27352.32508622772</v>
+        <v>35991.63026461308</v>
       </c>
       <c r="D90">
-        <v>4944.578654035577</v>
+        <v>12452.05767226571</v>
       </c>
       <c r="E90">
-        <v>1643.179442637062</v>
+        <v>8289.137799227065</v>
       </c>
       <c r="F90">
-        <v>1307.780095540688</v>
+        <v>3775.679262241493</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>309.6</v>
+        <v>255.5</v>
       </c>
       <c r="B91">
-        <v>256045.9576312484</v>
+        <v>702405.4257969649</v>
       </c>
       <c r="C91">
-        <v>26529.50705153887</v>
+        <v>31975.82595783454</v>
       </c>
       <c r="D91">
-        <v>4634.40493087018</v>
+        <v>14291.93708073523</v>
       </c>
       <c r="E91">
-        <v>465.2166959924284</v>
+        <v>7188.284877368273</v>
       </c>
       <c r="F91">
-        <v>762.7974330724028</v>
+        <v>3777.171631558112</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>311.9</v>
+        <v>257.8</v>
       </c>
       <c r="B92">
-        <v>245687.0946570603</v>
+        <v>693974.7417807522</v>
       </c>
       <c r="C92">
-        <v>28175.09109777566</v>
+        <v>33590.02165105603</v>
       </c>
       <c r="D92">
-        <v>6290.789714223865</v>
+        <v>12511.81648920478</v>
       </c>
       <c r="E92">
-        <v>1345.480420114493</v>
+        <v>8337.431955509468</v>
       </c>
       <c r="F92">
-        <v>913.7743085812281</v>
+        <v>3728.664000874732</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>314.2</v>
+        <v>260.4</v>
       </c>
       <c r="B93">
-        <v>238428.231682872</v>
+        <v>709940.0555015552</v>
       </c>
       <c r="C93">
-        <v>26710.67514401248</v>
+        <v>33403.89504339334</v>
       </c>
       <c r="D93">
-        <v>5107.174497577544</v>
+        <v>10003.41929877903</v>
       </c>
       <c r="E93">
-        <v>155.7441442365498</v>
+        <v>5612.989522103871</v>
       </c>
       <c r="F93">
-        <v>924.7511840900552</v>
+        <v>3022.959722710907</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>316.4</v>
+        <v>262.7</v>
       </c>
       <c r="B94">
-        <v>237663.2323162572</v>
+        <v>721509.3714853426</v>
       </c>
       <c r="C94">
-        <v>23199.05988389116</v>
+        <v>26908.09073661483</v>
       </c>
       <c r="D94">
-        <v>6172.412116437583</v>
+        <v>11373.29870724858</v>
       </c>
       <c r="E94">
-        <v>1412.083358614163</v>
+        <v>5572.136600245074</v>
       </c>
       <c r="F94">
-        <v>1034.381238924584</v>
+        <v>3254.452092027523</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>318.7</v>
+        <v>264.9</v>
       </c>
       <c r="B95">
-        <v>239004.3693420691</v>
+        <v>745580.0215567914</v>
       </c>
       <c r="C95">
-        <v>21434.64393012795</v>
+        <v>31539.06053013102</v>
       </c>
       <c r="D95">
-        <v>6698.796899791269</v>
+        <v>13179.27031534987</v>
       </c>
       <c r="E95">
-        <v>912.3470827362207</v>
+        <v>7319.146848901868</v>
       </c>
       <c r="F95">
-        <v>895.3581144334121</v>
+        <v>3165.010010504288</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>321.3</v>
+        <v>267.2</v>
       </c>
       <c r="B96">
-        <v>227363.9155451606</v>
+        <v>741849.3375405787</v>
       </c>
       <c r="C96">
-        <v>21661.8258954391</v>
+        <v>35053.25622335251</v>
       </c>
       <c r="D96">
-        <v>6138.623176625872</v>
+        <v>12359.14972381942</v>
       </c>
       <c r="E96">
-        <v>1814.384336091587</v>
+        <v>7618.293927043076</v>
       </c>
       <c r="F96">
-        <v>1240.37545196513</v>
+        <v>2826.502379820907</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>323.6</v>
+        <v>269.5</v>
       </c>
       <c r="B97">
-        <v>225605.0525709725</v>
+        <v>698818.6535243661</v>
       </c>
       <c r="C97">
-        <v>15947.40994167589</v>
+        <v>30047.45191657397</v>
       </c>
       <c r="D97">
-        <v>5435.007959979557</v>
+        <v>14389.02913228894</v>
       </c>
       <c r="E97">
-        <v>1224.648060213644</v>
+        <v>6327.441005184271</v>
       </c>
       <c r="F97">
-        <v>711.3523274739582</v>
+        <v>2527.994749137526</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>325.9</v>
+        <v>271.8</v>
       </c>
       <c r="B98">
-        <v>220446.1895967843</v>
+        <v>657487.9695081534</v>
       </c>
       <c r="C98">
-        <v>12952.99398791272</v>
+        <v>30411.64760979545</v>
       </c>
       <c r="D98">
-        <v>3871.392743333265</v>
+        <v>11688.90854075849</v>
       </c>
       <c r="E98">
-        <v>2084.911784335708</v>
+        <v>6456.588083325474</v>
       </c>
       <c r="F98">
-        <v>1162.329202982787</v>
+        <v>2629.487118454143</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>328.2</v>
+        <v>274.4</v>
       </c>
       <c r="B99">
-        <v>214087.3266225961</v>
+        <v>612953.2832289565</v>
       </c>
       <c r="C99">
-        <v>13068.57803414951</v>
+        <v>26355.52100213279</v>
       </c>
       <c r="D99">
-        <v>4947.777526686914</v>
+        <v>13060.51135033274</v>
       </c>
       <c r="E99">
-        <v>1225.175508457758</v>
+        <v>5632.145649919878</v>
       </c>
       <c r="F99">
-        <v>773.3060784916115</v>
+        <v>1943.782840290318</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>330.8</v>
+        <v>276.6</v>
       </c>
       <c r="B100">
-        <v>204446.8728256877</v>
+        <v>537023.9333004053</v>
       </c>
       <c r="C100">
-        <v>12065.75999946066</v>
+        <v>25006.49079564898</v>
       </c>
       <c r="D100">
-        <v>5957.603803521546</v>
+        <v>12656.48295843403</v>
       </c>
       <c r="E100">
-        <v>177.2127618131249</v>
+        <v>4599.155898576671</v>
       </c>
       <c r="F100">
-        <v>1138.32341602333</v>
+        <v>2114.340758767086</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>333.1</v>
+        <v>278.9</v>
       </c>
       <c r="B101">
-        <v>202588.0098514994</v>
+        <v>477693.2492841926</v>
       </c>
       <c r="C101">
-        <v>12421.34404569748</v>
+        <v>22080.68648887044</v>
       </c>
       <c r="D101">
-        <v>6633.988586875232</v>
+        <v>10426.36236690358</v>
       </c>
       <c r="E101">
-        <v>567.4764859351817</v>
+        <v>5508.302976717881</v>
       </c>
       <c r="F101">
-        <v>809.3002915321576</v>
+        <v>1495.833128083702</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>335.4</v>
+        <v>281.2</v>
       </c>
       <c r="B102">
-        <v>200829.1468773113</v>
+        <v>438362.5652679801</v>
       </c>
       <c r="C102">
-        <v>10476.92809193428</v>
+        <v>23724.88218209193</v>
       </c>
       <c r="D102">
-        <v>4020.37337022891</v>
+        <v>9366.241775373135</v>
       </c>
       <c r="E102">
-        <v>767.740210057239</v>
+        <v>4837.450054859075</v>
       </c>
       <c r="F102">
-        <v>1020.277167040983</v>
+        <v>1387.325497400322</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>337.7</v>
+        <v>283.8</v>
       </c>
       <c r="B103">
-        <v>188570.2839031232</v>
+        <v>411027.8789887832</v>
       </c>
       <c r="C103">
-        <v>11692.51213817107</v>
+        <v>25948.75557442927</v>
       </c>
       <c r="D103">
-        <v>5896.758153582596</v>
+        <v>11277.84458494739</v>
       </c>
       <c r="E103">
-        <v>1048.003934179296</v>
+        <v>4803.007621453478</v>
       </c>
       <c r="F103">
-        <v>781.25404254981</v>
+        <v>1381.621219236496</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>339.9</v>
+        <v>285.8</v>
       </c>
       <c r="B104">
-        <v>174105.2845365084</v>
+        <v>374701.1972355548</v>
       </c>
       <c r="C104">
-        <v>12250.89687804974</v>
+        <v>25143.2735685349</v>
       </c>
       <c r="D104">
-        <v>6021.995772442635</v>
+        <v>9376.000592312175</v>
       </c>
       <c r="E104">
-        <v>834.3431485569245</v>
+        <v>5755.744211141478</v>
       </c>
       <c r="F104">
-        <v>1170.884097384339</v>
+        <v>1810.310236033557</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>342.2</v>
+        <v>288.4</v>
       </c>
       <c r="B105">
-        <v>175846.4215623201</v>
+        <v>353466.5109563578</v>
       </c>
       <c r="C105">
-        <v>12246.48092428654</v>
+        <v>29767.14696087221</v>
       </c>
       <c r="D105">
-        <v>4098.380555796321</v>
+        <v>13577.60340188646</v>
       </c>
       <c r="E105">
-        <v>604.606872678974</v>
+        <v>5011.301777735884</v>
       </c>
       <c r="F105">
-        <v>841.8609728931669</v>
+        <v>1504.605957869736</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>344.5</v>
+        <v>290.7</v>
       </c>
       <c r="B106">
-        <v>173087.558588132</v>
+        <v>338135.8269401452</v>
       </c>
       <c r="C106">
-        <v>10022.06497052333</v>
+        <v>28421.3426540937</v>
       </c>
       <c r="D106">
-        <v>5484.765339150006</v>
+        <v>9337.48281035601</v>
       </c>
       <c r="E106">
-        <v>44.8705968010313</v>
+        <v>4400.448855877084</v>
       </c>
       <c r="F106">
-        <v>802.837848401995</v>
+        <v>1536.098327186352</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>347.1</v>
+        <v>293</v>
       </c>
       <c r="B107">
-        <v>177247.1047912236</v>
+        <v>339705.1429239325</v>
       </c>
       <c r="C107">
-        <v>15069.24693583451</v>
+        <v>29375.53834731516</v>
       </c>
       <c r="D107">
-        <v>6114.591615984609</v>
+        <v>10577.36221882553</v>
       </c>
       <c r="E107">
-        <v>1766.907850156397</v>
+        <v>2929.595934018279</v>
       </c>
       <c r="F107">
-        <v>537.8551859337131</v>
+        <v>1597.590696502971</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>349.4</v>
+        <v>295.3</v>
       </c>
       <c r="B108">
-        <v>162288.2418170355</v>
+        <v>327074.4589077199</v>
       </c>
       <c r="C108">
-        <v>10884.8309820713</v>
+        <v>31499.73404053665</v>
       </c>
       <c r="D108">
-        <v>6630.976399338317</v>
+        <v>10117.24162729508</v>
       </c>
       <c r="E108">
-        <v>657.171574278455</v>
+        <v>5338.743012159482</v>
       </c>
       <c r="F108">
-        <v>288.8320614425384</v>
+        <v>1249.083065819586</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>351.7</v>
+        <v>297.9</v>
       </c>
       <c r="B109">
-        <v>163729.3788428472</v>
+        <v>301139.772628523</v>
       </c>
       <c r="C109">
-        <v>14000.41502830812</v>
+        <v>29073.60743287399</v>
       </c>
       <c r="D109">
-        <v>7357.361182691995</v>
+        <v>7838.844436869334</v>
       </c>
       <c r="E109">
-        <v>1447.435298400512</v>
+        <v>4024.300578753885</v>
       </c>
       <c r="F109">
-        <v>619.8089369513655</v>
+        <v>1363.378787655765</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>354</v>
+        <v>299.6</v>
       </c>
       <c r="B110">
-        <v>172570.515868659</v>
+        <v>299317.0931382789</v>
       </c>
       <c r="C110">
-        <v>12555.99907454492</v>
+        <v>35448.44772786378</v>
       </c>
       <c r="D110">
-        <v>6243.745966045681</v>
+        <v>11045.27704312942</v>
       </c>
       <c r="E110">
-        <v>707.6990225225695</v>
+        <v>3500.626679988684</v>
       </c>
       <c r="F110">
-        <v>1300.78581246019</v>
+        <v>1269.264451933266</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>356.2</v>
+        <v>302.5</v>
       </c>
       <c r="B111">
-        <v>159105.5165020443</v>
+        <v>293578.4045960977</v>
       </c>
       <c r="C111">
-        <v>11914.38381442359</v>
+        <v>32891.99881931693</v>
       </c>
       <c r="D111">
-        <v>8388.983584905727</v>
+        <v>9668.603253808407</v>
       </c>
       <c r="E111">
-        <v>1934.03823690019</v>
+        <v>4472.594735036289</v>
       </c>
       <c r="F111">
-        <v>1360.415867294722</v>
+        <v>1086.363526289001</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>358.9</v>
+        <v>304.7</v>
       </c>
       <c r="B112">
-        <v>163871.1990975624</v>
+        <v>274749.0546675465</v>
       </c>
       <c r="C112">
-        <v>11348.76508609289</v>
+        <v>31872.96861283313</v>
       </c>
       <c r="D112">
-        <v>9089.957026233962</v>
+        <v>5784.574861909696</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>3229.604983693083</v>
       </c>
       <c r="F112">
-        <v>846.7800255007369</v>
+        <v>766.921444765766</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>360.8</v>
+        <v>307</v>
       </c>
       <c r="B113">
-        <v>156087.7905536679</v>
+        <v>263918.3706513338</v>
       </c>
       <c r="C113">
-        <v>10565.55190689718</v>
+        <v>34707.16430605462</v>
       </c>
       <c r="D113">
-        <v>10221.7531516131</v>
+        <v>6914.454270379247</v>
       </c>
       <c r="E113">
-        <v>1504.565685144304</v>
+        <v>3928.752061834292</v>
       </c>
       <c r="F113">
-        <v>742.3696183123739</v>
+        <v>1268.413814082385</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>363.4</v>
+        <v>309.6</v>
       </c>
       <c r="B114">
-        <v>165947.3367567595</v>
+        <v>251183.6843721369</v>
       </c>
       <c r="C114">
-        <v>11312.73387220836</v>
+        <v>33781.03769839193</v>
       </c>
       <c r="D114">
-        <v>12361.57942844769</v>
+        <v>6156.057079953494</v>
       </c>
       <c r="E114">
-        <v>1606.602938499671</v>
+        <v>2704.309628428688</v>
       </c>
       <c r="F114">
-        <v>1107.386955844094</v>
+        <v>712.7095359185601</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>365.7</v>
+        <v>311.9</v>
       </c>
       <c r="B115">
-        <v>169588.4737825713</v>
+        <v>240653.0003559242</v>
       </c>
       <c r="C115">
-        <v>13498.31791844515</v>
+        <v>35335.23339161341</v>
       </c>
       <c r="D115">
-        <v>10277.96421180137</v>
+        <v>7415.936488423049</v>
       </c>
       <c r="E115">
-        <v>2536.866662621728</v>
+        <v>3543.456706569891</v>
       </c>
       <c r="F115">
-        <v>1098.363831352922</v>
+        <v>854.2019052351761</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>368</v>
+        <v>314.2</v>
       </c>
       <c r="B116">
-        <v>172629.6108083831</v>
+        <v>233222.3163397117</v>
       </c>
       <c r="C116">
-        <v>14043.90196468195</v>
+        <v>33779.4290848349</v>
       </c>
       <c r="D116">
-        <v>11314.34899515506</v>
+        <v>5835.8158968926</v>
       </c>
       <c r="E116">
-        <v>2997.130386743785</v>
+        <v>2312.603784711092</v>
       </c>
       <c r="F116">
-        <v>529.3407068617489</v>
+        <v>855.6942745517954</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>370.3</v>
+        <v>316.4</v>
       </c>
       <c r="B117">
-        <v>176170.7478341949</v>
+        <v>232292.9664111604</v>
       </c>
       <c r="C117">
-        <v>10869.48601091874</v>
+        <v>30180.3988783511</v>
       </c>
       <c r="D117">
-        <v>13560.73377850877</v>
+        <v>6521.787504993888</v>
       </c>
       <c r="E117">
-        <v>2407.394110865842</v>
+        <v>3529.614033367895</v>
       </c>
       <c r="F117">
-        <v>700.3175823705769</v>
+        <v>956.2521930285607</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>372.9</v>
+        <v>318.7</v>
       </c>
       <c r="B118">
-        <v>171930.2940372865</v>
+        <v>233462.2823949477</v>
       </c>
       <c r="C118">
-        <v>12246.66797622992</v>
+        <v>28324.59457157258</v>
       </c>
       <c r="D118">
-        <v>15760.56005534336</v>
+        <v>6651.66691346341</v>
       </c>
       <c r="E118">
-        <v>4319.431364221216</v>
+        <v>2988.761111509096</v>
       </c>
       <c r="F118">
-        <v>505.3349199022887</v>
+        <v>807.7445623451804</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>375.2</v>
+        <v>321.3</v>
       </c>
       <c r="B119">
-        <v>181271.4310630983</v>
+        <v>221627.5961157508</v>
       </c>
       <c r="C119">
-        <v>11762.25202246671</v>
+        <v>28448.46796390989</v>
       </c>
       <c r="D119">
-        <v>18006.94483869705</v>
+        <v>5643.269723037691</v>
       </c>
       <c r="E119">
-        <v>4089.695088343273</v>
+        <v>3844.318678103492</v>
       </c>
       <c r="F119">
-        <v>1156.311795411117</v>
+        <v>1142.040284181355</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>377.5</v>
+        <v>323.6</v>
       </c>
       <c r="B120">
-        <v>182412.5680889102</v>
+        <v>219696.9120995382</v>
       </c>
       <c r="C120">
-        <v>11227.8360687035</v>
+        <v>22642.66365713135</v>
       </c>
       <c r="D120">
-        <v>18433.32962205073</v>
+        <v>4543.149131507209</v>
       </c>
       <c r="E120">
-        <v>5109.95881246533</v>
+        <v>3213.465756244686</v>
       </c>
       <c r="F120">
-        <v>1057.288670919945</v>
+        <v>603.5326534979745</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>379.7</v>
+        <v>325.9</v>
       </c>
       <c r="B121">
-        <v>177047.5687222954</v>
+        <v>214366.2280833255</v>
       </c>
       <c r="C121">
-        <v>12336.22080858218</v>
+        <v>19556.85935035284</v>
       </c>
       <c r="D121">
-        <v>21198.56724091078</v>
+        <v>2583.028539976764</v>
       </c>
       <c r="E121">
-        <v>5996.298026842944</v>
+        <v>4032.612834385896</v>
       </c>
       <c r="F121">
-        <v>816.9187257544736</v>
+        <v>1045.025022814591</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>382</v>
+        <v>328.2</v>
       </c>
       <c r="B122">
-        <v>178588.7057481071</v>
+        <v>207835.5440671129</v>
       </c>
       <c r="C122">
-        <v>13451.804854819</v>
+        <v>19581.05504357433</v>
       </c>
       <c r="D122">
-        <v>24424.95202426446</v>
+        <v>3262.907948446285</v>
       </c>
       <c r="E122">
-        <v>7956.561750965</v>
+        <v>3131.759912527091</v>
       </c>
       <c r="F122">
-        <v>877.8956012633007</v>
+        <v>646.5173921312098</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>384.6</v>
+        <v>330.8</v>
       </c>
       <c r="B123">
-        <v>183548.2519511988</v>
+        <v>198000.8577879159</v>
       </c>
       <c r="C123">
-        <v>13028.98682013015</v>
+        <v>18474.92843591166</v>
       </c>
       <c r="D123">
-        <v>28524.77830109906</v>
+        <v>3824.510758020566</v>
       </c>
       <c r="E123">
-        <v>9198.599004320375</v>
+        <v>2037.317479121494</v>
       </c>
       <c r="F123">
-        <v>962.9129387950197</v>
+        <v>1000.813113967385</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>386.9</v>
+        <v>333.1</v>
       </c>
       <c r="B124">
-        <v>185689.3889770105</v>
+        <v>195970.1737717033</v>
       </c>
       <c r="C124">
-        <v>11804.57086636694</v>
+        <v>18739.12412913312</v>
       </c>
       <c r="D124">
-        <v>30481.16308445274</v>
+        <v>4104.390166490084</v>
       </c>
       <c r="E124">
-        <v>13398.86272844243</v>
+        <v>2386.464557262696</v>
       </c>
       <c r="F124">
-        <v>1503.889814303849</v>
+        <v>662.3054832840039</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>389.5</v>
+        <v>335.4</v>
       </c>
       <c r="B125">
-        <v>200148.9351801022</v>
+        <v>194039.4897554906</v>
       </c>
       <c r="C125">
-        <v>12191.75283167812</v>
+        <v>16703.31982235461</v>
       </c>
       <c r="D125">
-        <v>36930.98936128737</v>
+        <v>1094.269574959639</v>
       </c>
       <c r="E125">
-        <v>15370.8999817978</v>
+        <v>2545.611635403899</v>
       </c>
       <c r="F125">
-        <v>1058.907151835567</v>
+        <v>863.7978526006241</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>391.5</v>
+        <v>337.7</v>
       </c>
       <c r="B126">
-        <v>207771.6630286342</v>
+        <v>181608.805739278</v>
       </c>
       <c r="C126">
-        <v>10795.73895884056</v>
+        <v>17827.51551557607</v>
       </c>
       <c r="D126">
-        <v>43063.93265116014</v>
+        <v>2574.148983429161</v>
       </c>
       <c r="E126">
-        <v>19219.39017668655</v>
+        <v>2784.7587135451</v>
       </c>
       <c r="F126">
-        <v>595.8435653215038</v>
+        <v>615.2902219172397</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>394</v>
+        <v>339.9</v>
       </c>
       <c r="B127">
-        <v>221425.0728392992</v>
+        <v>166979.4558107267</v>
       </c>
       <c r="C127">
-        <v>10165.72161779359</v>
+        <v>18298.48530909229</v>
       </c>
       <c r="D127">
-        <v>47112.6117635011</v>
+        <v>2320.120591530478</v>
       </c>
       <c r="E127">
-        <v>23587.50292029747</v>
+        <v>2531.768962201902</v>
       </c>
       <c r="F127">
-        <v>469.5140821789237</v>
+        <v>995.848140394005</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>396.3</v>
+        <v>342.2</v>
       </c>
       <c r="B128">
-        <v>230966.2098651111</v>
+        <v>168548.7717945141</v>
       </c>
       <c r="C128">
-        <v>11661.30566403039</v>
+        <v>18202.68100231375</v>
       </c>
       <c r="D128">
-        <v>55848.99654685479</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>30227.76664441953</v>
+        <v>2260.916040343104</v>
       </c>
       <c r="F128">
-        <v>430.4909576877508</v>
+        <v>657.3405097106242</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>398.6</v>
+        <v>344.5</v>
       </c>
       <c r="B129">
-        <v>259607.3468909228</v>
+        <v>165618.0877783014</v>
       </c>
       <c r="C129">
-        <v>11326.88971026718</v>
+        <v>15886.87669553524</v>
       </c>
       <c r="D129">
-        <v>65195.38133020847</v>
+        <v>989.879408469551</v>
       </c>
       <c r="E129">
-        <v>37358.03036854159</v>
+        <v>1660.063118484299</v>
       </c>
       <c r="F129">
-        <v>791.4678331965752</v>
+        <v>608.8328790272435</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>401.2</v>
+        <v>347.1</v>
       </c>
       <c r="B130">
-        <v>279966.8930940145</v>
+        <v>169583.4014991046</v>
       </c>
       <c r="C130">
-        <v>13304.07167557836</v>
+        <v>20830.75008787255</v>
       </c>
       <c r="D130">
-        <v>72885.20760704306</v>
+        <v>1171.482218043799</v>
       </c>
       <c r="E130">
-        <v>44140.06762189697</v>
+        <v>3335.620685078702</v>
       </c>
       <c r="F130">
-        <v>956.4851707282915</v>
+        <v>333.1286008634183</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>403.5</v>
+        <v>349.4</v>
       </c>
       <c r="B131">
-        <v>315508.0301198263</v>
+        <v>154452.7174828919</v>
       </c>
       <c r="C131">
-        <v>11259.65572181515</v>
+        <v>16554.94578109404</v>
       </c>
       <c r="D131">
-        <v>82701.59239039675</v>
+        <v>1291.361626513353</v>
       </c>
       <c r="E131">
-        <v>52830.33134601901</v>
+        <v>2184.767763219904</v>
       </c>
       <c r="F131">
-        <v>1317.462046237119</v>
+        <v>74.62097018003487</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>405.8</v>
+        <v>351.7</v>
       </c>
       <c r="B132">
-        <v>361449.1671456381</v>
+        <v>155722.0334666793</v>
       </c>
       <c r="C132">
-        <v>11735.23976805194</v>
+        <v>19579.14147431553</v>
       </c>
       <c r="D132">
-        <v>94127.97717375043</v>
+        <v>1621.241034982875</v>
       </c>
       <c r="E132">
-        <v>61130.59507014107</v>
+        <v>2933.914841361106</v>
       </c>
       <c r="F132">
-        <v>778.4389217459466</v>
+        <v>396.1133394966541</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="B133">
-        <v>388784.1677790233</v>
+        <v>164391.3494504666</v>
       </c>
       <c r="C133">
-        <v>8613.624507930648</v>
+        <v>18043.33716753701</v>
       </c>
       <c r="D133">
-        <v>109363.2147926105</v>
+        <v>111.1204434524261</v>
       </c>
       <c r="E133">
-        <v>73036.93428451871</v>
+        <v>2153.061919502308</v>
       </c>
       <c r="F133">
-        <v>978.0689765804755</v>
+        <v>1067.605708813273</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>410.3</v>
+        <v>356.2</v>
       </c>
       <c r="B134">
-        <v>447225.3048048351</v>
+        <v>150761.9995219154</v>
       </c>
       <c r="C134">
-        <v>11299.20855416744</v>
+        <v>17314.3069610532</v>
       </c>
       <c r="D134">
-        <v>126329.5995759642</v>
+        <v>1877.092051553715</v>
       </c>
       <c r="E134">
-        <v>87257.19800864074</v>
+        <v>3340.072168159103</v>
       </c>
       <c r="F134">
-        <v>1339.045852089303</v>
+        <v>1118.163627290039</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>412.9</v>
+        <v>358.9</v>
       </c>
       <c r="B135">
-        <v>533284.8510079267</v>
+        <v>155325.9791550571</v>
       </c>
       <c r="C135">
-        <v>12446.39051947859</v>
+        <v>16641.40625309581</v>
       </c>
       <c r="D135">
-        <v>145639.4258527988</v>
+        <v>2112.602661496232</v>
       </c>
       <c r="E135">
-        <v>108319.2352619961</v>
+        <v>1357.766564237913</v>
       </c>
       <c r="F135">
-        <v>1204.063189621023</v>
+        <v>593.3937999660679</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>415.2</v>
+        <v>360.8</v>
       </c>
       <c r="B136">
-        <v>620825.9880337387</v>
+        <v>147400.6314894901</v>
       </c>
       <c r="C136">
-        <v>12961.97456571541</v>
+        <v>15782.69834749615</v>
       </c>
       <c r="D136">
-        <v>170125.8106361524</v>
+        <v>2916.850868492784</v>
       </c>
       <c r="E136">
-        <v>136119.4989861182</v>
+        <v>2828.366324441506</v>
       </c>
       <c r="F136">
-        <v>935.0400651298505</v>
+        <v>481.1483659232736</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>417.5</v>
+        <v>363.4</v>
       </c>
       <c r="B137">
-        <v>761867.1250595503</v>
+        <v>157065.9452102932</v>
       </c>
       <c r="C137">
-        <v>13017.55861195221</v>
+        <v>16426.57173983349</v>
       </c>
       <c r="D137">
-        <v>200692.1954195062</v>
+        <v>4608.453678067068</v>
       </c>
       <c r="E137">
-        <v>186759.7627102403</v>
+        <v>2883.92389103591</v>
       </c>
       <c r="F137">
-        <v>1276.016940638678</v>
+        <v>835.4440877594488</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>419.7</v>
+        <v>365.7</v>
       </c>
       <c r="B138">
-        <v>976502.1256929355</v>
+        <v>160535.2611940806</v>
       </c>
       <c r="C138">
-        <v>13425.94335183088</v>
+        <v>18520.76743305495</v>
       </c>
       <c r="D138">
-        <v>244887.4330383662</v>
+        <v>2128.33308653659</v>
       </c>
       <c r="E138">
-        <v>275626.1019246178</v>
+        <v>3773.070969177112</v>
       </c>
       <c r="F138">
-        <v>1785.646995473207</v>
+        <v>816.9364570760686</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="B139">
-        <v>1370543.262718747</v>
+        <v>163404.5771778679</v>
       </c>
       <c r="C139">
-        <v>14301.52739806768</v>
+        <v>18974.96312627643</v>
       </c>
       <c r="D139">
-        <v>293503.81782172</v>
+        <v>2768.212495006141</v>
       </c>
       <c r="E139">
-        <v>488026.3656487399</v>
+        <v>4192.218047318306</v>
       </c>
       <c r="F139">
-        <v>2066.623870982035</v>
+        <v>238.4288263926842</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>424.6</v>
+        <v>370.3</v>
       </c>
       <c r="B140">
-        <v>2203402.808921839</v>
+        <v>166773.8931616553</v>
       </c>
       <c r="C140">
-        <v>14448.70936337882</v>
+        <v>15709.15881949789</v>
       </c>
       <c r="D140">
-        <v>381413.6440985545</v>
+        <v>4618.091903475663</v>
       </c>
       <c r="E140">
-        <v>1390468.402902095</v>
+        <v>3561.365125459515</v>
       </c>
       <c r="F140">
-        <v>3441.641208513749</v>
+        <v>399.9211957093034</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>426.8</v>
+        <v>372.9</v>
       </c>
       <c r="B141">
-        <v>4388837.809555224</v>
+        <v>162339.2068824583</v>
       </c>
       <c r="C141">
-        <v>18047.09410325753</v>
+        <v>16983.03221183523</v>
       </c>
       <c r="D141">
-        <v>467508.8817174145</v>
+        <v>6369.694713049943</v>
       </c>
       <c r="E141">
-        <v>1169044.742116473</v>
+        <v>5426.922692053911</v>
       </c>
       <c r="F141">
-        <v>3031.271263348282</v>
+        <v>194.2169175454824</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>429.1</v>
+        <v>375.2</v>
       </c>
       <c r="B142">
-        <v>3310678.946581036</v>
+        <v>171508.5228662457</v>
       </c>
       <c r="C142">
-        <v>19292.67814949432</v>
+        <v>16407.22790505672</v>
       </c>
       <c r="D142">
-        <v>465305.2665007682</v>
+        <v>8219.574121519465</v>
       </c>
       <c r="E142">
-        <v>582055.0058405949</v>
+        <v>5156.069770195114</v>
       </c>
       <c r="F142">
-        <v>2442.24813885711</v>
+        <v>835.709286862098</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>431.4</v>
+        <v>377.5</v>
       </c>
       <c r="B143">
-        <v>2035020.083606848</v>
+        <v>172477.838850033</v>
       </c>
       <c r="C143">
-        <v>18178.26219573112</v>
+        <v>15781.42359827821</v>
       </c>
       <c r="D143">
-        <v>447651.6512841219</v>
+        <v>8249.453529989016</v>
       </c>
       <c r="E143">
-        <v>269215.269564717</v>
+        <v>6135.216848336315</v>
       </c>
       <c r="F143">
-        <v>2393.225014365931</v>
+        <v>727.2016561787173</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>433.6</v>
+        <v>379.7</v>
       </c>
       <c r="B144">
-        <v>1257455.084240233</v>
+        <v>166948.4889214818</v>
       </c>
       <c r="C144">
-        <v>17666.6469356098</v>
+        <v>16802.3933917944</v>
       </c>
       <c r="D144">
-        <v>415396.8889029819</v>
+        <v>10635.4251380903</v>
       </c>
       <c r="E144">
-        <v>168611.6087790946</v>
+        <v>6982.227096993118</v>
       </c>
       <c r="F144">
-        <v>1152.855069200466</v>
+        <v>477.7595746554825</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>436.2</v>
+        <v>382</v>
       </c>
       <c r="B145">
-        <v>961214.6304433247</v>
+        <v>168317.8049052691</v>
       </c>
       <c r="C145">
-        <v>15393.82890092097</v>
+        <v>17826.58908501586</v>
       </c>
       <c r="D145">
-        <v>379866.7151798166</v>
+        <v>13465.30454655986</v>
       </c>
       <c r="E145">
-        <v>128453.64603245</v>
+        <v>8901.374175134319</v>
       </c>
       <c r="F145">
-        <v>1127.872406732182</v>
+        <v>529.2519439720986</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>438.5</v>
+        <v>384.6</v>
       </c>
       <c r="B146">
-        <v>794155.7674691365</v>
+        <v>173083.1186260722</v>
       </c>
       <c r="C146">
-        <v>15939.41294715776</v>
+        <v>17300.4624773532</v>
       </c>
       <c r="D146">
-        <v>347693.0999631702</v>
+        <v>17116.90735613411</v>
       </c>
       <c r="E146">
-        <v>107383.9097565721</v>
+        <v>10096.93174172871</v>
       </c>
       <c r="F146">
-        <v>1368.849282241006</v>
+        <v>603.5476658082771</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>440.8</v>
+        <v>386.9</v>
       </c>
       <c r="B147">
-        <v>721096.9044949483</v>
+        <v>175052.4346098595</v>
       </c>
       <c r="C147">
-        <v>16104.99699339456</v>
+        <v>15984.65817057469</v>
       </c>
       <c r="D147">
-        <v>311389.484746524</v>
+        <v>18676.78676460366</v>
       </c>
       <c r="E147">
-        <v>93424.17348069411</v>
+        <v>14256.07881986992</v>
       </c>
       <c r="F147">
-        <v>1409.826157749833</v>
+        <v>1135.040035124893</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>443.1</v>
+        <v>389.5</v>
       </c>
       <c r="B148">
-        <v>664238.04152076</v>
+        <v>189317.7483306627</v>
       </c>
       <c r="C148">
-        <v>15820.58103963135</v>
+        <v>16268.531562912</v>
       </c>
       <c r="D148">
-        <v>275715.8695298777</v>
+        <v>24678.38957417791</v>
       </c>
       <c r="E148">
-        <v>83914.43720481617</v>
+        <v>16181.63638646432</v>
       </c>
       <c r="F148">
-        <v>1180.803033258661</v>
+        <v>679.3357569610716</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>445.4</v>
+        <v>391.5</v>
       </c>
       <c r="B149">
-        <v>621179.1785465719</v>
+        <v>196791.0665774342</v>
       </c>
       <c r="C149">
-        <v>15056.16508586818</v>
+        <v>14793.04955701763</v>
       </c>
       <c r="D149">
-        <v>243142.2543132313</v>
+        <v>30466.54558154273</v>
       </c>
       <c r="E149">
-        <v>75194.70092893823</v>
+        <v>19994.37297615231</v>
       </c>
       <c r="F149">
-        <v>1251.77990876749</v>
+        <v>208.0247737581317</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="B150">
-        <v>583838.7247496636</v>
+        <v>210257.7143858988</v>
       </c>
       <c r="C150">
-        <v>14743.34705117932</v>
+        <v>14063.69704964968</v>
       </c>
       <c r="D150">
-        <v>215272.0805900659</v>
+        <v>34084.24059074875</v>
       </c>
       <c r="E150">
-        <v>69916.73818229361</v>
+        <v>24317.79371326232</v>
       </c>
       <c r="F150">
-        <v>1136.797246299208</v>
+        <v>71.38604475445618</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>450.3</v>
+        <v>396.3</v>
       </c>
       <c r="B151">
-        <v>550479.8617754754</v>
+        <v>219627.0303696861</v>
       </c>
       <c r="C151">
-        <v>14508.93109741611</v>
+        <v>15467.89274287114</v>
       </c>
       <c r="D151">
-        <v>183628.4653734196</v>
+        <v>42424.11999921827</v>
       </c>
       <c r="E151">
-        <v>63727.00190641564</v>
+        <v>30916.94079140352</v>
       </c>
       <c r="F151">
-        <v>887.7741218080364</v>
+        <v>22.8784140710718</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>452.5</v>
+        <v>398.6</v>
       </c>
       <c r="B152">
-        <v>506414.8624088605</v>
+        <v>248096.3463534735</v>
       </c>
       <c r="C152">
-        <v>15067.31583729479</v>
+        <v>15042.08843609262</v>
       </c>
       <c r="D152">
-        <v>162213.7029922796</v>
+        <v>51373.99940768782</v>
       </c>
       <c r="E152">
-        <v>60553.34112079327</v>
+        <v>38006.08786954473</v>
       </c>
       <c r="F152">
-        <v>1107.404176642565</v>
+        <v>374.3707833876911</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>454.8</v>
+        <v>401.2</v>
       </c>
       <c r="B153">
-        <v>460455.9994346724</v>
+        <v>268261.6600742766</v>
       </c>
       <c r="C153">
-        <v>14592.89988353159</v>
+        <v>16915.96182842996</v>
       </c>
       <c r="D153">
-        <v>143710.0877756333</v>
+        <v>58615.60221726207</v>
       </c>
       <c r="E153">
-        <v>55523.60484491533</v>
+        <v>44741.64543613913</v>
       </c>
       <c r="F153">
-        <v>1458.381052151393</v>
+        <v>528.6665052238668</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>457.1</v>
+        <v>403.5</v>
       </c>
       <c r="B154">
-        <v>426897.1364604841</v>
+        <v>303630.976058064</v>
       </c>
       <c r="C154">
-        <v>14838.48392976838</v>
+        <v>14780.15752165142</v>
       </c>
       <c r="D154">
-        <v>133996.472558987</v>
+        <v>68035.48162573163</v>
       </c>
       <c r="E154">
-        <v>53933.86856903739</v>
+        <v>53390.79251428032</v>
       </c>
       <c r="F154">
-        <v>819.3579276602168</v>
+        <v>880.1588745404861</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>459.3</v>
+        <v>405.8</v>
       </c>
       <c r="B155">
-        <v>394332.1370938693</v>
+        <v>349400.2920418513</v>
       </c>
       <c r="C155">
-        <v>12386.86866964708</v>
+        <v>15164.35321487291</v>
       </c>
       <c r="D155">
-        <v>121271.710177847</v>
+        <v>79065.36103420114</v>
       </c>
       <c r="E155">
-        <v>49800.207783415</v>
+        <v>61649.93959242154</v>
       </c>
       <c r="F155">
-        <v>1378.987982494749</v>
+        <v>331.6512438571017</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>461.6</v>
+        <v>408</v>
       </c>
       <c r="B156">
-        <v>381773.2741196812</v>
+        <v>376570.9421133001</v>
       </c>
       <c r="C156">
-        <v>15322.45271588388</v>
+        <v>11955.3230083891</v>
       </c>
       <c r="D156">
-        <v>115738.0949612008</v>
+        <v>93921.33264230246</v>
       </c>
       <c r="E156">
-        <v>48600.47150753706</v>
+        <v>73516.94984107831</v>
       </c>
       <c r="F156">
-        <v>1529.964858003577</v>
+        <v>522.209162333867</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>464.2</v>
+        <v>410.3</v>
       </c>
       <c r="B157">
-        <v>357732.8203227727</v>
+        <v>434840.2580970874</v>
       </c>
       <c r="C157">
-        <v>14059.63468119506</v>
+        <v>14549.51870161059</v>
       </c>
       <c r="D157">
-        <v>110437.9212380353</v>
+        <v>110491.212050772</v>
       </c>
       <c r="E157">
-        <v>47222.50876089243</v>
+        <v>87696.09691921953</v>
       </c>
       <c r="F157">
-        <v>1064.982195535289</v>
+        <v>873.7015316504862</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>466.5</v>
+        <v>412.9</v>
       </c>
       <c r="B158">
-        <v>339673.9573485847</v>
+        <v>520705.5718178906</v>
       </c>
       <c r="C158">
-        <v>13255.21872743185</v>
+        <v>15593.3920939479</v>
       </c>
       <c r="D158">
-        <v>107554.306021389</v>
+        <v>129352.8148603463</v>
       </c>
       <c r="E158">
-        <v>45632.77248501449</v>
+        <v>108711.654485814</v>
       </c>
       <c r="F158">
-        <v>1195.959071044117</v>
+        <v>727.9972534866615</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>468.8</v>
+        <v>415.2</v>
       </c>
       <c r="B159">
-        <v>335715.0943743964</v>
+        <v>608074.8878016777</v>
       </c>
       <c r="C159">
-        <v>14840.80277366864</v>
+        <v>16017.58778716939</v>
       </c>
       <c r="D159">
-        <v>102410.6908047427</v>
+        <v>153442.6942688158</v>
       </c>
       <c r="E159">
-        <v>43073.03620913655</v>
+        <v>136470.8015639551</v>
       </c>
       <c r="F159">
-        <v>1556.935946552945</v>
+        <v>449.4896228032808</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>471</v>
+        <v>417.5</v>
       </c>
       <c r="B160">
-        <v>321950.0950077815</v>
+        <v>748944.2037854652</v>
       </c>
       <c r="C160">
-        <v>12379.18751354732</v>
+        <v>15981.78348039088</v>
       </c>
       <c r="D160">
-        <v>98295.92842360277</v>
+        <v>183612.5736772853</v>
       </c>
       <c r="E160">
-        <v>39889.37542351416</v>
+        <v>187069.9486420963</v>
       </c>
       <c r="F160">
-        <v>1496.566001387474</v>
+        <v>780.9819921198969</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>473.3</v>
+        <v>419.7</v>
       </c>
       <c r="B161">
-        <v>316991.2320335935</v>
+        <v>963414.853856914</v>
       </c>
       <c r="C161">
-        <v>12574.77155978411</v>
+        <v>16302.75327390707</v>
       </c>
       <c r="D161">
-        <v>96582.31320695646</v>
+        <v>227428.5452853866</v>
       </c>
       <c r="E161">
-        <v>39169.63914763622</v>
+        <v>275896.9588907531</v>
       </c>
       <c r="F161">
-        <v>1287.542876896301</v>
+        <v>1281.539910596662</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>475.6</v>
+        <v>422</v>
       </c>
       <c r="B162">
-        <v>305132.3690594052</v>
+        <v>1357284.169840701</v>
       </c>
       <c r="C162">
-        <v>15460.35560602091</v>
+        <v>17086.94896712853</v>
       </c>
       <c r="D162">
-        <v>93878.69799031015</v>
+        <v>275648.4246938562</v>
       </c>
       <c r="E162">
-        <v>38299.90287175828</v>
+        <v>488256.1059688943</v>
       </c>
       <c r="F162">
-        <v>1398.519752405129</v>
+        <v>1553.032279913281</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>478.2</v>
+        <v>424.6</v>
       </c>
       <c r="B163">
-        <v>280791.9152624969</v>
+        <v>2189949.483561504</v>
       </c>
       <c r="C163">
-        <v>12427.53757133208</v>
+        <v>17130.82235946587</v>
       </c>
       <c r="D163">
-        <v>92088.52426714473</v>
+        <v>363110.0275034305</v>
       </c>
       <c r="E163">
-        <v>35941.94012511365</v>
+        <v>1390651.663535489</v>
       </c>
       <c r="F163">
-        <v>973.5370899368481</v>
+        <v>2917.32800174946</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>480.5</v>
+        <v>426.8</v>
       </c>
       <c r="B164">
-        <v>274933.0522883086</v>
+        <v>4375220.133632954</v>
       </c>
       <c r="C164">
-        <v>14973.12161756888</v>
+        <v>20641.79215298206</v>
       </c>
       <c r="D164">
-        <v>90154.90905049842</v>
+        <v>448825.9991115318</v>
       </c>
       <c r="E164">
-        <v>34662.2038492357</v>
+        <v>1169188.673784145</v>
       </c>
       <c r="F164">
-        <v>1614.513965445676</v>
+        <v>2497.885920226225</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>482.8</v>
+        <v>429.1</v>
       </c>
       <c r="B165">
-        <v>249674.1893141205</v>
+        <v>3296889.44961674</v>
       </c>
       <c r="C165">
-        <v>8608.705663805669</v>
+        <v>21795.98784620352</v>
       </c>
       <c r="D165">
-        <v>85071.29383385211</v>
+        <v>446225.8785200013</v>
       </c>
       <c r="E165">
-        <v>33662.46757335776</v>
+        <v>582157.8208622868</v>
       </c>
       <c r="F165">
-        <v>1245.490840954501</v>
+        <v>1899.378289542841</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>485</v>
+        <v>431.4</v>
       </c>
       <c r="B166">
-        <v>258609.1899475057</v>
+        <v>2021058.765600528</v>
       </c>
       <c r="C166">
-        <v>13037.09040368435</v>
+        <v>20590.18353942501</v>
       </c>
       <c r="D166">
-        <v>84396.53145271215</v>
+        <v>428175.7579284708</v>
       </c>
       <c r="E166">
-        <v>31698.80678773537</v>
+        <v>269276.9679404279</v>
       </c>
       <c r="F166">
-        <v>1405.120895789033</v>
+        <v>1840.870658859457</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>487.3</v>
+        <v>433.6</v>
       </c>
       <c r="B167">
-        <v>236950.3269733175</v>
+        <v>1243329.415671977</v>
       </c>
       <c r="C167">
-        <v>11222.67444992114</v>
+        <v>19991.15333294123</v>
       </c>
       <c r="D167">
-        <v>85662.91623606587</v>
+        <v>395541.7295365722</v>
       </c>
       <c r="E167">
-        <v>29799.07051185743</v>
+        <v>168633.9781890847</v>
       </c>
       <c r="F167">
-        <v>1436.09777129786</v>
+        <v>591.4285773362253</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>489.9</v>
+        <v>436.2</v>
       </c>
       <c r="B168">
-        <v>229509.8731764091</v>
+        <v>946894.7293927796</v>
       </c>
       <c r="C168">
-        <v>14419.85641523232</v>
+        <v>17615.02672527854</v>
       </c>
       <c r="D168">
-        <v>80092.74251290046</v>
+        <v>359563.3323461465</v>
       </c>
       <c r="E168">
-        <v>26481.1077652128</v>
+        <v>128429.5357556791</v>
       </c>
       <c r="F168">
-        <v>1061.115108829573</v>
+        <v>555.7242991724006</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>491.8</v>
+        <v>438.5</v>
       </c>
       <c r="B169">
-        <v>224026.4646325145</v>
+        <v>779664.0453765671</v>
       </c>
       <c r="C169">
-        <v>11216.64323603664</v>
+        <v>18069.22241850003</v>
       </c>
       <c r="D169">
-        <v>76504.5386382796</v>
+        <v>326993.2117546159</v>
       </c>
       <c r="E169">
-        <v>26395.6734503571</v>
+        <v>107318.6828338203</v>
       </c>
       <c r="F169">
-        <v>1166.704701641217</v>
+        <v>787.2166684890199</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>494.4</v>
+        <v>440.8</v>
       </c>
       <c r="B170">
-        <v>201786.0108356061</v>
+        <v>706433.3613603543</v>
       </c>
       <c r="C170">
-        <v>12003.82520134782</v>
+        <v>18143.41811172149</v>
       </c>
       <c r="D170">
-        <v>77514.36491511419</v>
+        <v>290293.0911630855</v>
       </c>
       <c r="E170">
-        <v>25417.71070371247</v>
+        <v>93317.82991196153</v>
       </c>
       <c r="F170">
-        <v>1511.722039172932</v>
+        <v>818.7090378056359</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>497</v>
+        <v>443.1</v>
       </c>
       <c r="B171">
-        <v>204045.5570386977</v>
+        <v>649402.6773441418</v>
       </c>
       <c r="C171">
-        <v>9561.007166658963</v>
+        <v>17767.61380494297</v>
       </c>
       <c r="D171">
-        <v>76274.19119194878</v>
+        <v>254222.970571555</v>
       </c>
       <c r="E171">
-        <v>23709.74795706784</v>
+        <v>83766.97699010275</v>
       </c>
       <c r="F171">
-        <v>1126.739376704648</v>
+        <v>580.2014071222552</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>499.3</v>
+        <v>445.4</v>
       </c>
       <c r="B172">
-        <v>193886.6940645095</v>
+        <v>606171.9933279291</v>
       </c>
       <c r="C172">
-        <v>13156.59121289576</v>
+        <v>16911.80949816446</v>
       </c>
       <c r="D172">
-        <v>75820.57597530246</v>
+        <v>221252.8499800245</v>
       </c>
       <c r="E172">
-        <v>22830.0116811899</v>
+        <v>75006.12406824395</v>
       </c>
       <c r="F172">
-        <v>1507.716252213476</v>
+        <v>641.6937764388749</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>501.6</v>
+        <v>448</v>
       </c>
       <c r="B173">
-        <v>189727.8310903214</v>
+        <v>568637.3070487323</v>
       </c>
       <c r="C173">
-        <v>13482.17525913255</v>
+        <v>16495.68289050177</v>
       </c>
       <c r="D173">
-        <v>73826.96075865615</v>
+        <v>192934.4527895988</v>
       </c>
       <c r="E173">
-        <v>23160.27540531196</v>
+        <v>69681.68163483833</v>
       </c>
       <c r="F173">
-        <v>1488.693127722303</v>
+        <v>515.9894982750498</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>503.8</v>
+        <v>450.3</v>
       </c>
       <c r="B174">
-        <v>173262.8317237066</v>
+        <v>535106.6230325195</v>
       </c>
       <c r="C174">
-        <v>10450.55999901123</v>
+        <v>16169.87858372326</v>
       </c>
       <c r="D174">
-        <v>73542.19837751621</v>
+        <v>160894.3321980683</v>
       </c>
       <c r="E174">
-        <v>21506.61461968958</v>
+        <v>63450.82871297955</v>
       </c>
       <c r="F174">
-        <v>1428.323182556832</v>
+        <v>257.4818675916658</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>506.1</v>
+        <v>452.5</v>
       </c>
       <c r="B175">
-        <v>170003.9687495183</v>
+        <v>490877.2731039683</v>
       </c>
       <c r="C175">
-        <v>12606.14404524802</v>
+        <v>16640.84837723945</v>
       </c>
       <c r="D175">
-        <v>70758.58316086988</v>
+        <v>139100.3038061696</v>
       </c>
       <c r="E175">
-        <v>19656.87834381163</v>
+        <v>60237.83896163635</v>
       </c>
       <c r="F175">
-        <v>1719.30005806566</v>
+        <v>468.0397860684307</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>508.4</v>
+        <v>454.8</v>
       </c>
       <c r="B176">
-        <v>174145.1057753302</v>
+        <v>444746.5890877558</v>
       </c>
       <c r="C176">
-        <v>11861.72809148485</v>
+        <v>16075.04407046094</v>
       </c>
       <c r="D176">
-        <v>67904.96794422358</v>
+        <v>120200.1832146391</v>
       </c>
       <c r="E176">
-        <v>17617.14206793369</v>
+        <v>55166.98603977754</v>
       </c>
       <c r="F176">
-        <v>1390.276933574489</v>
+        <v>809.5321553850499</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>510.7</v>
+        <v>457.1</v>
       </c>
       <c r="B177">
-        <v>153886.2428011421</v>
+        <v>411015.905071543</v>
       </c>
       <c r="C177">
-        <v>10827.31213772164</v>
+        <v>16229.2397636824</v>
       </c>
       <c r="D177">
-        <v>68481.35272757726</v>
+        <v>110090.0626231087</v>
       </c>
       <c r="E177">
-        <v>17607.40579205575</v>
+        <v>53536.13311791875</v>
       </c>
       <c r="F177">
-        <v>1791.253809083317</v>
+        <v>161.0245247016692</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>513.3</v>
+        <v>459.3</v>
       </c>
       <c r="B178">
-        <v>158545.7890042337</v>
+        <v>378286.5551429919</v>
       </c>
       <c r="C178">
-        <v>14164.49410303282</v>
+        <v>13690.20955719859</v>
       </c>
       <c r="D178">
-        <v>68961.17900441187</v>
+        <v>96986.03423120998</v>
       </c>
       <c r="E178">
-        <v>15279.44304541112</v>
+        <v>49363.14336657555</v>
       </c>
       <c r="F178">
-        <v>1316.271146615032</v>
+        <v>711.5824431784349</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>515.5</v>
+        <v>461.6</v>
       </c>
       <c r="B179">
-        <v>140680.7896376189</v>
+        <v>365555.8711267792</v>
       </c>
       <c r="C179">
-        <v>10122.87884291149</v>
+        <v>16534.40525042008</v>
       </c>
       <c r="D179">
-        <v>68066.41662327191</v>
+        <v>91055.91363967949</v>
       </c>
       <c r="E179">
-        <v>15815.78225978873</v>
+        <v>48122.29044471675</v>
       </c>
       <c r="F179">
-        <v>1605.901201449564</v>
+        <v>853.0748124950505</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>517.8</v>
+        <v>464.2</v>
       </c>
       <c r="B180">
-        <v>133721.9266634307</v>
+        <v>341321.1848475823</v>
       </c>
       <c r="C180">
-        <v>12188.46288914829</v>
+        <v>15168.27864275742</v>
       </c>
       <c r="D180">
-        <v>64862.8014066256</v>
+        <v>85307.51644925379</v>
       </c>
       <c r="E180">
-        <v>13916.0459839108</v>
+        <v>46697.84801131115</v>
       </c>
       <c r="F180">
-        <v>1546.878076958388</v>
+        <v>377.3705343312258</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>520.1</v>
+        <v>466.5</v>
       </c>
       <c r="B181">
-        <v>135363.0636892425</v>
+        <v>323090.5008313697</v>
       </c>
       <c r="C181">
-        <v>14044.04693538508</v>
+        <v>14272.47433597888</v>
       </c>
       <c r="D181">
-        <v>65759.18618997929</v>
+        <v>82027.39585772334</v>
       </c>
       <c r="E181">
-        <v>14146.30970803285</v>
+        <v>45066.99508945236</v>
       </c>
       <c r="F181">
-        <v>1357.854952467218</v>
+        <v>498.8629036478487</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>522.6</v>
+        <v>468.8</v>
       </c>
       <c r="B182">
-        <v>121116.4734999075</v>
+        <v>318959.816815157</v>
       </c>
       <c r="C182">
-        <v>14594.02959433811</v>
+        <v>15766.67002920037</v>
       </c>
       <c r="D182">
-        <v>62877.86530232025</v>
+        <v>76487.27526619285</v>
       </c>
       <c r="E182">
-        <v>13334.42245164378</v>
+        <v>42466.14216759356</v>
       </c>
       <c r="F182">
-        <v>1721.525469324639</v>
+        <v>850.3552729644643</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>524.6</v>
+        <v>471</v>
       </c>
       <c r="B183">
-        <v>119639.2013484395</v>
+        <v>305030.4668866058</v>
       </c>
       <c r="C183">
-        <v>13428.01572150055</v>
+        <v>13217.63982271656</v>
       </c>
       <c r="D183">
-        <v>63600.808592193</v>
+        <v>71993.24687429417</v>
       </c>
       <c r="E183">
-        <v>12742.91264653253</v>
+        <v>39243.15241625035</v>
       </c>
       <c r="F183">
-        <v>1308.461882810576</v>
+        <v>780.9131914412301</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>527.2</v>
+        <v>473.3</v>
       </c>
       <c r="B184">
-        <v>109998.7475515311</v>
+        <v>299899.7828703932</v>
       </c>
       <c r="C184">
-        <v>11625.19768681172</v>
+        <v>13321.83551593805</v>
       </c>
       <c r="D184">
-        <v>62810.63486902762</v>
+        <v>69883.1262827637</v>
       </c>
       <c r="E184">
-        <v>12064.94989988789</v>
+        <v>38482.29949439156</v>
       </c>
       <c r="F184">
-        <v>1503.479220342293</v>
+        <v>562.4055607578457</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>529.5</v>
+        <v>475.6</v>
       </c>
       <c r="B185">
-        <v>107239.8845773429</v>
+        <v>287869.0988541804</v>
       </c>
       <c r="C185">
-        <v>11800.78173304852</v>
+        <v>16116.03120915953</v>
       </c>
       <c r="D185">
-        <v>62297.01965238132</v>
+        <v>66783.00569123322</v>
       </c>
       <c r="E185">
-        <v>11785.21362400995</v>
+        <v>37571.44657253275</v>
       </c>
       <c r="F185">
-        <v>1884.456095851116</v>
+        <v>663.897930074465</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>531.8</v>
+        <v>478.2</v>
       </c>
       <c r="B186">
-        <v>105781.0216031547</v>
+        <v>263334.4125749835</v>
       </c>
       <c r="C186">
-        <v>10206.36577928531</v>
+        <v>12979.90460149684</v>
       </c>
       <c r="D186">
-        <v>59513.40443573499</v>
+        <v>64544.6085008075</v>
       </c>
       <c r="E186">
-        <v>9765.477348132006</v>
+        <v>35167.00413912717</v>
       </c>
       <c r="F186">
-        <v>1415.432971359944</v>
+        <v>228.1936519106439</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>534.3</v>
+        <v>480.5</v>
       </c>
       <c r="B187">
-        <v>90434.43141381971</v>
+        <v>257303.7285587708</v>
       </c>
       <c r="C187">
-        <v>12076.34843823837</v>
+        <v>15434.10029471833</v>
       </c>
       <c r="D187">
-        <v>58762.08354807596</v>
+        <v>62214.48790927706</v>
       </c>
       <c r="E187">
-        <v>9853.590091742935</v>
+        <v>33846.15121726835</v>
       </c>
       <c r="F187">
-        <v>2089.103488217363</v>
+        <v>859.6860212272595</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>536.6</v>
+        <v>482.8</v>
       </c>
       <c r="B188">
-        <v>94275.56843963159</v>
+        <v>231873.0445425582</v>
       </c>
       <c r="C188">
-        <v>8751.932484475163</v>
+        <v>8978.295987939789</v>
       </c>
       <c r="D188">
-        <v>59338.46833142964</v>
+        <v>56734.36731774657</v>
       </c>
       <c r="E188">
-        <v>9973.853815864992</v>
+        <v>32805.29829540955</v>
       </c>
       <c r="F188">
-        <v>2000.080363726191</v>
+        <v>481.1783905438788</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>538.9</v>
+        <v>485</v>
       </c>
       <c r="B189">
-        <v>95116.70546544336</v>
+        <v>240643.694614007</v>
       </c>
       <c r="C189">
-        <v>10197.51653071196</v>
+        <v>13319.26578145601</v>
       </c>
       <c r="D189">
-        <v>58964.85311478333</v>
+        <v>55680.33892584786</v>
       </c>
       <c r="E189">
-        <v>8724.11753998705</v>
+        <v>30802.30854406636</v>
       </c>
       <c r="F189">
-        <v>1701.057239235019</v>
+        <v>631.7363090206409</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>541.1</v>
+        <v>487.3</v>
       </c>
       <c r="B190">
-        <v>95351.70609882857</v>
+        <v>218813.0105977943</v>
       </c>
       <c r="C190">
-        <v>12835.90127059063</v>
+        <v>11413.46147467747</v>
       </c>
       <c r="D190">
-        <v>57300.09073364337</v>
+        <v>56550.21833431741</v>
       </c>
       <c r="E190">
-        <v>8650.456754364663</v>
+        <v>28861.45562220755</v>
       </c>
       <c r="F190">
-        <v>1990.687294069547</v>
+        <v>653.2286783372638</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>543.4</v>
+        <v>489.9</v>
       </c>
       <c r="B191">
-        <v>86492.84312464039</v>
+        <v>211178.3243185974</v>
       </c>
       <c r="C191">
-        <v>10581.48531682743</v>
+        <v>14507.33486701481</v>
       </c>
       <c r="D191">
-        <v>57066.47551699707</v>
+        <v>50531.82114389166</v>
       </c>
       <c r="E191">
-        <v>9580.720478486735</v>
+        <v>25497.01318880196</v>
       </c>
       <c r="F191">
-        <v>1801.664169578375</v>
+        <v>267.5244001734391</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>545.9</v>
+        <v>491.8</v>
       </c>
       <c r="B192">
-        <v>79846.25293530543</v>
+        <v>205552.9766530305</v>
       </c>
       <c r="C192">
-        <v>10421.46797578049</v>
+        <v>11228.62696141515</v>
       </c>
       <c r="D192">
-        <v>56305.15462933801</v>
+        <v>46616.06935088825</v>
       </c>
       <c r="E192">
-        <v>7068.833222097664</v>
+        <v>25377.61294900555</v>
       </c>
       <c r="F192">
-        <v>1895.334686435795</v>
+        <v>365.2789661306442</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>548.2</v>
+        <v>494.4</v>
       </c>
       <c r="B193">
-        <v>80987.38996111719</v>
+        <v>183118.2903738335</v>
       </c>
       <c r="C193">
-        <v>9967.052022017278</v>
+        <v>11912.50035375249</v>
       </c>
       <c r="D193">
-        <v>56461.53941269172</v>
+        <v>47177.67216046251</v>
       </c>
       <c r="E193">
-        <v>7789.096946219708</v>
+        <v>24353.17051559997</v>
       </c>
       <c r="F193">
-        <v>1476.311561944622</v>
+        <v>699.5746879668195</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>550.5</v>
+        <v>497</v>
       </c>
       <c r="B194">
-        <v>76728.52698692905</v>
+        <v>185183.6040946366</v>
       </c>
       <c r="C194">
-        <v>11962.63606825407</v>
+        <v>9366.373746089801</v>
       </c>
       <c r="D194">
-        <v>55967.92419604541</v>
+        <v>45489.27497003676</v>
       </c>
       <c r="E194">
-        <v>6899.360670341779</v>
+        <v>22598.72808219436</v>
       </c>
       <c r="F194">
-        <v>1857.28843745345</v>
+        <v>303.8704098029984</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>552.7</v>
+        <v>499.3</v>
       </c>
       <c r="B195">
-        <v>80963.52762031426</v>
+        <v>174852.920078424</v>
       </c>
       <c r="C195">
-        <v>8791.020808132749</v>
+        <v>12870.56943931126</v>
       </c>
       <c r="D195">
-        <v>55203.16181490547</v>
+        <v>44639.15437850631</v>
       </c>
       <c r="E195">
-        <v>5835.699884719394</v>
+        <v>21677.87516033556</v>
       </c>
       <c r="F195">
-        <v>1476.918492287981</v>
+        <v>675.3627791196177</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>555</v>
+        <v>501.6</v>
       </c>
       <c r="B196">
-        <v>76804.664646126</v>
+        <v>170522.2360622113</v>
       </c>
       <c r="C196">
-        <v>10886.60485436955</v>
+        <v>13104.76513253275</v>
       </c>
       <c r="D196">
-        <v>54419.54659825914</v>
+        <v>42249.03378697585</v>
       </c>
       <c r="E196">
-        <v>5705.96360884145</v>
+        <v>21967.02223847676</v>
       </c>
       <c r="F196">
-        <v>1537.895367796807</v>
+        <v>646.8551484362333</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>557.2</v>
+        <v>503.8</v>
       </c>
       <c r="B197">
-        <v>85739.66527951129</v>
+        <v>153892.8861336601</v>
       </c>
       <c r="C197">
-        <v>11944.98959424822</v>
+        <v>9985.734926048972</v>
       </c>
       <c r="D197">
-        <v>55164.78421711919</v>
+        <v>41585.00539507714</v>
       </c>
       <c r="E197">
-        <v>6522.302823219065</v>
+        <v>20274.03248713356</v>
       </c>
       <c r="F197">
-        <v>1777.525422631339</v>
+        <v>577.4130669129981</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>559.8</v>
+        <v>506.1</v>
       </c>
       <c r="B198">
-        <v>78699.21148260286</v>
+        <v>150462.2021174475</v>
       </c>
       <c r="C198">
-        <v>13322.1715595594</v>
+        <v>12049.93061927043</v>
       </c>
       <c r="D198">
-        <v>54534.61049395378</v>
+        <v>38404.88480354669</v>
       </c>
       <c r="E198">
-        <v>5994.340076574437</v>
+        <v>18383.17956527477</v>
       </c>
       <c r="F198">
-        <v>1742.542760163054</v>
+        <v>858.9054362296138</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>562.1</v>
+        <v>508.4</v>
       </c>
       <c r="B199">
-        <v>72140.34850841462</v>
+        <v>154431.5181012348</v>
       </c>
       <c r="C199">
-        <v>7627.75560579619</v>
+        <v>11214.12631249192</v>
       </c>
       <c r="D199">
-        <v>52770.99527730746</v>
+        <v>35154.76421201622</v>
       </c>
       <c r="E199">
-        <v>7134.603800696494</v>
+        <v>16302.32664341597</v>
       </c>
       <c r="F199">
-        <v>2043.519635671882</v>
+        <v>520.3978055462339</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>564.3</v>
+        <v>510.7</v>
       </c>
       <c r="B200">
-        <v>70075.34914179992</v>
+        <v>134000.8340850222</v>
       </c>
       <c r="C200">
-        <v>12476.14034567487</v>
+        <v>10088.32200571338</v>
       </c>
       <c r="D200">
-        <v>51776.23289616754</v>
+        <v>35334.64362048577</v>
       </c>
       <c r="E200">
-        <v>7180.943015074123</v>
+        <v>16251.47372155716</v>
       </c>
       <c r="F200">
-        <v>1973.149690506412</v>
+        <v>911.8901748628532</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>566.6</v>
+        <v>513.3</v>
       </c>
       <c r="B201">
-        <v>78516.48616761169</v>
+        <v>138466.1478058253</v>
       </c>
       <c r="C201">
-        <v>12601.72439191169</v>
+        <v>13322.19539805072</v>
       </c>
       <c r="D201">
-        <v>53792.61767952119</v>
+        <v>35366.24643006003</v>
       </c>
       <c r="E201">
-        <v>4161.206739196165</v>
+        <v>13877.03128815157</v>
       </c>
       <c r="F201">
-        <v>1974.126566015238</v>
+        <v>426.1858966990285</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>568.9</v>
+        <v>515.5</v>
       </c>
       <c r="B202">
-        <v>66657.62319342354</v>
+        <v>120436.797877274</v>
       </c>
       <c r="C202">
-        <v>11017.30843814849</v>
+        <v>9193.16519156691</v>
       </c>
       <c r="D202">
-        <v>51429.00246287489</v>
+        <v>34092.21803816131</v>
       </c>
       <c r="E202">
-        <v>3471.470463318237</v>
+        <v>14374.04153680836</v>
       </c>
       <c r="F202">
-        <v>1745.103441524067</v>
+        <v>706.7438151757933</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>571.5</v>
+        <v>517.8</v>
       </c>
       <c r="B203">
-        <v>67017.16939651514</v>
+        <v>113306.1138610614</v>
       </c>
       <c r="C203">
-        <v>7444.490403459631</v>
+        <v>11167.3608847884</v>
       </c>
       <c r="D203">
-        <v>54668.82873970951</v>
+        <v>30492.09744663087</v>
       </c>
       <c r="E203">
-        <v>5023.507716673595</v>
+        <v>12433.18861494957</v>
       </c>
       <c r="F203">
-        <v>1820.120779055782</v>
+        <v>638.2361844924098</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>573.7</v>
+        <v>520.1</v>
       </c>
       <c r="B204">
-        <v>60452.17002990033</v>
+        <v>114775.4298448487</v>
       </c>
       <c r="C204">
-        <v>10392.87514333831</v>
+        <v>12931.55657800986</v>
       </c>
       <c r="D204">
-        <v>54664.06635856954</v>
+        <v>30991.97685510038</v>
       </c>
       <c r="E204">
-        <v>6169.84693105121</v>
+        <v>12622.33569309077</v>
       </c>
       <c r="F204">
-        <v>1929.750833890314</v>
+        <v>439.7285538090318</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>576</v>
+        <v>522.6</v>
       </c>
       <c r="B205">
-        <v>60893.30705571218</v>
+        <v>100342.0776533132</v>
       </c>
       <c r="C205">
-        <v>9418.459189575102</v>
+        <v>13382.2040706419</v>
       </c>
       <c r="D205">
-        <v>53830.45114192323</v>
+        <v>27679.6718643064</v>
       </c>
       <c r="E205">
-        <v>4400.110655173281</v>
+        <v>11765.75643020076</v>
       </c>
       <c r="F205">
-        <v>1670.727709399142</v>
+        <v>793.0898248053563</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>578.3</v>
+        <v>524.6</v>
       </c>
       <c r="B206">
-        <v>60234.44408152394</v>
+        <v>98715.39590008483</v>
       </c>
       <c r="C206">
-        <v>9994.043235811927</v>
+        <v>12136.72206474754</v>
       </c>
       <c r="D206">
-        <v>53846.83592527692</v>
+        <v>28057.82787167122</v>
       </c>
       <c r="E206">
-        <v>4090.374379295324</v>
+        <v>11138.49301988877</v>
       </c>
       <c r="F206">
-        <v>2061.704584907968</v>
+        <v>371.7788416024132</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>580.5</v>
+        <v>527.2</v>
       </c>
       <c r="B207">
-        <v>55169.44471490913</v>
+        <v>88880.70962088795</v>
       </c>
       <c r="C207">
-        <v>3512.427975690602</v>
+        <v>10230.59545708484</v>
       </c>
       <c r="D207">
-        <v>56702.07354413696</v>
+        <v>26819.4306812455</v>
       </c>
       <c r="E207">
-        <v>5156.713593672952</v>
+        <v>10414.05058648317</v>
       </c>
       <c r="F207">
-        <v>2001.334639742499</v>
+        <v>556.0745634385876</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>582.7</v>
+        <v>529.5</v>
       </c>
       <c r="B208">
-        <v>61504.44534829432</v>
+        <v>85950.02560467531</v>
       </c>
       <c r="C208">
-        <v>6320.812715569276</v>
+        <v>10314.79115030633</v>
       </c>
       <c r="D208">
-        <v>53137.31116299701</v>
+        <v>25909.31008971503</v>
       </c>
       <c r="E208">
-        <v>3783.052808050566</v>
+        <v>10093.19766462438</v>
       </c>
       <c r="F208">
-        <v>2210.964694577031</v>
+        <v>927.5669327552077</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>585</v>
+        <v>531.8</v>
       </c>
       <c r="B209">
-        <v>58845.58237410619</v>
+        <v>84319.34158846266</v>
       </c>
       <c r="C209">
-        <v>11366.39676180607</v>
+        <v>8628.986843527822</v>
       </c>
       <c r="D209">
-        <v>54683.69594635072</v>
+        <v>22729.18949818458</v>
       </c>
       <c r="E209">
-        <v>4273.316532172623</v>
+        <v>8032.344742765572</v>
       </c>
       <c r="F209">
-        <v>2131.941570085855</v>
+        <v>449.0593020718279</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>587.6</v>
+        <v>534.3</v>
       </c>
       <c r="B210">
-        <v>56805.12857719777</v>
+        <v>68785.98939692714</v>
       </c>
       <c r="C210">
-        <v>8503.578727117218</v>
+        <v>10399.63433615987</v>
       </c>
       <c r="D210">
-        <v>54713.52222318531</v>
+        <v>21546.8845073906</v>
       </c>
       <c r="E210">
-        <v>3255.353785527996</v>
+        <v>8075.765479875568</v>
       </c>
       <c r="F210">
-        <v>2336.958907617574</v>
+        <v>1112.420573068149</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>589.9</v>
+        <v>536.6</v>
       </c>
       <c r="B211">
-        <v>59346.26560300963</v>
+        <v>72455.30538071452</v>
       </c>
       <c r="C211">
-        <v>10149.16277335404</v>
+        <v>6983.830029381323</v>
       </c>
       <c r="D211">
-        <v>52729.907006539</v>
+        <v>21726.76391586011</v>
       </c>
       <c r="E211">
-        <v>4455.617509650054</v>
+        <v>8154.912558016762</v>
       </c>
       <c r="F211">
-        <v>2487.935783126399</v>
+        <v>1013.912942384767</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>592.1</v>
+        <v>538.9</v>
       </c>
       <c r="B212">
-        <v>46381.26623639482</v>
+        <v>73124.62136450187</v>
       </c>
       <c r="C212">
-        <v>11517.54751323272</v>
+        <v>8338.025722602812</v>
       </c>
       <c r="D212">
-        <v>57085.14462539904</v>
+        <v>20956.64332432967</v>
       </c>
       <c r="E212">
-        <v>3091.956724027675</v>
+        <v>6864.059636157979</v>
       </c>
       <c r="F212">
-        <v>2487.56583796093</v>
+        <v>705.4053117013837</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>594.4</v>
+        <v>541.1</v>
       </c>
       <c r="B213">
-        <v>49122.40326220669</v>
+        <v>73195.27143595061</v>
       </c>
       <c r="C213">
-        <v>9973.131559469513</v>
+        <v>10888.99551611903</v>
       </c>
       <c r="D213">
-        <v>59011.52940875271</v>
+        <v>18912.61493243096</v>
       </c>
       <c r="E213">
-        <v>2852.220448149732</v>
+        <v>6751.069884814773</v>
       </c>
       <c r="F213">
-        <v>2158.542713469755</v>
+        <v>985.9632301781485</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>596.6</v>
+        <v>543.4</v>
       </c>
       <c r="B214">
-        <v>47657.40389559188</v>
+        <v>64164.58741973796</v>
       </c>
       <c r="C214">
-        <v>7631.516299348188</v>
+        <v>8543.191209340523</v>
       </c>
       <c r="D214">
-        <v>54106.76702761278</v>
+        <v>18282.49434090051</v>
       </c>
       <c r="E214">
-        <v>3048.559662527345</v>
+        <v>7640.216962955976</v>
       </c>
       <c r="F214">
-        <v>2468.172768304286</v>
+        <v>787.4555994947677</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
+        <v>545.9</v>
+      </c>
+      <c r="B215">
+        <v>57331.23522820245</v>
+      </c>
+      <c r="C215">
+        <v>8283.838701972541</v>
+      </c>
+      <c r="D215">
+        <v>17090.18935010652</v>
+      </c>
+      <c r="E215">
+        <v>5083.637700065979</v>
+      </c>
+      <c r="F215">
+        <v>870.8168704910922</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>548.2</v>
+      </c>
+      <c r="B216">
+        <v>58300.55121198982</v>
+      </c>
+      <c r="C216">
+        <v>7738.034395194023</v>
+      </c>
+      <c r="D216">
+        <v>16850.06875857604</v>
+      </c>
+      <c r="E216">
+        <v>5762.784778207171</v>
+      </c>
+      <c r="F216">
+        <v>442.3092398077115</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>550.5</v>
+      </c>
+      <c r="B217">
+        <v>53869.86719577717</v>
+      </c>
+      <c r="C217">
+        <v>9642.230088415516</v>
+      </c>
+      <c r="D217">
+        <v>15959.9481670456</v>
+      </c>
+      <c r="E217">
+        <v>4831.931856348382</v>
+      </c>
+      <c r="F217">
+        <v>813.801609124328</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>552.7</v>
+      </c>
+      <c r="B218">
+        <v>57940.51726722591</v>
+      </c>
+      <c r="C218">
+        <v>6383.199881931676</v>
+      </c>
+      <c r="D218">
+        <v>14815.91977514688</v>
+      </c>
+      <c r="E218">
+        <v>3728.942105005176</v>
+      </c>
+      <c r="F218">
+        <v>424.3595276010919</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>555</v>
+      </c>
+      <c r="B219">
+        <v>53609.83325101328</v>
+      </c>
+      <c r="C219">
+        <v>8387.395575153168</v>
+      </c>
+      <c r="D219">
+        <v>13635.79918361643</v>
+      </c>
+      <c r="E219">
+        <v>3558.089183146379</v>
+      </c>
+      <c r="F219">
+        <v>475.8518969177121</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>557.2</v>
+      </c>
+      <c r="B220">
+        <v>62380.48332246214</v>
+      </c>
+      <c r="C220">
+        <v>9358.365368669358</v>
+      </c>
+      <c r="D220">
+        <v>14001.77079171772</v>
+      </c>
+      <c r="E220">
+        <v>4335.09943180318</v>
+      </c>
+      <c r="F220">
+        <v>706.4098153944769</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>559.8</v>
+      </c>
+      <c r="B221">
+        <v>55145.79704326524</v>
+      </c>
+      <c r="C221">
+        <v>10632.2387610067</v>
+      </c>
+      <c r="D221">
+        <v>12923.37360129201</v>
+      </c>
+      <c r="E221">
+        <v>3760.656998397584</v>
+      </c>
+      <c r="F221">
+        <v>660.7055372306531</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>562.1</v>
+      </c>
+      <c r="B222">
+        <v>48415.11302705259</v>
+      </c>
+      <c r="C222">
+        <v>4846.434454228158</v>
+      </c>
+      <c r="D222">
+        <v>10763.25300976153</v>
+      </c>
+      <c r="E222">
+        <v>4859.804076538785</v>
+      </c>
+      <c r="F222">
+        <v>952.1979065472715</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>564.3</v>
+      </c>
+      <c r="B223">
+        <v>46185.76309850132</v>
+      </c>
+      <c r="C223">
+        <v>9607.404247744384</v>
+      </c>
+      <c r="D223">
+        <v>9389.224617862816</v>
+      </c>
+      <c r="E223">
+        <v>4866.814325195588</v>
+      </c>
+      <c r="F223">
+        <v>872.7558250240372</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>566.6</v>
+      </c>
+      <c r="B224">
+        <v>54455.07908228871</v>
+      </c>
+      <c r="C224">
+        <v>9641.59994096584</v>
+      </c>
+      <c r="D224">
+        <v>11009.10402633236</v>
+      </c>
+      <c r="E224">
+        <v>1805.961403336782</v>
+      </c>
+      <c r="F224">
+        <v>864.2481943406528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>568.9</v>
+      </c>
+      <c r="B225">
+        <v>42424.39506607606</v>
+      </c>
+      <c r="C225">
+        <v>7965.795634187329</v>
+      </c>
+      <c r="D225">
+        <v>8248.983434801918</v>
+      </c>
+      <c r="E225">
+        <v>1075.108481477992</v>
+      </c>
+      <c r="F225">
+        <v>625.7405636572721</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>571.5</v>
+      </c>
+      <c r="B226">
+        <v>42589.70878687904</v>
+      </c>
+      <c r="C226">
+        <v>4289.669026524636</v>
+      </c>
+      <c r="D226">
+        <v>11040.58624437617</v>
+      </c>
+      <c r="E226">
+        <v>2580.666048072387</v>
+      </c>
+      <c r="F226">
+        <v>690.036285493451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>573.7</v>
+      </c>
+      <c r="B227">
+        <v>35860.35885832791</v>
+      </c>
+      <c r="C227">
+        <v>7150.638820040858</v>
+      </c>
+      <c r="D227">
+        <v>10656.55785247745</v>
+      </c>
+      <c r="E227">
+        <v>3687.676296729181</v>
+      </c>
+      <c r="F227">
+        <v>790.5942039702159</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>576</v>
+      </c>
+      <c r="B228">
+        <v>36129.67484211526</v>
+      </c>
+      <c r="C228">
+        <v>6084.834513262347</v>
+      </c>
+      <c r="D228">
+        <v>9426.437260947005</v>
+      </c>
+      <c r="E228">
+        <v>1876.823374870391</v>
+      </c>
+      <c r="F228">
+        <v>522.0865732868315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>578.3</v>
+      </c>
+      <c r="B229">
+        <v>35298.99082590261</v>
+      </c>
+      <c r="C229">
+        <v>6569.030206483807</v>
+      </c>
+      <c r="D229">
+        <v>9046.31666941653</v>
+      </c>
+      <c r="E229">
+        <v>1525.970453011593</v>
+      </c>
+      <c r="F229">
+        <v>903.578942603448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>580.5</v>
+      </c>
+      <c r="B230">
+        <v>30069.64089735136</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>11522.28827751785</v>
+      </c>
+      <c r="E230">
+        <v>2552.980701668387</v>
+      </c>
+      <c r="F230">
+        <v>834.1368610802128</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>582.7</v>
+      </c>
+      <c r="B231">
+        <v>36240.29096880009</v>
+      </c>
+      <c r="C231">
+        <v>2720.969793516193</v>
+      </c>
+      <c r="D231">
+        <v>7578.259885619129</v>
+      </c>
+      <c r="E231">
+        <v>1139.990950325188</v>
+      </c>
+      <c r="F231">
+        <v>1034.694779556978</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>585</v>
+      </c>
+      <c r="B232">
+        <v>33409.60695258745</v>
+      </c>
+      <c r="C232">
+        <v>7675.165486737682</v>
+      </c>
+      <c r="D232">
+        <v>8728.139294088684</v>
+      </c>
+      <c r="E232">
+        <v>1589.138028466391</v>
+      </c>
+      <c r="F232">
+        <v>946.1871488735978</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>587.6</v>
+      </c>
+      <c r="B233">
+        <v>31174.92067339057</v>
+      </c>
+      <c r="C233">
+        <v>4709.038879074989</v>
+      </c>
+      <c r="D233">
+        <v>8309.742103662935</v>
+      </c>
+      <c r="E233">
+        <v>524.6955950607934</v>
+      </c>
+      <c r="F233">
+        <v>1140.482870709776</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>589.9</v>
+      </c>
+      <c r="B234">
+        <v>33544.23665717793</v>
+      </c>
+      <c r="C234">
+        <v>6263.234572296482</v>
+      </c>
+      <c r="D234">
+        <v>5929.62151213246</v>
+      </c>
+      <c r="E234">
+        <v>1683.842673201996</v>
+      </c>
+      <c r="F234">
+        <v>1281.975240026392</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>592.1</v>
+      </c>
+      <c r="B235">
+        <v>20414.88672862666</v>
+      </c>
+      <c r="C235">
+        <v>7544.204365812671</v>
+      </c>
+      <c r="D235">
+        <v>9905.593120233778</v>
+      </c>
+      <c r="E235">
+        <v>280.85292185879</v>
+      </c>
+      <c r="F235">
+        <v>1272.533158503157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>594.4</v>
+      </c>
+      <c r="B236">
+        <v>22984.20271241401</v>
+      </c>
+      <c r="C236">
+        <v>5908.400059034164</v>
+      </c>
+      <c r="D236">
+        <v>11435.4725287033</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>934.0255278197728</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>596.6</v>
+      </c>
+      <c r="B237">
+        <v>21354.85278386276</v>
+      </c>
+      <c r="C237">
+        <v>3479.369852550353</v>
+      </c>
+      <c r="D237">
+        <v>6151.444136804614</v>
+      </c>
+      <c r="E237">
+        <v>157.0102486567939</v>
+      </c>
+      <c r="F237">
+        <v>1234.583446296541</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
         <v>599.2</v>
       </c>
-      <c r="B215">
-        <v>45316.95009868346</v>
-      </c>
-      <c r="C215">
-        <v>9898.698264659333</v>
-      </c>
-      <c r="D215">
-        <v>59106.59330444736</v>
-      </c>
-      <c r="E215">
-        <v>4000.596915882712</v>
-      </c>
-      <c r="F215">
-        <v>1913.190105836005</v>
+      <c r="B238">
+        <v>18820.16650466587</v>
+      </c>
+      <c r="C238">
+        <v>5643.243244887664</v>
+      </c>
+      <c r="D238">
+        <v>10703.04694637886</v>
+      </c>
+      <c r="E238">
+        <v>1062.567815251196</v>
+      </c>
+      <c r="F238">
+        <v>668.8791681327202</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>601.4</v>
+      </c>
+      <c r="B239">
+        <v>14090.81657611461</v>
+      </c>
+      <c r="C239">
+        <v>4974.213038403861</v>
+      </c>
+      <c r="D239">
+        <v>10239.01855448018</v>
+      </c>
+      <c r="E239">
+        <v>249.5780639079994</v>
+      </c>
+      <c r="F239">
+        <v>989.4370866094823</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>603.7</v>
+      </c>
+      <c r="B240">
+        <v>25860.13255990198</v>
+      </c>
+      <c r="C240">
+        <v>6528.408731625346</v>
+      </c>
+      <c r="D240">
+        <v>14828.8979629497</v>
+      </c>
+      <c r="E240">
+        <v>2008.725142049193</v>
+      </c>
+      <c r="F240">
+        <v>1030.929455926101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>605.9</v>
+      </c>
+      <c r="B241">
+        <v>31530.78263135083</v>
+      </c>
+      <c r="C241">
+        <v>7409.378525141572</v>
+      </c>
+      <c r="D241">
+        <v>15774.869571051</v>
+      </c>
+      <c r="E241">
+        <v>1725.735390706003</v>
+      </c>
+      <c r="F241">
+        <v>781.4873744028664</v>
       </c>
     </row>
   </sheetData>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_0.12 L TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.1E-09_15 s_724_0.12 L TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4802 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>90.90000000000001</v>
+        <v>111.5</v>
       </c>
       <c r="B2">
-        <v>57101.3340876615</v>
+        <v>34224.07031132766</v>
       </c>
       <c r="C2">
-        <v>5605.995042940895</v>
+        <v>5549.193794155995</v>
       </c>
       <c r="D2">
-        <v>13859.69767461086</v>
+        <v>53269.40759475105</v>
       </c>
       <c r="E2">
-        <v>1491.063546045804</v>
+        <v>4292.400482166819</v>
       </c>
       <c r="F2">
-        <v>709.0655491601493</v>
+        <v>1084.321342034066</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>114.1</v>
       </c>
       <c r="B3">
-        <v>7300</v>
+        <v>22357.20309744799</v>
       </c>
       <c r="C3">
-        <v>7449.220942646188</v>
+        <v>4969.599116405883</v>
       </c>
       <c r="D3">
-        <v>12733.60547497913</v>
+        <v>46897.90685770367</v>
       </c>
       <c r="E3">
-        <v>903.2003755302046</v>
+        <v>2217.799668692147</v>
       </c>
       <c r="F3">
-        <v>950</v>
+        <v>1191.030487085722</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>116.4</v>
       </c>
       <c r="B4">
-        <v>7800</v>
+        <v>20886.5128697851</v>
       </c>
       <c r="C4">
-        <v>5549.220942646188</v>
+        <v>4682.649978396159</v>
       </c>
       <c r="D4">
-        <v>13703.60547497913</v>
+        <v>41402.34851339254</v>
       </c>
       <c r="E4">
-        <v>1513.200375530205</v>
+        <v>1472.191256772245</v>
       </c>
       <c r="F4">
-        <v>1080</v>
+        <v>744.6578077083382</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>118.7</v>
       </c>
       <c r="B5">
-        <v>12900</v>
+        <v>12515.82264212232</v>
       </c>
       <c r="C5">
-        <v>8589.220942646189</v>
+        <v>4465.700840386437</v>
       </c>
       <c r="D5">
-        <v>15583.60547497913</v>
+        <v>33806.79016908142</v>
       </c>
       <c r="E5">
-        <v>1333.200375530205</v>
+        <v>1806.582844852343</v>
       </c>
       <c r="F5">
-        <v>730</v>
+        <v>478.2851283309583</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>91</v>
+        <v>120.8</v>
       </c>
       <c r="B6">
-        <v>5000</v>
+        <v>7942.583738604008</v>
       </c>
       <c r="C6">
-        <v>8319.220942646189</v>
+        <v>6117.18206220363</v>
       </c>
       <c r="D6">
-        <v>14013.60547497913</v>
+        <v>31415.19341992777</v>
       </c>
       <c r="E6">
-        <v>1263.200375530205</v>
+        <v>1823.636033968956</v>
       </c>
       <c r="F6">
-        <v>1050</v>
+        <v>449.8578993342162</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>123.2</v>
       </c>
       <c r="B7">
-        <v>15000</v>
+        <v>11973.16784886894</v>
       </c>
       <c r="C7">
-        <v>9499.220942646189</v>
+        <v>2956.017744280463</v>
       </c>
       <c r="D7">
-        <v>15623.60547497913</v>
+        <v>29677.65427803788</v>
       </c>
       <c r="E7">
-        <v>1843.200375530205</v>
+        <v>2531.6968215308</v>
       </c>
       <c r="F7">
-        <v>840</v>
+        <v>894.512494766514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>90.90000000000001</v>
+        <v>125.3</v>
       </c>
       <c r="B8">
-        <v>9701.334087661497</v>
+        <v>3099.928945350628</v>
       </c>
       <c r="C8">
-        <v>9785.995042940895</v>
+        <v>5497.498966097657</v>
       </c>
       <c r="D8">
-        <v>14589.69767461086</v>
+        <v>29076.05752888424</v>
       </c>
       <c r="E8">
-        <v>1701.063546045804</v>
+        <v>2308.750010647414</v>
       </c>
       <c r="F8">
-        <v>419.0655491601493</v>
+        <v>586.0852657697751</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>91</v>
+        <v>127.4</v>
       </c>
       <c r="B9">
-        <v>10500</v>
+        <v>9826.690041832437</v>
       </c>
       <c r="C9">
-        <v>10649.22094264619</v>
+        <v>7908.980187914878</v>
       </c>
       <c r="D9">
-        <v>15333.60547497913</v>
+        <v>28384.46077973059</v>
       </c>
       <c r="E9">
-        <v>1053.200375530205</v>
+        <v>2345.80319976402</v>
       </c>
       <c r="F9">
-        <v>710</v>
+        <v>1087.658036773037</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>91</v>
+        <v>129.5</v>
       </c>
       <c r="B10">
-        <v>9700</v>
+        <v>6453.451138314129</v>
       </c>
       <c r="C10">
-        <v>8739.220942646189</v>
+        <v>4850.461409732101</v>
       </c>
       <c r="D10">
-        <v>16273.60547497913</v>
+        <v>29772.86403057695</v>
       </c>
       <c r="E10">
-        <v>2723.200375530205</v>
+        <v>3462.856388880633</v>
       </c>
       <c r="F10">
-        <v>1060</v>
+        <v>1149.230807776294</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>91</v>
+        <v>131.7</v>
       </c>
       <c r="B11">
-        <v>12300</v>
+        <v>4481.486572723647</v>
       </c>
       <c r="C11">
-        <v>10689.22094264619</v>
+        <v>7167.727451635823</v>
       </c>
       <c r="D11">
-        <v>15933.60547497913</v>
+        <v>29399.28648384459</v>
       </c>
       <c r="E11">
-        <v>2813.200375530205</v>
+        <v>2573.578777478992</v>
       </c>
       <c r="F11">
-        <v>400</v>
+        <v>1871.830853589233</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>91</v>
+        <v>133.9</v>
       </c>
       <c r="B12">
-        <v>6800</v>
+        <v>5009.522007133048</v>
       </c>
       <c r="C12">
-        <v>10919.22094264619</v>
+        <v>8274.993493539572</v>
       </c>
       <c r="D12">
-        <v>15373.60547497913</v>
+        <v>28505.70893711219</v>
       </c>
       <c r="E12">
-        <v>2733.200375530205</v>
+        <v>3634.301166077344</v>
       </c>
       <c r="F12">
-        <v>580</v>
+        <v>1554.430899402172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>91</v>
+        <v>136.2</v>
       </c>
       <c r="B13">
-        <v>6600</v>
+        <v>4238.831779470267</v>
       </c>
       <c r="C13">
-        <v>10559.22094264619</v>
+        <v>8358.04435552985</v>
       </c>
       <c r="D13">
-        <v>15063.60547497913</v>
+        <v>29510.15059280104</v>
       </c>
       <c r="E13">
-        <v>1993.200375530205</v>
+        <v>3808.692754157442</v>
       </c>
       <c r="F13">
-        <v>520</v>
+        <v>1348.058220024792</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>138.8</v>
       </c>
       <c r="B14">
-        <v>7600</v>
+        <v>2371.964565590482</v>
       </c>
       <c r="C14">
-        <v>11109.22094264619</v>
+        <v>7838.449677779738</v>
       </c>
       <c r="D14">
-        <v>15423.60547497913</v>
+        <v>26108.64985575371</v>
       </c>
       <c r="E14">
-        <v>2353.200375530205</v>
+        <v>3344.09194068277</v>
       </c>
       <c r="F14">
-        <v>1290</v>
+        <v>1434.767365076448</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B15">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>13469.22094264619</v>
+        <v>6615.715719683487</v>
       </c>
       <c r="D15">
-        <v>14643.60547497913</v>
+        <v>24135.07230902131</v>
       </c>
       <c r="E15">
-        <v>3213.200375530205</v>
+        <v>4224.814329281122</v>
       </c>
       <c r="F15">
-        <v>1100</v>
+        <v>1837.367410889384</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>143.3</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4629.309772337103</v>
       </c>
       <c r="C16">
-        <v>13209.22094264619</v>
+        <v>6038.766581673764</v>
       </c>
       <c r="D16">
-        <v>15313.60547497913</v>
+        <v>23159.51396471017</v>
       </c>
       <c r="E16">
-        <v>2883.200375530205</v>
+        <v>4699.20591736122</v>
       </c>
       <c r="F16">
-        <v>510</v>
+        <v>2380.994731512004</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>91</v>
+        <v>145.7</v>
       </c>
       <c r="B17">
-        <v>6900</v>
+        <v>4859.893882602024</v>
       </c>
       <c r="C17">
-        <v>14999.22094264619</v>
+        <v>7377.60226375057</v>
       </c>
       <c r="D17">
-        <v>16133.60547497913</v>
+        <v>22051.9748228203</v>
       </c>
       <c r="E17">
-        <v>2723.200375530205</v>
+        <v>4947.266704923064</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3475.649326944302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>91</v>
+        <v>148.3</v>
       </c>
       <c r="B18">
-        <v>10400</v>
+        <v>12493.02666872225</v>
       </c>
       <c r="C18">
-        <v>13299.22094264619</v>
+        <v>7638.007586000456</v>
       </c>
       <c r="D18">
-        <v>21353.60547497913</v>
+        <v>22610.47408577294</v>
       </c>
       <c r="E18">
-        <v>3793.200375530205</v>
+        <v>5072.665891448392</v>
       </c>
       <c r="F18">
-        <v>110</v>
+        <v>5352.358471995957</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>91.2</v>
+        <v>150.6</v>
       </c>
       <c r="B19">
-        <v>5997.331824677123</v>
+        <v>10022.33644105947</v>
       </c>
       <c r="C19">
-        <v>13665.67274205675</v>
+        <v>8141.058447990736</v>
       </c>
       <c r="D19">
-        <v>41361.4210757156</v>
+        <v>21014.91574146179</v>
       </c>
       <c r="E19">
-        <v>6647.474034499006</v>
+        <v>5777.05747952849</v>
       </c>
       <c r="F19">
-        <v>781.8689016797085</v>
+        <v>8955.985792618576</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>91.59999999999999</v>
+        <v>152.9</v>
       </c>
       <c r="B20">
-        <v>16691.99547403149</v>
+        <v>17651.64621339658</v>
       </c>
       <c r="C20">
-        <v>26598.57634087786</v>
+        <v>11734.10930998101</v>
       </c>
       <c r="D20">
-        <v>70797.05227718856</v>
+        <v>18919.35739715068</v>
       </c>
       <c r="E20">
-        <v>12356.02135243661</v>
+        <v>6701.449067608588</v>
       </c>
       <c r="F20">
-        <v>6425.606705039118</v>
+        <v>16049.61311324119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>92.40000000000001</v>
+        <v>155.1</v>
       </c>
       <c r="B21">
-        <v>34881.32277274011</v>
+        <v>18079.68164780609</v>
       </c>
       <c r="C21">
-        <v>24724.38353852012</v>
+        <v>16031.37535188476</v>
       </c>
       <c r="D21">
-        <v>89068.31468013448</v>
+        <v>23525.77985041829</v>
       </c>
       <c r="E21">
-        <v>11853.1159883118</v>
+        <v>8872.171456206939</v>
       </c>
       <c r="F21">
-        <v>3913.082311757942</v>
+        <v>26562.21315905414</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>93.7</v>
+        <v>157.4</v>
       </c>
       <c r="B22">
-        <v>52363.97963314173</v>
+        <v>21608.99142014319</v>
       </c>
       <c r="C22">
-        <v>29246.32023468879</v>
+        <v>23284.42621387504</v>
       </c>
       <c r="D22">
-        <v>89639.11608492161</v>
+        <v>27590.22150610717</v>
       </c>
       <c r="E22">
-        <v>10760.89477160901</v>
+        <v>13366.56304428704</v>
       </c>
       <c r="F22">
-        <v>3205.230172676029</v>
+        <v>44185.84047967676</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>95.09999999999999</v>
+        <v>160</v>
       </c>
       <c r="B23">
-        <v>58445.30240588184</v>
+        <v>25842.12420626352</v>
       </c>
       <c r="C23">
-        <v>23831.48283056272</v>
+        <v>33374.83153612493</v>
       </c>
       <c r="D23">
-        <v>94793.82529007697</v>
+        <v>34898.7207690598</v>
       </c>
       <c r="E23">
-        <v>9510.810384390606</v>
+        <v>17721.96223081237</v>
       </c>
       <c r="F23">
-        <v>2698.312484433971</v>
+        <v>63582.54962472841</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>97.5</v>
+        <v>162.2</v>
       </c>
       <c r="B24">
-        <v>62413.28430200771</v>
+        <v>43770.15964067291</v>
       </c>
       <c r="C24">
-        <v>22348.90442348948</v>
+        <v>45232.09757802868</v>
       </c>
       <c r="D24">
-        <v>94587.61249891475</v>
+        <v>43015.14322232741</v>
       </c>
       <c r="E24">
-        <v>7872.094292016209</v>
+        <v>22272.68461941072</v>
       </c>
       <c r="F24">
-        <v>2460.739304590441</v>
+        <v>74985.14967054133</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>100</v>
+        <v>164.5</v>
       </c>
       <c r="B25">
-        <v>61179.93211047231</v>
+        <v>60399.46941301015</v>
       </c>
       <c r="C25">
-        <v>26039.55191612152</v>
+        <v>54275.14844001895</v>
       </c>
       <c r="D25">
-        <v>93815.30750812076</v>
+        <v>38419.58487801626</v>
       </c>
       <c r="E25">
-        <v>9735.515029126213</v>
+        <v>17677.07620749082</v>
       </c>
       <c r="F25">
-        <v>2714.100575586765</v>
+        <v>47448.77699116397</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>102.8</v>
+        <v>166.7</v>
       </c>
       <c r="B26">
-        <v>60342.57765595254</v>
+        <v>49727.50484741954</v>
       </c>
       <c r="C26">
-        <v>25089.87710786942</v>
+        <v>46472.41448192271</v>
       </c>
       <c r="D26">
-        <v>97874.72591843152</v>
+        <v>27186.0073312839</v>
       </c>
       <c r="E26">
-        <v>9585.34625468941</v>
+        <v>10707.79859608917</v>
       </c>
       <c r="F26">
-        <v>3320.265199102649</v>
+        <v>27011.37703697691</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>105.7</v>
+        <v>169</v>
       </c>
       <c r="B27">
-        <v>55303.88911377139</v>
+        <v>37756.81461975676</v>
       </c>
       <c r="C27">
-        <v>21933.42819932258</v>
+        <v>45065.46534391298</v>
       </c>
       <c r="D27">
-        <v>93338.0521291105</v>
+        <v>22590.44898697275</v>
       </c>
       <c r="E27">
-        <v>8327.314309737012</v>
+        <v>11662.19018416927</v>
       </c>
       <c r="F27">
-        <v>2657.364273458387</v>
+        <v>20755.00435759952</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>108.9</v>
+        <v>171.5</v>
       </c>
       <c r="B28">
-        <v>48661.19830860589</v>
+        <v>36688.67306794928</v>
       </c>
       <c r="C28">
-        <v>19996.65698989159</v>
+        <v>40280.08584607631</v>
       </c>
       <c r="D28">
-        <v>90093.10174089421</v>
+        <v>20060.92904750414</v>
       </c>
       <c r="E28">
-        <v>8305.692853237812</v>
+        <v>9723.920171212862</v>
       </c>
       <c r="F28">
-        <v>2017.266700333681</v>
+        <v>20650.6862278415</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>111.5</v>
+        <v>173.8</v>
       </c>
       <c r="B29">
-        <v>42726.512029409</v>
+        <v>23717.9828402865</v>
       </c>
       <c r="C29">
-        <v>17550.53038222893</v>
+        <v>39273.13670806662</v>
       </c>
       <c r="D29">
-        <v>84284.70455046846</v>
+        <v>19265.37070319302</v>
       </c>
       <c r="E29">
-        <v>9441.250419832215</v>
+        <v>10828.31175929296</v>
       </c>
       <c r="F29">
-        <v>1371.562422169856</v>
+        <v>19094.31354846412</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>114.1</v>
+        <v>176.1</v>
       </c>
       <c r="B30">
-        <v>30791.8257502121</v>
+        <v>27647.29261262361</v>
       </c>
       <c r="C30">
-        <v>16904.40377456624</v>
+        <v>39766.1875700569</v>
       </c>
       <c r="D30">
-        <v>77546.30736004275</v>
+        <v>17949.81235888188</v>
       </c>
       <c r="E30">
-        <v>7326.807986426611</v>
+        <v>9472.703347373059</v>
       </c>
       <c r="F30">
-        <v>1475.858144006034</v>
+        <v>17827.94086908673</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>116.4</v>
+        <v>178.4</v>
       </c>
       <c r="B31">
-        <v>29261.14173399947</v>
+        <v>15676.60238496071</v>
       </c>
       <c r="C31">
-        <v>16558.59946778773</v>
+        <v>43779.23843204718</v>
       </c>
       <c r="D31">
-        <v>71726.18676851227</v>
+        <v>16444.25401457073</v>
       </c>
       <c r="E31">
-        <v>6545.955064567812</v>
+        <v>10107.09493545315</v>
       </c>
       <c r="F31">
-        <v>1027.35051332265</v>
+        <v>14071.56818970935</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>118.7</v>
+        <v>180.7</v>
       </c>
       <c r="B32">
-        <v>20830.45771778682</v>
+        <v>23605.91215729793</v>
       </c>
       <c r="C32">
-        <v>16282.79516100922</v>
+        <v>43292.28929403745</v>
       </c>
       <c r="D32">
-        <v>63806.06617698183</v>
+        <v>15678.69567025961</v>
       </c>
       <c r="E32">
-        <v>6845.102142709015</v>
+        <v>8871.486523533255</v>
       </c>
       <c r="F32">
-        <v>758.8428826392694</v>
+        <v>13165.19551033197</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>120.8</v>
+        <v>183.3</v>
       </c>
       <c r="B33">
-        <v>16202.44187689694</v>
+        <v>17339.04494341814</v>
       </c>
       <c r="C33">
-        <v>17880.53905482012</v>
+        <v>41552.69461628734</v>
       </c>
       <c r="D33">
-        <v>61118.12998471488</v>
+        <v>17377.19493321225</v>
       </c>
       <c r="E33">
-        <v>6829.975561881416</v>
+        <v>7716.885710058588</v>
       </c>
       <c r="F33">
-        <v>728.4663502761805</v>
+        <v>11651.90465538362</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>123.2</v>
+        <v>185.5</v>
       </c>
       <c r="B34">
-        <v>20170.42377302292</v>
+        <v>8567.080377827653</v>
       </c>
       <c r="C34">
-        <v>14657.9606477469</v>
+        <v>42399.96065819109</v>
       </c>
       <c r="D34">
-        <v>59041.91719355267</v>
+        <v>13583.61738647985</v>
       </c>
       <c r="E34">
-        <v>7501.259469507018</v>
+        <v>7977.608098656941</v>
       </c>
       <c r="F34">
-        <v>1170.893170432654</v>
+        <v>10734.50470119656</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>125.3</v>
+        <v>187.8</v>
       </c>
       <c r="B35">
-        <v>11242.40793213316</v>
+        <v>7796.390150164763</v>
       </c>
       <c r="C35">
-        <v>17145.7045415578</v>
+        <v>43073.01152018137</v>
       </c>
       <c r="D35">
-        <v>58143.98100128572</v>
+        <v>11948.05904216874</v>
       </c>
       <c r="E35">
-        <v>7246.13288867942</v>
+        <v>7251.999686737039</v>
       </c>
       <c r="F35">
-        <v>860.516638069565</v>
+        <v>9508.132021819179</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>127.4</v>
+        <v>189.8</v>
       </c>
       <c r="B36">
-        <v>17914.39209124328</v>
+        <v>17821.87690871886</v>
       </c>
       <c r="C36">
-        <v>19503.4484353687</v>
+        <v>41448.70792191204</v>
       </c>
       <c r="D36">
-        <v>57156.04480901877</v>
+        <v>11718.44309059385</v>
       </c>
       <c r="E36">
-        <v>7251.006307851821</v>
+        <v>8675.383676371899</v>
       </c>
       <c r="F36">
-        <v>1360.140105706476</v>
+        <v>8858.677518012764</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>129.5</v>
+        <v>192.3</v>
       </c>
       <c r="B37">
-        <v>14486.37625035351</v>
+        <v>14553.73535691138</v>
       </c>
       <c r="C37">
-        <v>16391.19232917963</v>
+        <v>43003.32842407536</v>
       </c>
       <c r="D37">
-        <v>58248.10861675182</v>
+        <v>11378.92315112521</v>
       </c>
       <c r="E37">
-        <v>8335.879727024221</v>
+        <v>7277.113663415488</v>
       </c>
       <c r="F37">
-        <v>1419.76357334339</v>
+        <v>9194.359388254741</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>131.7</v>
+        <v>194.6</v>
       </c>
       <c r="B38">
-        <v>12457.02632180224</v>
+        <v>16683.0451292486</v>
       </c>
       <c r="C38">
-        <v>18652.16212269582</v>
+        <v>43066.37928606567</v>
       </c>
       <c r="D38">
-        <v>57564.08022485311</v>
+        <v>12563.36480681409</v>
       </c>
       <c r="E38">
-        <v>7412.889975681024</v>
+        <v>7511.505251495586</v>
       </c>
       <c r="F38">
-        <v>2140.321491820152</v>
+        <v>9037.986708877357</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>133.9</v>
+        <v>197.2</v>
       </c>
       <c r="B39">
-        <v>12927.67639325099</v>
+        <v>18916.17791536882</v>
       </c>
       <c r="C39">
-        <v>19703.13191621202</v>
+        <v>42806.78460831553</v>
       </c>
       <c r="D39">
-        <v>56360.05183295443</v>
+        <v>10871.86406976672</v>
       </c>
       <c r="E39">
-        <v>8439.900224337818</v>
+        <v>7696.904438020922</v>
       </c>
       <c r="F39">
-        <v>1820.879410296921</v>
+        <v>8414.695853929014</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>136.2</v>
+        <v>199.5</v>
       </c>
       <c r="B40">
-        <v>12096.99237703835</v>
+        <v>21545.48768770604</v>
       </c>
       <c r="C40">
-        <v>19727.32760943351</v>
+        <v>38299.83547030581</v>
       </c>
       <c r="D40">
-        <v>57039.93124142395</v>
+        <v>10056.30572545558</v>
       </c>
       <c r="E40">
-        <v>8579.047302479028</v>
+        <v>7001.296026101019</v>
       </c>
       <c r="F40">
-        <v>1612.371779613537</v>
+        <v>8558.32317455163</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>138.8</v>
+        <v>201.7</v>
       </c>
       <c r="B41">
-        <v>10162.30609784146</v>
+        <v>15173.52312211543</v>
       </c>
       <c r="C41">
-        <v>19141.20100177081</v>
+        <v>41167.10151220956</v>
       </c>
       <c r="D41">
-        <v>53271.53405099821</v>
+        <v>7542.728178723213</v>
       </c>
       <c r="E41">
-        <v>8074.604869073422</v>
+        <v>6882.018414699372</v>
       </c>
       <c r="F41">
-        <v>1696.667501449715</v>
+        <v>8560.923220364568</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="B42">
-        <v>7732.956169290192</v>
+        <v>22202.83289445265</v>
       </c>
       <c r="C42">
-        <v>17862.17079528703</v>
+        <v>41140.15237419983</v>
       </c>
       <c r="D42">
-        <v>50987.50565909952</v>
+        <v>8217.169834412067</v>
       </c>
       <c r="E42">
-        <v>8921.615117730225</v>
+        <v>6206.41000277947</v>
       </c>
       <c r="F42">
-        <v>2097.225419926477</v>
+        <v>8694.550540987189</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>143.3</v>
+        <v>206.6</v>
       </c>
       <c r="B43">
-        <v>12302.27215307755</v>
+        <v>31735.96568057288</v>
       </c>
       <c r="C43">
-        <v>17226.36648850849</v>
+        <v>39510.55769644972</v>
       </c>
       <c r="D43">
-        <v>49687.38506756905</v>
+        <v>8235.669097364698</v>
       </c>
       <c r="E43">
-        <v>9360.762195871426</v>
+        <v>6881.809189304791</v>
       </c>
       <c r="F43">
-        <v>2638.717789243096</v>
+        <v>8421.259686038842</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>145.7</v>
+        <v>208.9</v>
       </c>
       <c r="B44">
-        <v>12470.25404920353</v>
+        <v>39965.2754529101</v>
       </c>
       <c r="C44">
-        <v>18503.78808143528</v>
+        <v>40233.60855844</v>
       </c>
       <c r="D44">
-        <v>48241.17227640683</v>
+        <v>8290.110753053588</v>
       </c>
       <c r="E44">
-        <v>9572.04610349703</v>
+        <v>6016.200777384889</v>
       </c>
       <c r="F44">
-        <v>3731.144609399566</v>
+        <v>7534.887006661461</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>148.3</v>
+        <v>211.2</v>
       </c>
       <c r="B45">
-        <v>20035.56777000664</v>
+        <v>54494.5852252472</v>
       </c>
       <c r="C45">
-        <v>18697.66147377259</v>
+        <v>36186.65942043028</v>
       </c>
       <c r="D45">
-        <v>48432.77508598108</v>
+        <v>7624.552408742442</v>
       </c>
       <c r="E45">
-        <v>9657.603670091426</v>
+        <v>6290.592365465001</v>
       </c>
       <c r="F45">
-        <v>5605.440331235744</v>
+        <v>7998.514327284081</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>150.6</v>
+        <v>213.5</v>
       </c>
       <c r="B46">
-        <v>17504.883753794</v>
+        <v>70423.89499758443</v>
       </c>
       <c r="C46">
-        <v>19141.85716699407</v>
+        <v>39579.71028242056</v>
       </c>
       <c r="D46">
-        <v>46512.65449445063</v>
+        <v>8708.994064431325</v>
       </c>
       <c r="E46">
-        <v>10326.75074823263</v>
+        <v>7234.983953545099</v>
       </c>
       <c r="F46">
-        <v>9206.932700552361</v>
+        <v>7422.141647906697</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>152.9</v>
+        <v>215.7</v>
       </c>
       <c r="B47">
-        <v>25074.19973758137</v>
+        <v>90451.93043199382</v>
       </c>
       <c r="C47">
-        <v>22676.05286021553</v>
+        <v>37926.97632432431</v>
       </c>
       <c r="D47">
-        <v>44092.53390292019</v>
+        <v>7005.416517698926</v>
       </c>
       <c r="E47">
-        <v>11215.89782637383</v>
+        <v>6565.70634214345</v>
       </c>
       <c r="F47">
-        <v>16298.42506986898</v>
+        <v>8014.741693719637</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>155.1</v>
+        <v>218.4</v>
       </c>
       <c r="B48">
-        <v>25444.8498090301</v>
+        <v>115686.3375560419</v>
       </c>
       <c r="C48">
-        <v>26917.02265373172</v>
+        <v>36643.16646666072</v>
       </c>
       <c r="D48">
-        <v>48388.50551102147</v>
+        <v>7711.934983072817</v>
       </c>
       <c r="E48">
-        <v>13352.90807503063</v>
+        <v>6554.774728150518</v>
       </c>
       <c r="F48">
-        <v>26808.98298834575</v>
+        <v>7732.47811358097</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>157.4</v>
+        <v>220.7</v>
       </c>
       <c r="B49">
-        <v>28914.16579281747</v>
+        <v>134615.647328379</v>
       </c>
       <c r="C49">
-        <v>34111.21834695322</v>
+        <v>36986.217328651</v>
       </c>
       <c r="D49">
-        <v>52128.38491949099</v>
+        <v>8526.3766387617</v>
       </c>
       <c r="E49">
-        <v>17812.05515317183</v>
+        <v>6709.166316230616</v>
       </c>
       <c r="F49">
-        <v>44430.47535766236</v>
+        <v>7406.10543420359</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="B50">
-        <v>33079.47951362056</v>
+        <v>174244.9571007162</v>
       </c>
       <c r="C50">
-        <v>44135.09173929055</v>
+        <v>34809.26819064131</v>
       </c>
       <c r="D50">
-        <v>59069.98772906527</v>
+        <v>8160.818294450553</v>
       </c>
       <c r="E50">
-        <v>22127.61271976624</v>
+        <v>5623.557904310714</v>
       </c>
       <c r="F50">
-        <v>63824.77107949854</v>
+        <v>7719.732754826207</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>162.2</v>
+        <v>225.2</v>
       </c>
       <c r="B51">
-        <v>50950.1295850693</v>
+        <v>205172.9925351256</v>
       </c>
       <c r="C51">
-        <v>55936.06153280674</v>
+        <v>36366.53423254503</v>
       </c>
       <c r="D51">
-        <v>66875.95933716655</v>
+        <v>5997.240747718162</v>
       </c>
       <c r="E51">
-        <v>26644.62296842303</v>
+        <v>4934.280292909072</v>
       </c>
       <c r="F51">
-        <v>75225.3289979753</v>
+        <v>6632.332800639146</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>164.5</v>
+        <v>227.5</v>
       </c>
       <c r="B52">
-        <v>67519.44556885667</v>
+        <v>249102.3023074628</v>
       </c>
       <c r="C52">
-        <v>64920.25722602821</v>
+        <v>37379.5850945353</v>
       </c>
       <c r="D52">
-        <v>61955.83874563611</v>
+        <v>8381.682403407045</v>
       </c>
       <c r="E52">
-        <v>22013.77004656424</v>
+        <v>6448.671880989163</v>
       </c>
       <c r="F52">
-        <v>47686.82136729192</v>
+        <v>7265.960121261766</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>166.7</v>
+        <v>229.7</v>
       </c>
       <c r="B53">
-        <v>56790.0956403054</v>
+        <v>279530.3377418722</v>
       </c>
       <c r="C53">
-        <v>57061.22701954441</v>
+        <v>35286.85113643905</v>
       </c>
       <c r="D53">
-        <v>50411.8103537374</v>
+        <v>6328.104856674654</v>
       </c>
       <c r="E53">
-        <v>15010.78029522103</v>
+        <v>5649.39426958753</v>
       </c>
       <c r="F53">
-        <v>27247.37928576869</v>
+        <v>7168.560167074702</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>169</v>
+        <v>232.4</v>
       </c>
       <c r="B54">
-        <v>44759.41162409277</v>
+        <v>314364.7448659203</v>
       </c>
       <c r="C54">
-        <v>55595.42271276589</v>
+        <v>34433.04127877547</v>
       </c>
       <c r="D54">
-        <v>45491.68976220695</v>
+        <v>5644.623322048537</v>
       </c>
       <c r="E54">
-        <v>15929.92737336223</v>
+        <v>5768.462655594596</v>
       </c>
       <c r="F54">
-        <v>20988.87165508531</v>
+        <v>6286.296586936039</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>171.5</v>
+        <v>234.7</v>
       </c>
       <c r="B55">
-        <v>43626.05943255725</v>
+        <v>341094.0546382574</v>
       </c>
       <c r="C55">
-        <v>50746.07020539793</v>
+        <v>33026.09214076574</v>
       </c>
       <c r="D55">
-        <v>42609.38477141297</v>
+        <v>4099.06497773742</v>
       </c>
       <c r="E55">
-        <v>13953.34811047224</v>
+        <v>4382.854243674694</v>
       </c>
       <c r="F55">
-        <v>20882.23292608163</v>
+        <v>5769.923907558656</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>173.8</v>
+        <v>236.9</v>
       </c>
       <c r="B56">
-        <v>30595.37541634461</v>
+        <v>392022.0900726669</v>
       </c>
       <c r="C56">
-        <v>49680.26589861942</v>
+        <v>32183.35818266949</v>
       </c>
       <c r="D56">
-        <v>41489.26417988249</v>
+        <v>6815.487431005022</v>
       </c>
       <c r="E56">
-        <v>15022.49518861343</v>
+        <v>5273.576632273047</v>
       </c>
       <c r="F56">
-        <v>19323.72529539825</v>
+        <v>6092.523953371594</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>176.1</v>
+        <v>239.2</v>
       </c>
       <c r="B57">
-        <v>34464.69140013198</v>
+        <v>432351.399845004</v>
       </c>
       <c r="C57">
-        <v>50114.46159184087</v>
+        <v>31196.40904465977</v>
       </c>
       <c r="D57">
-        <v>39849.14358835205</v>
+        <v>7639.929086693875</v>
       </c>
       <c r="E57">
-        <v>13631.64226675464</v>
+        <v>6457.968220353145</v>
       </c>
       <c r="F57">
-        <v>18055.21766471487</v>
+        <v>5876.151273994215</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>178.4</v>
+        <v>241.5</v>
       </c>
       <c r="B58">
-        <v>22434.00738391934</v>
+        <v>474080.7096173411</v>
       </c>
       <c r="C58">
-        <v>54068.65728506237</v>
+        <v>32969.45990665005</v>
       </c>
       <c r="D58">
-        <v>38019.02299682156</v>
+        <v>6064.370742382765</v>
       </c>
       <c r="E58">
-        <v>14230.78934489584</v>
+        <v>5872.359808433243</v>
       </c>
       <c r="F58">
-        <v>14296.71003403148</v>
+        <v>5169.778594616831</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>180.7</v>
+        <v>243.7</v>
       </c>
       <c r="B59">
-        <v>30303.32336770669</v>
+        <v>508508.7450517506</v>
       </c>
       <c r="C59">
-        <v>53522.85297828385</v>
+        <v>31076.7259485538</v>
       </c>
       <c r="D59">
-        <v>36928.90240529111</v>
+        <v>7370.793195650367</v>
       </c>
       <c r="E59">
-        <v>12959.93642303705</v>
+        <v>4813.082197031601</v>
       </c>
       <c r="F59">
-        <v>13388.2024033481</v>
+        <v>4862.37864042977</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>183.3</v>
+        <v>246</v>
       </c>
       <c r="B60">
-        <v>23968.6370885098</v>
+        <v>541438.0548240878</v>
       </c>
       <c r="C60">
-        <v>51716.72637062116</v>
+        <v>30879.77681054407</v>
       </c>
       <c r="D60">
-        <v>38260.50521486536</v>
+        <v>3385.234851339257</v>
       </c>
       <c r="E60">
-        <v>11765.49398963144</v>
+        <v>4977.473785111692</v>
       </c>
       <c r="F60">
-        <v>11872.49812518428</v>
+        <v>5236.005961052389</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>185.5</v>
+        <v>248.6</v>
       </c>
       <c r="B61">
-        <v>15139.28715995854</v>
+        <v>569671.1876102078</v>
       </c>
       <c r="C61">
-        <v>52507.69616413736</v>
+        <v>28650.18213279397</v>
       </c>
       <c r="D61">
-        <v>34156.47682296665</v>
+        <v>4203.734114291889</v>
       </c>
       <c r="E61">
-        <v>11992.50423828824</v>
+        <v>4402.872971637027</v>
       </c>
       <c r="F61">
-        <v>10953.05604366104</v>
+        <v>4692.715106104046</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>187.8</v>
+        <v>250.9</v>
       </c>
       <c r="B62">
-        <v>14308.6031437459</v>
+        <v>626900.4973825451</v>
       </c>
       <c r="C62">
-        <v>53121.89185735884</v>
+        <v>27913.23299478424</v>
       </c>
       <c r="D62">
-        <v>32196.3562314362</v>
+        <v>3398.175769980742</v>
       </c>
       <c r="E62">
-        <v>11231.65131642944</v>
+        <v>4467.264559717125</v>
       </c>
       <c r="F62">
-        <v>9724.54841297766</v>
+        <v>4366.342426726663</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>189.8</v>
+        <v>253.2</v>
       </c>
       <c r="B63">
-        <v>24281.92139051751</v>
+        <v>667829.8071548824</v>
       </c>
       <c r="C63">
-        <v>51446.40985146448</v>
+        <v>27616.28385677452</v>
       </c>
       <c r="D63">
-        <v>31684.51223880102</v>
+        <v>1432.617425669625</v>
       </c>
       <c r="E63">
-        <v>12624.38790611744</v>
+        <v>5311.656147797223</v>
       </c>
       <c r="F63">
-        <v>9073.237429774719</v>
+        <v>3619.96974734928</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>192.3</v>
+        <v>255.5</v>
       </c>
       <c r="B64">
-        <v>20948.569198982</v>
+        <v>697659.1169272196</v>
       </c>
       <c r="C64">
-        <v>52937.05734409653</v>
+        <v>23659.3347187648</v>
       </c>
       <c r="D64">
-        <v>30992.20724800705</v>
+        <v>3597.059081358486</v>
       </c>
       <c r="E64">
-        <v>11187.80864322744</v>
+        <v>4246.047735877321</v>
       </c>
       <c r="F64">
-        <v>9406.598700771045</v>
+        <v>3623.597067971899</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>194.6</v>
+        <v>257.8</v>
       </c>
       <c r="B65">
-        <v>23017.88518276936</v>
+        <v>689288.4266995565</v>
       </c>
       <c r="C65">
-        <v>52941.25303731801</v>
+        <v>25332.38558075507</v>
       </c>
       <c r="D65">
-        <v>31852.08665647659</v>
+        <v>2141.500737047369</v>
       </c>
       <c r="E65">
-        <v>11386.95572136865</v>
+        <v>5430.439323957418</v>
       </c>
       <c r="F65">
-        <v>9248.091070087661</v>
+        <v>3577.224388594519</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>197.2</v>
+        <v>260.4</v>
       </c>
       <c r="B66">
-        <v>25183.19890357247</v>
+        <v>705321.5594856768</v>
       </c>
       <c r="C66">
-        <v>52615.12642965532</v>
+        <v>25212.79090300496</v>
       </c>
       <c r="D66">
-        <v>29793.68946605085</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>11532.51328796304</v>
+        <v>2745.838510482748</v>
       </c>
       <c r="F66">
-        <v>8622.38679192384</v>
+        <v>2873.933533646173</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>199.5</v>
+        <v>262.7</v>
       </c>
       <c r="B67">
-        <v>27752.51488735982</v>
+        <v>716950.869258014</v>
       </c>
       <c r="C67">
-        <v>48049.32212287682</v>
+        <v>18775.84176499524</v>
       </c>
       <c r="D67">
-        <v>28653.56887452037</v>
+        <v>1694.441655688854</v>
       </c>
       <c r="E67">
-        <v>10801.66036610425</v>
+        <v>2740.230098562845</v>
       </c>
       <c r="F67">
-        <v>8763.879161240458</v>
+        <v>3107.560854268789</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>201.7</v>
+        <v>264.9</v>
       </c>
       <c r="B68">
-        <v>21323.16495880856</v>
+        <v>741078.9046924236</v>
       </c>
       <c r="C68">
-        <v>50860.29191639301</v>
+        <v>23463.10780689899</v>
       </c>
       <c r="D68">
-        <v>25829.54048262169</v>
+        <v>3810.864108956492</v>
       </c>
       <c r="E68">
-        <v>10648.67061476105</v>
+        <v>4520.952487161205</v>
       </c>
       <c r="F68">
-        <v>8764.437079717223</v>
+        <v>3020.160900081732</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>204</v>
+        <v>267.2</v>
       </c>
       <c r="B69">
-        <v>28292.48094259592</v>
+        <v>737408.2144647606</v>
       </c>
       <c r="C69">
-        <v>50774.48760961447</v>
+        <v>27036.15866888926</v>
       </c>
       <c r="D69">
-        <v>26179.41989109121</v>
+        <v>3315.305764645345</v>
       </c>
       <c r="E69">
-        <v>9937.817692902247</v>
+        <v>4855.344075241303</v>
       </c>
       <c r="F69">
-        <v>8895.92944903384</v>
+        <v>2683.788220704348</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>206.6</v>
+        <v>269.5</v>
       </c>
       <c r="B70">
-        <v>37757.79466339904</v>
+        <v>694437.5242370978</v>
       </c>
       <c r="C70">
-        <v>49078.3610019518</v>
+        <v>22089.20953087954</v>
       </c>
       <c r="D70">
-        <v>25831.02270066549</v>
+        <v>5669.747420334206</v>
       </c>
       <c r="E70">
-        <v>10573.37525949665</v>
+        <v>3599.7356633214</v>
       </c>
       <c r="F70">
-        <v>8620.225170870019</v>
+        <v>2387.415541326964</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>208.9</v>
+        <v>271.8</v>
       </c>
       <c r="B71">
-        <v>45927.11064718639</v>
+        <v>653166.834009435</v>
       </c>
       <c r="C71">
-        <v>49742.55669517328</v>
+        <v>22512.26039286982</v>
       </c>
       <c r="D71">
-        <v>25560.90210913501</v>
+        <v>3294.189076023089</v>
       </c>
       <c r="E71">
-        <v>9672.522337637853</v>
+        <v>3764.127251401498</v>
       </c>
       <c r="F71">
-        <v>7731.717540186633</v>
+        <v>2491.042861949584</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>211.2</v>
+        <v>274.4</v>
       </c>
       <c r="B72">
-        <v>60396.42663097376</v>
+        <v>608699.9667955553</v>
       </c>
       <c r="C72">
-        <v>45636.75238839478</v>
+        <v>18522.66571511971</v>
       </c>
       <c r="D72">
-        <v>24570.78151760456</v>
+        <v>5032.68833897572</v>
       </c>
       <c r="E72">
-        <v>9911.669415779055</v>
+        <v>2979.526437926826</v>
       </c>
       <c r="F72">
-        <v>8193.209909503254</v>
+        <v>1807.752007001241</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>213.5</v>
+        <v>276.6</v>
       </c>
       <c r="B73">
-        <v>76265.74261476111</v>
+        <v>532828.0022299646</v>
       </c>
       <c r="C73">
-        <v>48970.94808161623</v>
+        <v>17229.93175702346</v>
       </c>
       <c r="D73">
-        <v>25330.66092607408</v>
+        <v>4939.110792243329</v>
       </c>
       <c r="E73">
-        <v>10820.81649392025</v>
+        <v>1980.248826525178</v>
       </c>
       <c r="F73">
-        <v>7614.702278819869</v>
+        <v>1980.352052814179</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>215.7</v>
+        <v>278.9</v>
       </c>
       <c r="B74">
-        <v>96236.39268620986</v>
+        <v>473557.3120023019</v>
       </c>
       <c r="C74">
-        <v>47261.91787513243</v>
+        <v>14362.98261901374</v>
       </c>
       <c r="D74">
-        <v>23316.6325341754</v>
+        <v>3033.552447932212</v>
       </c>
       <c r="E74">
-        <v>10117.82674257706</v>
+        <v>2924.640414605276</v>
       </c>
       <c r="F74">
-        <v>8205.260197296635</v>
+        <v>1363.979373436796</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>218.4</v>
+        <v>281.2</v>
       </c>
       <c r="B75">
-        <v>121400.3723193515</v>
+        <v>434286.6217746391</v>
       </c>
       <c r="C75">
-        <v>45909.01716717504</v>
+        <v>16066.03348100401</v>
       </c>
       <c r="D75">
-        <v>23642.14314411789</v>
+        <v>2297.994103621066</v>
       </c>
       <c r="E75">
-        <v>10065.52113865585</v>
+        <v>2289.032002685374</v>
       </c>
       <c r="F75">
-        <v>7920.490369972667</v>
+        <v>1257.606694059416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>220.7</v>
+        <v>283.8</v>
       </c>
       <c r="B76">
-        <v>140269.6883031388</v>
+        <v>407019.7545607593</v>
       </c>
       <c r="C76">
-        <v>46193.21286039652</v>
+        <v>18356.4388032539</v>
       </c>
       <c r="D76">
-        <v>24132.02255258744</v>
+        <v>4576.493366573697</v>
       </c>
       <c r="E76">
-        <v>10184.66821679706</v>
+        <v>2294.431189210702</v>
       </c>
       <c r="F76">
-        <v>7591.982739289283</v>
+        <v>1254.315839111068</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>223</v>
+        <v>285.8</v>
       </c>
       <c r="B77">
-        <v>179839.0042869262</v>
+        <v>370745.2413193135</v>
       </c>
       <c r="C77">
-        <v>43957.40855361801</v>
+        <v>17602.13520498457</v>
       </c>
       <c r="D77">
-        <v>23441.90196105696</v>
+        <v>2956.877414998809</v>
       </c>
       <c r="E77">
-        <v>9063.815294938258</v>
+        <v>3277.815178845569</v>
       </c>
       <c r="F77">
-        <v>7903.475108605902</v>
+        <v>1684.861335304652</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>225.2</v>
+        <v>288.4</v>
       </c>
       <c r="B78">
-        <v>210709.6543583751</v>
+        <v>349578.3741054336</v>
       </c>
       <c r="C78">
-        <v>45458.37834713421</v>
+        <v>22292.54052723445</v>
       </c>
       <c r="D78">
-        <v>20967.87356915828</v>
+        <v>7525.376677951434</v>
       </c>
       <c r="E78">
-        <v>8340.82554359506</v>
+        <v>2573.214365370898</v>
       </c>
       <c r="F78">
-        <v>6814.033027082664</v>
+        <v>1381.570480356306</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>227.5</v>
+        <v>290.7</v>
       </c>
       <c r="B79">
-        <v>254578.9703421623</v>
+        <v>334307.6838777709</v>
       </c>
       <c r="C79">
-        <v>46412.57404035566</v>
+        <v>21005.59138922473</v>
       </c>
       <c r="D79">
-        <v>23027.7529776278</v>
+        <v>3609.818333640324</v>
       </c>
       <c r="E79">
-        <v>9819.972621736255</v>
+        <v>1997.605953450995</v>
       </c>
       <c r="F79">
-        <v>7445.525396399284</v>
+        <v>1415.197800978925</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>229.7</v>
+        <v>293</v>
       </c>
       <c r="B80">
-        <v>284949.6204136112</v>
+        <v>335936.993650108</v>
       </c>
       <c r="C80">
-        <v>44263.54383387189</v>
+        <v>22018.64225121501</v>
       </c>
       <c r="D80">
-        <v>20663.72458572912</v>
+        <v>5174.259989329184</v>
       </c>
       <c r="E80">
-        <v>8986.982870393056</v>
+        <v>561.9975415310932</v>
       </c>
       <c r="F80">
-        <v>7346.083314876048</v>
+        <v>1478.825121601541</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>232.4</v>
+        <v>295.3</v>
       </c>
       <c r="B81">
-        <v>319713.6000467528</v>
+        <v>323366.3034224452</v>
       </c>
       <c r="C81">
-        <v>43340.64312591448</v>
+        <v>24201.69311320529</v>
       </c>
       <c r="D81">
-        <v>19599.2351956716</v>
+        <v>5038.701645018038</v>
       </c>
       <c r="E81">
-        <v>9064.677266471859</v>
+        <v>3006.389129611191</v>
       </c>
       <c r="F81">
-        <v>6461.313487552078</v>
+        <v>1132.452442224162</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>234.7</v>
+        <v>297.9</v>
       </c>
       <c r="B82">
-        <v>346382.9160305401</v>
+        <v>297499.4362085654</v>
       </c>
       <c r="C82">
-        <v>41874.83881913595</v>
+        <v>21842.09843545518</v>
       </c>
       <c r="D82">
-        <v>17729.11460414115</v>
+        <v>3127.200907970699</v>
       </c>
       <c r="E82">
-        <v>7643.824344613062</v>
+        <v>1731.788316136527</v>
       </c>
       <c r="F82">
-        <v>5942.805856868697</v>
+        <v>1249.161587275818</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>236.9</v>
+        <v>299.6</v>
       </c>
       <c r="B83">
-        <v>397253.5661019889</v>
+        <v>295721.0999533364</v>
       </c>
       <c r="C83">
-        <v>40975.80861265214</v>
+        <v>28260.44037692626</v>
       </c>
       <c r="D83">
-        <v>20135.08621224244</v>
+        <v>6573.527349132033</v>
       </c>
       <c r="E83">
-        <v>8500.834593269856</v>
+        <v>1234.164707326163</v>
       </c>
       <c r="F83">
-        <v>6263.363775345462</v>
+        <v>1156.625259040362</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>239.2</v>
+        <v>302.5</v>
       </c>
       <c r="B84">
-        <v>437522.8820857762</v>
+        <v>290058.0557532398</v>
       </c>
       <c r="C84">
-        <v>39930.00430587363</v>
+        <v>25778.20015943573</v>
       </c>
       <c r="D84">
-        <v>20634.96562071199</v>
+        <v>5606.084219348406</v>
       </c>
       <c r="E84">
-        <v>9649.981671411066</v>
+        <v>2250.571492296723</v>
       </c>
       <c r="F84">
-        <v>6044.856144662079</v>
+        <v>976.4162285210514</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>241.5</v>
+        <v>304.7</v>
       </c>
       <c r="B85">
-        <v>479192.1980695635</v>
+        <v>271286.0911876493</v>
       </c>
       <c r="C85">
-        <v>41644.19999909512</v>
+        <v>24815.46620133948</v>
       </c>
       <c r="D85">
-        <v>18734.84502918151</v>
+        <v>2032.506672616044</v>
       </c>
       <c r="E85">
-        <v>9029.128749552261</v>
+        <v>1041.293880895074</v>
       </c>
       <c r="F85">
-        <v>5336.348513978698</v>
+        <v>659.0162743339943</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>243.7</v>
+        <v>307</v>
       </c>
       <c r="B86">
-        <v>513562.8481410123</v>
+        <v>260515.4009599864</v>
       </c>
       <c r="C86">
-        <v>39695.1697926113</v>
+        <v>27708.51706332976</v>
       </c>
       <c r="D86">
-        <v>19730.81663728283</v>
+        <v>3486.948328304898</v>
       </c>
       <c r="E86">
-        <v>7936.13899820907</v>
+        <v>1775.685468975172</v>
       </c>
       <c r="F86">
-        <v>5026.906432455464</v>
+        <v>1162.64359495661</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>246</v>
+        <v>309.6</v>
       </c>
       <c r="B87">
-        <v>546432.1641247998</v>
+        <v>247848.5337461066</v>
       </c>
       <c r="C87">
-        <v>39439.3654858328</v>
+        <v>26848.92238557964</v>
       </c>
       <c r="D87">
-        <v>15420.69604575235</v>
+        <v>3095.447591257536</v>
       </c>
       <c r="E87">
-        <v>8065.286076350263</v>
+        <v>591.0846555005005</v>
       </c>
       <c r="F87">
-        <v>5398.398801772079</v>
+        <v>609.3527400082658</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>248.6</v>
+        <v>311.9</v>
       </c>
       <c r="B88">
-        <v>574597.4778456028</v>
+        <v>237377.8435184438</v>
       </c>
       <c r="C88">
-        <v>37143.2388781701</v>
+        <v>28461.97324756992</v>
       </c>
       <c r="D88">
-        <v>15872.2988553266</v>
+        <v>4679.889246946412</v>
       </c>
       <c r="E88">
-        <v>7450.843642944666</v>
+        <v>1465.476243580606</v>
       </c>
       <c r="F88">
-        <v>4852.694523608257</v>
+        <v>752.9800606308836</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>250.9</v>
+        <v>314.2</v>
       </c>
       <c r="B89">
-        <v>631766.7938293902</v>
+        <v>230007.1532907809</v>
       </c>
       <c r="C89">
-        <v>36347.4345713916</v>
+        <v>26965.0241095602</v>
       </c>
       <c r="D89">
-        <v>14742.17826379616</v>
+        <v>3424.330902635273</v>
       </c>
       <c r="E89">
-        <v>7479.990721085869</v>
+        <v>269.8678316607034</v>
       </c>
       <c r="F89">
-        <v>4524.186892924877</v>
+        <v>756.6073812535033</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>253.2</v>
+        <v>316.4</v>
       </c>
       <c r="B90">
-        <v>672636.1098131775</v>
+        <v>229135.1887251904</v>
       </c>
       <c r="C90">
-        <v>35991.63026461308</v>
+        <v>23422.29015146395</v>
       </c>
       <c r="D90">
-        <v>12452.05767226571</v>
+        <v>4420.753355902874</v>
       </c>
       <c r="E90">
-        <v>8289.137799227065</v>
+        <v>1520.590220259056</v>
       </c>
       <c r="F90">
-        <v>3775.679262241493</v>
+        <v>859.2074270664389</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>255.5</v>
+        <v>318.7</v>
       </c>
       <c r="B91">
-        <v>702405.4257969649</v>
+        <v>230364.4984975277</v>
       </c>
       <c r="C91">
-        <v>31975.82595783454</v>
+        <v>21625.34101345422</v>
       </c>
       <c r="D91">
-        <v>14291.93708073523</v>
+        <v>4875.195011591764</v>
       </c>
       <c r="E91">
-        <v>7188.284877368273</v>
+        <v>1014.981808339153</v>
       </c>
       <c r="F91">
-        <v>3777.171631558112</v>
+        <v>712.8347476890585</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>257.8</v>
+        <v>321.3</v>
       </c>
       <c r="B92">
-        <v>693974.7417807522</v>
+        <v>218597.6312836479</v>
       </c>
       <c r="C92">
-        <v>33590.02165105603</v>
+        <v>21815.74633570411</v>
       </c>
       <c r="D92">
-        <v>12511.81648920478</v>
+        <v>4233.694274544396</v>
       </c>
       <c r="E92">
-        <v>8337.431955509468</v>
+        <v>1910.380994864474</v>
       </c>
       <c r="F92">
-        <v>3728.664000874732</v>
+        <v>1049.543892740715</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>260.4</v>
+        <v>323.6</v>
       </c>
       <c r="B93">
-        <v>709940.0555015552</v>
+        <v>216726.941055985</v>
       </c>
       <c r="C93">
-        <v>33403.89504339334</v>
+        <v>16068.79719769439</v>
       </c>
       <c r="D93">
-        <v>10003.41929877903</v>
+        <v>3458.135930233249</v>
       </c>
       <c r="E93">
-        <v>5612.989522103871</v>
+        <v>1314.772582944572</v>
       </c>
       <c r="F93">
-        <v>3022.959722710907</v>
+        <v>513.1712133633309</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>262.7</v>
+        <v>325.9</v>
       </c>
       <c r="B94">
-        <v>721509.3714853426</v>
+        <v>211456.2508283222</v>
       </c>
       <c r="C94">
-        <v>26908.09073661483</v>
+        <v>13041.84805968467</v>
       </c>
       <c r="D94">
-        <v>11373.29870724858</v>
+        <v>1822.577585922139</v>
       </c>
       <c r="E94">
-        <v>5572.136600245074</v>
+        <v>2169.164171024677</v>
       </c>
       <c r="F94">
-        <v>3254.452092027523</v>
+        <v>956.7985339859479</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>264.9</v>
+        <v>328.2</v>
       </c>
       <c r="B95">
-        <v>745580.0215567914</v>
+        <v>204985.5606006593</v>
       </c>
       <c r="C95">
-        <v>31539.06053013102</v>
+        <v>13124.89892167495</v>
       </c>
       <c r="D95">
-        <v>13179.27031534987</v>
+        <v>2827.019241610993</v>
       </c>
       <c r="E95">
-        <v>7319.146848901868</v>
+        <v>1303.555759104775</v>
       </c>
       <c r="F95">
-        <v>3165.010010504288</v>
+        <v>560.4258546085684</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>267.2</v>
+        <v>330.8</v>
       </c>
       <c r="B96">
-        <v>741849.3375405787</v>
+        <v>195218.6933867796</v>
       </c>
       <c r="C96">
-        <v>35053.25622335251</v>
+        <v>12085.30424392483</v>
       </c>
       <c r="D96">
-        <v>12359.14972381942</v>
+        <v>3755.518504563624</v>
       </c>
       <c r="E96">
-        <v>7618.293927043076</v>
+        <v>248.9549456301033</v>
       </c>
       <c r="F96">
-        <v>2826.502379820907</v>
+        <v>917.1349996602239</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>269.5</v>
+        <v>333.1</v>
       </c>
       <c r="B97">
-        <v>698818.6535243661</v>
+        <v>193248.0031591167</v>
       </c>
       <c r="C97">
-        <v>30047.45191657397</v>
+        <v>12408.35510591511</v>
       </c>
       <c r="D97">
-        <v>14389.02913228894</v>
+        <v>4359.960160252514</v>
       </c>
       <c r="E97">
-        <v>6327.441005184271</v>
+        <v>633.3465337102011</v>
       </c>
       <c r="F97">
-        <v>2527.994749137526</v>
+        <v>580.7623202828399</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>271.8</v>
+        <v>335.4</v>
       </c>
       <c r="B98">
-        <v>657487.9695081534</v>
+        <v>191377.3129314539</v>
       </c>
       <c r="C98">
-        <v>30411.64760979545</v>
+        <v>10431.40596790539</v>
       </c>
       <c r="D98">
-        <v>11688.90854075849</v>
+        <v>1674.401815941361</v>
       </c>
       <c r="E98">
-        <v>6456.588083325474</v>
+        <v>827.7381217902994</v>
       </c>
       <c r="F98">
-        <v>2629.487118454143</v>
+        <v>784.3896409054578</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>274.4</v>
+        <v>337.7</v>
       </c>
       <c r="B99">
-        <v>612953.2832289565</v>
+        <v>179006.6227037911</v>
       </c>
       <c r="C99">
-        <v>26355.52100213279</v>
+        <v>11614.45682989567</v>
       </c>
       <c r="D99">
-        <v>13060.51135033274</v>
+        <v>3478.843471630251</v>
       </c>
       <c r="E99">
-        <v>5632.145649919878</v>
+        <v>1102.129709870397</v>
       </c>
       <c r="F99">
-        <v>1943.782840290318</v>
+        <v>538.0169615280811</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>276.6</v>
+        <v>339.9</v>
       </c>
       <c r="B100">
-        <v>537023.9333004053</v>
+        <v>164434.6581382006</v>
       </c>
       <c r="C100">
-        <v>25006.49079564898</v>
+        <v>12141.72287179941</v>
       </c>
       <c r="D100">
-        <v>12656.48295843403</v>
+        <v>3535.265924897853</v>
       </c>
       <c r="E100">
-        <v>4599.155898576671</v>
+        <v>882.8520984687561</v>
       </c>
       <c r="F100">
-        <v>2114.340758767086</v>
+        <v>920.6170073410167</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>278.9</v>
+        <v>342.2</v>
       </c>
       <c r="B101">
-        <v>477693.2492841926</v>
+        <v>166063.9679105377</v>
       </c>
       <c r="C101">
-        <v>22080.68648887044</v>
+        <v>12104.77373378969</v>
       </c>
       <c r="D101">
-        <v>10426.36236690358</v>
+        <v>1539.707580586713</v>
       </c>
       <c r="E101">
-        <v>5508.302976717881</v>
+        <v>647.2436865488539</v>
       </c>
       <c r="F101">
-        <v>1495.833128083702</v>
+        <v>584.2443279636364</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>281.2</v>
+        <v>344.5</v>
       </c>
       <c r="B102">
-        <v>438362.5652679801</v>
+        <v>163193.2776828749</v>
       </c>
       <c r="C102">
-        <v>23724.88218209193</v>
+        <v>9847.82459577997</v>
       </c>
       <c r="D102">
-        <v>9366.241775373135</v>
+        <v>2854.149236275596</v>
       </c>
       <c r="E102">
-        <v>4837.450054859075</v>
+        <v>81.63527462894444</v>
       </c>
       <c r="F102">
-        <v>1387.325497400322</v>
+        <v>537.871648586256</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>283.8</v>
+        <v>347.1</v>
       </c>
       <c r="B103">
-        <v>411027.8789887832</v>
+        <v>167226.4104689951</v>
       </c>
       <c r="C103">
-        <v>25948.75557442927</v>
+        <v>14858.22991802986</v>
       </c>
       <c r="D103">
-        <v>11277.84458494739</v>
+        <v>3402.648499228228</v>
       </c>
       <c r="E103">
-        <v>4803.007621453478</v>
+        <v>1797.03446115428</v>
       </c>
       <c r="F103">
-        <v>1381.621219236496</v>
+        <v>264.5807936379088</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>285.8</v>
+        <v>349.4</v>
       </c>
       <c r="B104">
-        <v>374701.1972355548</v>
+        <v>152155.7202413323</v>
       </c>
       <c r="C104">
-        <v>25143.2735685349</v>
+        <v>10641.28078002014</v>
       </c>
       <c r="D104">
-        <v>9376.000592312175</v>
+        <v>3847.090154917089</v>
       </c>
       <c r="E104">
-        <v>5755.744211141478</v>
+        <v>681.4260492343778</v>
       </c>
       <c r="F104">
-        <v>1810.310236033557</v>
+        <v>8.20811426052569</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>288.4</v>
+        <v>351.7</v>
       </c>
       <c r="B105">
-        <v>353466.5109563578</v>
+        <v>153485.0300136694</v>
       </c>
       <c r="C105">
-        <v>29767.14696087221</v>
+        <v>13724.33164201041</v>
       </c>
       <c r="D105">
-        <v>13577.60340188646</v>
+        <v>4501.531810605964</v>
       </c>
       <c r="E105">
-        <v>5011.301777735884</v>
+        <v>1465.817637314476</v>
       </c>
       <c r="F105">
-        <v>1504.605957869736</v>
+        <v>331.8354348831463</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>290.7</v>
+        <v>354</v>
       </c>
       <c r="B106">
-        <v>338135.8269401452</v>
+        <v>162214.3397860067</v>
       </c>
       <c r="C106">
-        <v>28421.3426540937</v>
+        <v>12247.38250400069</v>
       </c>
       <c r="D106">
-        <v>9337.48281035601</v>
+        <v>3315.973466294825</v>
       </c>
       <c r="E106">
-        <v>4400.448855877084</v>
+        <v>720.2092253945734</v>
       </c>
       <c r="F106">
-        <v>1536.098327186352</v>
+        <v>1005.462755505766</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>293</v>
+        <v>356.2</v>
       </c>
       <c r="B107">
-        <v>339705.1429239325</v>
+        <v>148642.375220416</v>
       </c>
       <c r="C107">
-        <v>29375.53834731516</v>
+        <v>11574.64854590444</v>
       </c>
       <c r="D107">
-        <v>10577.36221882553</v>
+        <v>5392.395919562456</v>
       </c>
       <c r="E107">
-        <v>2929.595934018279</v>
+        <v>1940.931613992926</v>
       </c>
       <c r="F107">
-        <v>1597.590696502971</v>
+        <v>1058.062801318702</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>295.3</v>
+        <v>358.9</v>
       </c>
       <c r="B108">
-        <v>327074.4589077199</v>
+        <v>153276.7823444641</v>
       </c>
       <c r="C108">
-        <v>31499.73404053665</v>
+        <v>10970.83868824086</v>
       </c>
       <c r="D108">
-        <v>10117.24162729508</v>
+        <v>6008.914384936339</v>
       </c>
       <c r="E108">
-        <v>5338.743012159482</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1249.083065819586</v>
+        <v>535.7992211800356</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>297.9</v>
+        <v>360.8</v>
       </c>
       <c r="B109">
-        <v>301139.772628523</v>
+        <v>145400.9947650904</v>
       </c>
       <c r="C109">
-        <v>29073.60743287399</v>
+        <v>10160.75026988499</v>
       </c>
       <c r="D109">
-        <v>7838.844436869334</v>
+        <v>7081.279230940199</v>
       </c>
       <c r="E109">
-        <v>4024.300578753885</v>
+        <v>1499.714790153121</v>
       </c>
       <c r="F109">
-        <v>1363.378787655765</v>
+        <v>425.3174425639409</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>299.6</v>
+        <v>363.4</v>
       </c>
       <c r="B110">
-        <v>299317.0931382789</v>
+        <v>155134.1275512107</v>
       </c>
       <c r="C110">
-        <v>35448.44772786378</v>
+        <v>10871.15559213488</v>
       </c>
       <c r="D110">
-        <v>11045.27704312942</v>
+        <v>9139.778493892831</v>
       </c>
       <c r="E110">
-        <v>3500.626679988684</v>
+        <v>1595.113976678457</v>
       </c>
       <c r="F110">
-        <v>1269.264451933266</v>
+        <v>782.0265876155945</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>302.5</v>
+        <v>365.7</v>
       </c>
       <c r="B111">
-        <v>293578.4045960977</v>
+        <v>158663.4373235478</v>
       </c>
       <c r="C111">
-        <v>32891.99881931693</v>
+        <v>13024.20645412516</v>
       </c>
       <c r="D111">
-        <v>9668.603253808407</v>
+        <v>6984.220149581692</v>
       </c>
       <c r="E111">
-        <v>4472.594735036289</v>
+        <v>2519.505564758555</v>
       </c>
       <c r="F111">
-        <v>1086.363526289001</v>
+        <v>765.6539082382105</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>304.7</v>
+        <v>368</v>
       </c>
       <c r="B112">
-        <v>274749.0546675465</v>
+        <v>161592.747095885</v>
       </c>
       <c r="C112">
-        <v>31872.96861283313</v>
+        <v>13537.25731611544</v>
       </c>
       <c r="D112">
-        <v>5784.574861909696</v>
+        <v>7948.661805270574</v>
       </c>
       <c r="E112">
-        <v>3229.604983693083</v>
+        <v>2973.897152838652</v>
       </c>
       <c r="F112">
-        <v>766.921444765766</v>
+        <v>189.2812288608302</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>307</v>
+        <v>370.3</v>
       </c>
       <c r="B113">
-        <v>263918.3706513338</v>
+        <v>165022.0568682221</v>
       </c>
       <c r="C113">
-        <v>34707.16430605462</v>
+        <v>10330.30817810571</v>
       </c>
       <c r="D113">
-        <v>6914.454270379247</v>
+        <v>10123.10346095943</v>
       </c>
       <c r="E113">
-        <v>3928.752061834292</v>
+        <v>2378.28874091875</v>
       </c>
       <c r="F113">
-        <v>1268.413814082385</v>
+        <v>352.9085494834508</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>309.6</v>
+        <v>372.9</v>
       </c>
       <c r="B114">
-        <v>251183.6843721369</v>
+        <v>160655.1896543425</v>
       </c>
       <c r="C114">
-        <v>33781.03769839193</v>
+        <v>11670.7135003556</v>
       </c>
       <c r="D114">
-        <v>6156.057079953494</v>
+        <v>12241.60272391206</v>
       </c>
       <c r="E114">
-        <v>2704.309628428688</v>
+        <v>4283.687927444072</v>
       </c>
       <c r="F114">
-        <v>712.7095359185601</v>
+        <v>149.6176945351044</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>311.9</v>
+        <v>375.2</v>
       </c>
       <c r="B115">
-        <v>240653.0003559242</v>
+        <v>169884.4994266796</v>
       </c>
       <c r="C115">
-        <v>35335.23339161341</v>
+        <v>11153.76436234588</v>
       </c>
       <c r="D115">
-        <v>7415.936488423049</v>
+        <v>14416.04437960094</v>
       </c>
       <c r="E115">
-        <v>3543.456706569891</v>
+        <v>4048.079515524169</v>
       </c>
       <c r="F115">
-        <v>854.2019052351761</v>
+        <v>793.2450151577204</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>314.2</v>
+        <v>377.5</v>
       </c>
       <c r="B116">
-        <v>233222.3163397117</v>
+        <v>170913.8091990167</v>
       </c>
       <c r="C116">
-        <v>33779.4290848349</v>
+        <v>10586.81522433615</v>
       </c>
       <c r="D116">
-        <v>5835.8158968926</v>
+        <v>14770.4860352898</v>
       </c>
       <c r="E116">
-        <v>2312.603784711092</v>
+        <v>5062.471103604267</v>
       </c>
       <c r="F116">
-        <v>855.6942745517954</v>
+        <v>686.8723357803401</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>316.4</v>
+        <v>379.7</v>
       </c>
       <c r="B117">
-        <v>232292.9664111604</v>
+        <v>165441.8446334262</v>
       </c>
       <c r="C117">
-        <v>30180.3988783511</v>
+        <v>11664.08126623991</v>
       </c>
       <c r="D117">
-        <v>6521.787504993888</v>
+        <v>17466.9084885574</v>
       </c>
       <c r="E117">
-        <v>3529.614033367895</v>
+        <v>5943.193492202634</v>
       </c>
       <c r="F117">
-        <v>956.2521930285607</v>
+        <v>439.4723815932794</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>318.7</v>
+        <v>382</v>
       </c>
       <c r="B118">
-        <v>233462.2823949477</v>
+        <v>166871.1544057633</v>
       </c>
       <c r="C118">
-        <v>28324.59457157258</v>
+        <v>12747.13212823018</v>
       </c>
       <c r="D118">
-        <v>6651.66691346341</v>
+        <v>20621.35014424629</v>
       </c>
       <c r="E118">
-        <v>2988.761111509096</v>
+        <v>7897.585080282732</v>
       </c>
       <c r="F118">
-        <v>807.7445623451804</v>
+        <v>493.099702215899</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>321.3</v>
+        <v>384.6</v>
       </c>
       <c r="B119">
-        <v>221627.5961157508</v>
+        <v>171704.2871918837</v>
       </c>
       <c r="C119">
-        <v>28448.46796390989</v>
+        <v>12287.53745048007</v>
       </c>
       <c r="D119">
-        <v>5643.269723037691</v>
+        <v>24639.84940719893</v>
       </c>
       <c r="E119">
-        <v>3844.318678103492</v>
+        <v>9132.984266808053</v>
       </c>
       <c r="F119">
-        <v>1142.040284181355</v>
+        <v>569.8088472675554</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>323.6</v>
+        <v>386.9</v>
       </c>
       <c r="B120">
-        <v>219696.9120995382</v>
+        <v>173733.5969642207</v>
       </c>
       <c r="C120">
-        <v>22642.66365713135</v>
+        <v>11030.58831247035</v>
       </c>
       <c r="D120">
-        <v>4543.149131507209</v>
+        <v>26524.29106288778</v>
       </c>
       <c r="E120">
-        <v>3213.465756244686</v>
+        <v>13327.37585488815</v>
       </c>
       <c r="F120">
-        <v>603.5326534979745</v>
+        <v>1103.436167890172</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>325.9</v>
+        <v>389.5</v>
       </c>
       <c r="B121">
-        <v>214366.2280833255</v>
+        <v>188066.7297503411</v>
       </c>
       <c r="C121">
-        <v>19556.85935035284</v>
+        <v>11380.99363472024</v>
       </c>
       <c r="D121">
-        <v>2583.028539976764</v>
+        <v>32892.79032584042</v>
       </c>
       <c r="E121">
-        <v>4032.612834385896</v>
+        <v>15292.77504141349</v>
       </c>
       <c r="F121">
-        <v>1045.025022814591</v>
+        <v>650.1453129418251</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>328.2</v>
+        <v>391.5</v>
       </c>
       <c r="B122">
-        <v>207835.5440671129</v>
+        <v>195592.216508895</v>
       </c>
       <c r="C122">
-        <v>19581.05504357433</v>
+        <v>9956.690036450902</v>
       </c>
       <c r="D122">
-        <v>3262.907948446285</v>
+        <v>38963.17437426552</v>
       </c>
       <c r="E122">
-        <v>3131.759912527091</v>
+        <v>19136.15903104834</v>
       </c>
       <c r="F122">
-        <v>646.5173921312098</v>
+        <v>180.6908091354089</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>330.8</v>
+        <v>394</v>
       </c>
       <c r="B123">
-        <v>198000.8577879159</v>
+        <v>209124.0749570877</v>
       </c>
       <c r="C123">
-        <v>18474.92843591166</v>
+        <v>9291.310538614263</v>
       </c>
       <c r="D123">
-        <v>3824.510758020566</v>
+        <v>42933.65443479691</v>
       </c>
       <c r="E123">
-        <v>2037.317479121494</v>
+        <v>23497.88901809193</v>
       </c>
       <c r="F123">
-        <v>1000.813113967385</v>
+        <v>46.37267937738397</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>333.1</v>
+        <v>396.3</v>
       </c>
       <c r="B124">
-        <v>195970.1737717033</v>
+        <v>218553.3847294248</v>
       </c>
       <c r="C124">
-        <v>18739.12412913312</v>
+        <v>10754.36140060454</v>
       </c>
       <c r="D124">
-        <v>4104.390166490084</v>
+        <v>51598.09609048576</v>
       </c>
       <c r="E124">
-        <v>2386.464557262696</v>
+        <v>30132.28060617203</v>
       </c>
       <c r="F124">
-        <v>662.3054832840039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>335.4</v>
+        <v>398.6</v>
       </c>
       <c r="B125">
-        <v>194039.4897554906</v>
+        <v>247082.694501762</v>
       </c>
       <c r="C125">
-        <v>16703.31982235461</v>
+        <v>10387.41226259482</v>
       </c>
       <c r="D125">
-        <v>1094.269574959639</v>
+        <v>60872.53774617465</v>
       </c>
       <c r="E125">
-        <v>2545.611635403899</v>
+        <v>37256.67219425213</v>
       </c>
       <c r="F125">
-        <v>863.7978526006241</v>
+        <v>353.6273206226242</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>337.7</v>
+        <v>401.2</v>
       </c>
       <c r="B126">
-        <v>181608.805739278</v>
+        <v>267315.8272878823</v>
       </c>
       <c r="C126">
-        <v>17827.51551557607</v>
+        <v>12327.81758484471</v>
       </c>
       <c r="D126">
-        <v>2574.148983429161</v>
+        <v>68481.03700912726</v>
       </c>
       <c r="E126">
-        <v>2784.7587135451</v>
+        <v>44032.07138077747</v>
       </c>
       <c r="F126">
-        <v>615.2902219172397</v>
+        <v>510.336465674277</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>339.9</v>
+        <v>403.5</v>
       </c>
       <c r="B127">
-        <v>166979.4558107267</v>
+        <v>302745.1370602195</v>
       </c>
       <c r="C127">
-        <v>18298.48530909229</v>
+        <v>10250.86844683499</v>
       </c>
       <c r="D127">
-        <v>2320.120591530478</v>
+        <v>78225.47866481612</v>
       </c>
       <c r="E127">
-        <v>2531.768962201902</v>
+        <v>52716.46296885757</v>
       </c>
       <c r="F127">
-        <v>995.848140394005</v>
+        <v>863.963786296893</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>342.2</v>
+        <v>405.8</v>
       </c>
       <c r="B128">
-        <v>168548.7717945141</v>
+        <v>348574.4468325566</v>
       </c>
       <c r="C128">
-        <v>18202.68100231375</v>
+        <v>10693.91930882526</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>89579.92032050501</v>
       </c>
       <c r="E128">
-        <v>2260.916040343104</v>
+        <v>61010.85455693767</v>
       </c>
       <c r="F128">
-        <v>657.3405097106242</v>
+        <v>317.5911069195126</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>344.5</v>
+        <v>408</v>
       </c>
       <c r="B129">
-        <v>165618.0877783014</v>
+        <v>375802.4822669661</v>
       </c>
       <c r="C129">
-        <v>15886.87669553524</v>
+        <v>7541.185350729011</v>
       </c>
       <c r="D129">
-        <v>989.879408469551</v>
+        <v>104746.3427737726</v>
       </c>
       <c r="E129">
-        <v>1660.063118484299</v>
+        <v>72911.57694553601</v>
       </c>
       <c r="F129">
-        <v>608.8328790272435</v>
+        <v>510.1911527324528</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>347.1</v>
+        <v>410.3</v>
       </c>
       <c r="B130">
-        <v>169583.4014991046</v>
+        <v>434131.7920393032</v>
       </c>
       <c r="C130">
-        <v>20830.75008787255</v>
+        <v>10194.23621271929</v>
       </c>
       <c r="D130">
-        <v>1171.482218043799</v>
+        <v>121640.7844294615</v>
       </c>
       <c r="E130">
-        <v>3335.620685078702</v>
+        <v>87125.96853361612</v>
       </c>
       <c r="F130">
-        <v>333.1286008634183</v>
+        <v>863.8184733550688</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>349.4</v>
+        <v>412.9</v>
       </c>
       <c r="B131">
-        <v>154452.7174828919</v>
+        <v>520064.9248254235</v>
       </c>
       <c r="C131">
-        <v>16554.94578109404</v>
+        <v>11304.64153496918</v>
       </c>
       <c r="D131">
-        <v>1291.361626513353</v>
+        <v>140869.2836924141</v>
       </c>
       <c r="E131">
-        <v>2184.767763219904</v>
+        <v>108181.3677201415</v>
       </c>
       <c r="F131">
-        <v>74.62097018003487</v>
+        <v>720.5276184067252</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>351.7</v>
+        <v>415.2</v>
       </c>
       <c r="B132">
-        <v>155722.0334666793</v>
+        <v>607494.2345977606</v>
       </c>
       <c r="C132">
-        <v>19579.14147431553</v>
+        <v>11787.69239695945</v>
       </c>
       <c r="D132">
-        <v>1621.241034982875</v>
+        <v>165283.725348103</v>
       </c>
       <c r="E132">
-        <v>2933.914841361106</v>
+        <v>135975.7593082215</v>
       </c>
       <c r="F132">
-        <v>396.1133394966541</v>
+        <v>444.1549390293449</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>354</v>
+        <v>417.5</v>
       </c>
       <c r="B133">
-        <v>164391.3494504666</v>
+        <v>748423.5443700978</v>
       </c>
       <c r="C133">
-        <v>18043.33716753701</v>
+        <v>11810.74325894973</v>
       </c>
       <c r="D133">
-        <v>111.1204434524261</v>
+        <v>195778.1670037919</v>
       </c>
       <c r="E133">
-        <v>2153.061919502308</v>
+        <v>186610.1508963017</v>
       </c>
       <c r="F133">
-        <v>1067.605708813273</v>
+        <v>777.7822596519609</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>356.2</v>
+        <v>419.7</v>
       </c>
       <c r="B134">
-        <v>150761.9995219154</v>
+        <v>962951.5798045073</v>
       </c>
       <c r="C134">
-        <v>17314.3069610532</v>
+        <v>12188.00930085348</v>
       </c>
       <c r="D134">
-        <v>1877.092051553715</v>
+        <v>239904.5894570595</v>
       </c>
       <c r="E134">
-        <v>3340.072168159103</v>
+        <v>275470.8732849</v>
       </c>
       <c r="F134">
-        <v>1118.163627290039</v>
+        <v>1280.382305464901</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>358.9</v>
+        <v>422</v>
       </c>
       <c r="B135">
-        <v>155325.9791550571</v>
+        <v>1356880.889576845</v>
       </c>
       <c r="C135">
-        <v>16641.40625309581</v>
+        <v>13031.06016284376</v>
       </c>
       <c r="D135">
-        <v>2112.602661496232</v>
+        <v>288449.0311127484</v>
       </c>
       <c r="E135">
-        <v>1357.766564237913</v>
+        <v>487865.2648729801</v>
       </c>
       <c r="F135">
-        <v>593.3937999660679</v>
+        <v>1554.009626087521</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>360.8</v>
+        <v>424.6</v>
       </c>
       <c r="B136">
-        <v>147400.6314894901</v>
+        <v>2189614.022362964</v>
       </c>
       <c r="C136">
-        <v>15782.69834749615</v>
+        <v>13141.46548509365</v>
       </c>
       <c r="D136">
-        <v>2916.850868492784</v>
+        <v>376277.530375701</v>
       </c>
       <c r="E136">
-        <v>2828.366324441506</v>
+        <v>1390300.664059505</v>
       </c>
       <c r="F136">
-        <v>481.1483659232736</v>
+        <v>2920.718771139173</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>363.4</v>
+        <v>426.8</v>
       </c>
       <c r="B137">
-        <v>157065.9452102932</v>
+        <v>4374942.057797374</v>
       </c>
       <c r="C137">
-        <v>16426.57173983349</v>
+        <v>16708.73152699737</v>
       </c>
       <c r="D137">
-        <v>4608.453678067068</v>
+        <v>462303.9528289685</v>
       </c>
       <c r="E137">
-        <v>2883.92389103591</v>
+        <v>1168871.386448103</v>
       </c>
       <c r="F137">
-        <v>835.4440877594488</v>
+        <v>2503.318816952115</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>365.7</v>
+        <v>429.1</v>
       </c>
       <c r="B138">
-        <v>160535.2611940806</v>
+        <v>3296671.367569711</v>
       </c>
       <c r="C138">
-        <v>18520.76743305495</v>
+        <v>17921.78238898764</v>
       </c>
       <c r="D138">
-        <v>2128.33308653659</v>
+        <v>460028.3944846574</v>
       </c>
       <c r="E138">
-        <v>3773.070969177112</v>
+        <v>581875.7780361839</v>
       </c>
       <c r="F138">
-        <v>816.9364570760686</v>
+        <v>1906.946137574731</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>368</v>
+        <v>431.4</v>
       </c>
       <c r="B139">
-        <v>163404.5771778679</v>
+        <v>2020900.677342048</v>
       </c>
       <c r="C139">
-        <v>18974.96312627643</v>
+        <v>16774.83325097795</v>
       </c>
       <c r="D139">
-        <v>2768.212495006141</v>
+        <v>442302.8361403463</v>
       </c>
       <c r="E139">
-        <v>4192.218047318306</v>
+        <v>269030.1696242641</v>
       </c>
       <c r="F139">
-        <v>238.4288263926842</v>
+        <v>1850.573458197349</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>370.3</v>
+        <v>433.6</v>
       </c>
       <c r="B140">
-        <v>166773.8931616553</v>
+        <v>1243228.712776458</v>
       </c>
       <c r="C140">
-        <v>15709.15881949789</v>
+        <v>16232.0992928817</v>
       </c>
       <c r="D140">
-        <v>4618.091903475663</v>
+        <v>409979.2585936139</v>
       </c>
       <c r="E140">
-        <v>3561.365125459515</v>
+        <v>168420.8920128623</v>
       </c>
       <c r="F140">
-        <v>399.9211957093034</v>
+        <v>603.1735040102913</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>372.9</v>
+        <v>436.2</v>
       </c>
       <c r="B141">
-        <v>162339.2068824583</v>
+        <v>946861.8455625782</v>
       </c>
       <c r="C141">
-        <v>16983.03221183523</v>
+        <v>13922.50461513156</v>
       </c>
       <c r="D141">
-        <v>6369.694713049943</v>
+        <v>374367.7578565665</v>
       </c>
       <c r="E141">
-        <v>5426.922692053911</v>
+        <v>128256.2911993877</v>
       </c>
       <c r="F141">
-        <v>194.2169175454824</v>
+        <v>569.882649061944</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>375.2</v>
+        <v>438.5</v>
       </c>
       <c r="B142">
-        <v>171508.5228662457</v>
+        <v>779691.1553349152</v>
       </c>
       <c r="C142">
-        <v>16407.22790505672</v>
+        <v>14435.55547712184</v>
       </c>
       <c r="D142">
-        <v>8219.574121519465</v>
+        <v>342122.1995122554</v>
       </c>
       <c r="E142">
-        <v>5156.069770195114</v>
+        <v>107180.6827874677</v>
       </c>
       <c r="F142">
-        <v>835.709286862098</v>
+        <v>803.50996968456</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>377.5</v>
+        <v>440.8</v>
       </c>
       <c r="B143">
-        <v>172477.838850033</v>
+        <v>706520.4651072525</v>
       </c>
       <c r="C143">
-        <v>15781.42359827821</v>
+        <v>14568.60633911211</v>
       </c>
       <c r="D143">
-        <v>8249.453529989016</v>
+        <v>305746.6411679443</v>
       </c>
       <c r="E143">
-        <v>6135.216848336315</v>
+        <v>93215.07437554786</v>
       </c>
       <c r="F143">
-        <v>727.2016561787173</v>
+        <v>837.1372903071797</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>379.7</v>
+        <v>443.1</v>
       </c>
       <c r="B144">
-        <v>166948.4889214818</v>
+        <v>649549.7748795897</v>
       </c>
       <c r="C144">
-        <v>16802.3933917944</v>
+        <v>14251.65720110242</v>
       </c>
       <c r="D144">
-        <v>10635.4251380903</v>
+        <v>270001.0828236332</v>
       </c>
       <c r="E144">
-        <v>6982.227096993118</v>
+        <v>83699.46596362792</v>
       </c>
       <c r="F144">
-        <v>477.7595746554825</v>
+        <v>600.7646109297993</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>382</v>
+        <v>445.4</v>
       </c>
       <c r="B145">
-        <v>168317.8049052691</v>
+        <v>606379.0846519269</v>
       </c>
       <c r="C145">
-        <v>17826.58908501586</v>
+        <v>13454.7080630927</v>
       </c>
       <c r="D145">
-        <v>13465.30454655986</v>
+        <v>237355.5244793221</v>
       </c>
       <c r="E145">
-        <v>8901.374175134319</v>
+        <v>74973.85755170806</v>
       </c>
       <c r="F145">
-        <v>529.2519439720986</v>
+        <v>664.3919315524172</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>384.6</v>
+        <v>448</v>
       </c>
       <c r="B146">
-        <v>173083.1186260722</v>
+        <v>568912.2174380469</v>
       </c>
       <c r="C146">
-        <v>17300.4624773532</v>
+        <v>13105.11338534256</v>
       </c>
       <c r="D146">
-        <v>17116.90735613411</v>
+        <v>209404.0237422747</v>
       </c>
       <c r="E146">
-        <v>10096.93174172871</v>
+        <v>69689.25673823337</v>
       </c>
       <c r="F146">
-        <v>603.5476658082771</v>
+        <v>541.1010766040699</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>386.9</v>
+        <v>450.3</v>
       </c>
       <c r="B147">
-        <v>175052.4346098595</v>
+        <v>535441.5272103841</v>
       </c>
       <c r="C147">
-        <v>15984.65817057469</v>
+        <v>12838.16424733283</v>
       </c>
       <c r="D147">
-        <v>18676.78676460366</v>
+        <v>177688.4653979636</v>
       </c>
       <c r="E147">
-        <v>14256.07881986992</v>
+        <v>63493.64832631348</v>
       </c>
       <c r="F147">
-        <v>1135.040035124893</v>
+        <v>284.7283972266896</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>389.5</v>
+        <v>452.5</v>
       </c>
       <c r="B148">
-        <v>189317.7483306627</v>
+        <v>491269.5626447937</v>
       </c>
       <c r="C148">
-        <v>16268.531562912</v>
+        <v>13365.43028923658</v>
       </c>
       <c r="D148">
-        <v>24678.38957417791</v>
+        <v>156204.8878512312</v>
       </c>
       <c r="E148">
-        <v>16181.63638646432</v>
+        <v>60314.37071491183</v>
       </c>
       <c r="F148">
-        <v>679.3357569610716</v>
+        <v>497.3284430396297</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>391.5</v>
+        <v>454.8</v>
       </c>
       <c r="B149">
-        <v>196791.0665774342</v>
+        <v>445198.8724171309</v>
       </c>
       <c r="C149">
-        <v>14793.04955701763</v>
+        <v>12858.48115122686</v>
       </c>
       <c r="D149">
-        <v>30466.54558154273</v>
+        <v>137629.3295069201</v>
       </c>
       <c r="E149">
-        <v>19994.37297615231</v>
+        <v>55278.76230299193</v>
       </c>
       <c r="F149">
-        <v>208.0247737581317</v>
+        <v>840.9557636622458</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>394</v>
+        <v>457.1</v>
       </c>
       <c r="B150">
-        <v>210257.7143858988</v>
+        <v>411528.1821894681</v>
       </c>
       <c r="C150">
-        <v>14063.69704964968</v>
+        <v>13071.53201321714</v>
       </c>
       <c r="D150">
-        <v>34084.24059074875</v>
+        <v>127843.7711626089</v>
       </c>
       <c r="E150">
-        <v>24317.79371326232</v>
+        <v>53683.15389107203</v>
       </c>
       <c r="F150">
-        <v>71.38604475445618</v>
+        <v>194.5830842848654</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>396.3</v>
+        <v>459.3</v>
       </c>
       <c r="B151">
-        <v>219627.0303696861</v>
+        <v>378856.2176238775</v>
       </c>
       <c r="C151">
-        <v>15467.89274287114</v>
+        <v>10588.79805512089</v>
       </c>
       <c r="D151">
-        <v>42424.11999921827</v>
+        <v>115050.1936158765</v>
       </c>
       <c r="E151">
-        <v>30916.94079140352</v>
+        <v>49543.87627967037</v>
       </c>
       <c r="F151">
-        <v>22.8784140710718</v>
+        <v>747.1831300978038</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>398.6</v>
+        <v>461.6</v>
       </c>
       <c r="B152">
-        <v>248096.3463534735</v>
+        <v>366185.5273962147</v>
       </c>
       <c r="C152">
-        <v>15042.08843609262</v>
+        <v>13491.84891711117</v>
       </c>
       <c r="D152">
-        <v>51373.99940768782</v>
+        <v>109444.6352715654</v>
       </c>
       <c r="E152">
-        <v>38006.08786954473</v>
+        <v>48338.26786775047</v>
       </c>
       <c r="F152">
-        <v>374.3707833876911</v>
+        <v>890.8104507204198</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>401.2</v>
+        <v>464.2</v>
       </c>
       <c r="B153">
-        <v>268261.6600742766</v>
+        <v>342018.6601823349</v>
       </c>
       <c r="C153">
-        <v>16915.96182842996</v>
+        <v>12192.25423936106</v>
       </c>
       <c r="D153">
-        <v>58615.60221726207</v>
+        <v>104063.1345345181</v>
       </c>
       <c r="E153">
-        <v>44741.64543613913</v>
+        <v>46953.66705427581</v>
       </c>
       <c r="F153">
-        <v>528.6665052238668</v>
+        <v>417.519595772078</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>403.5</v>
+        <v>466.5</v>
       </c>
       <c r="B154">
-        <v>303630.976058064</v>
+        <v>323847.9699546722</v>
       </c>
       <c r="C154">
-        <v>14780.15752165142</v>
+        <v>11355.30510135133</v>
       </c>
       <c r="D154">
-        <v>68035.48162573163</v>
+        <v>101107.5761902069</v>
       </c>
       <c r="E154">
-        <v>53390.79251428032</v>
+        <v>45358.05864235591</v>
       </c>
       <c r="F154">
-        <v>880.1588745404861</v>
+        <v>541.1469163946977</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>405.8</v>
+        <v>468.8</v>
       </c>
       <c r="B155">
-        <v>349400.2920418513</v>
+        <v>319777.2797270092</v>
       </c>
       <c r="C155">
-        <v>15164.35321487291</v>
+        <v>12908.35596334164</v>
       </c>
       <c r="D155">
-        <v>79065.36103420114</v>
+        <v>95892.01784589578</v>
       </c>
       <c r="E155">
-        <v>61649.93959242154</v>
+        <v>42792.45023043601</v>
       </c>
       <c r="F155">
-        <v>331.6512438571017</v>
+        <v>894.7742370173137</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="B156">
-        <v>376570.9421133001</v>
+        <v>305905.3151614188</v>
       </c>
       <c r="C156">
-        <v>11955.3230083891</v>
+        <v>10415.62200524536</v>
       </c>
       <c r="D156">
-        <v>93921.33264230246</v>
+        <v>91708.4402991634</v>
       </c>
       <c r="E156">
-        <v>73516.94984107831</v>
+        <v>39603.17261903435</v>
       </c>
       <c r="F156">
-        <v>522.209162333867</v>
+        <v>827.374282830252</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>410.3</v>
+        <v>473.3</v>
       </c>
       <c r="B157">
-        <v>434840.2580970874</v>
+        <v>300834.6249337558</v>
       </c>
       <c r="C157">
-        <v>14549.51870161059</v>
+        <v>10578.67286723563</v>
       </c>
       <c r="D157">
-        <v>110491.212050772</v>
+        <v>89922.88195485226</v>
       </c>
       <c r="E157">
-        <v>87696.09691921953</v>
+        <v>38877.56420711445</v>
       </c>
       <c r="F157">
-        <v>873.7015316504862</v>
+        <v>611.0016034528735</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>412.9</v>
+        <v>475.6</v>
       </c>
       <c r="B158">
-        <v>520705.5718178906</v>
+        <v>288863.9347060931</v>
       </c>
       <c r="C158">
-        <v>15593.3920939479</v>
+        <v>13431.72372922591</v>
       </c>
       <c r="D158">
-        <v>129352.8148603463</v>
+        <v>87147.32361054115</v>
       </c>
       <c r="E158">
-        <v>108711.654485814</v>
+        <v>38001.95579519455</v>
       </c>
       <c r="F158">
-        <v>727.9972534866615</v>
+        <v>714.6289240754895</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>415.2</v>
+        <v>478.2</v>
       </c>
       <c r="B159">
-        <v>608074.8878016777</v>
+        <v>264397.0674922133</v>
       </c>
       <c r="C159">
-        <v>16017.58778716939</v>
+        <v>10362.1290514758</v>
       </c>
       <c r="D159">
-        <v>153442.6942688158</v>
+        <v>85275.82287349377</v>
       </c>
       <c r="E159">
-        <v>136470.8015639551</v>
+        <v>35637.35498171989</v>
       </c>
       <c r="F159">
-        <v>449.4896228032808</v>
+        <v>281.3380691271423</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>417.5</v>
+        <v>480.5</v>
       </c>
       <c r="B160">
-        <v>748944.2037854652</v>
+        <v>258426.3772645505</v>
       </c>
       <c r="C160">
-        <v>15981.78348039088</v>
+        <v>12875.17991346608</v>
       </c>
       <c r="D160">
-        <v>183612.5736772853</v>
+        <v>83270.26452918263</v>
       </c>
       <c r="E160">
-        <v>187069.9486420963</v>
+        <v>34351.74656979997</v>
       </c>
       <c r="F160">
-        <v>780.9819921198969</v>
+        <v>914.9653897497656</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>419.7</v>
+        <v>482.8</v>
       </c>
       <c r="B161">
-        <v>963414.853856914</v>
+        <v>233055.6870368876</v>
       </c>
       <c r="C161">
-        <v>16302.75327390707</v>
+        <v>6478.230775456352</v>
       </c>
       <c r="D161">
-        <v>227428.5452853866</v>
+        <v>78114.70618487152</v>
       </c>
       <c r="E161">
-        <v>275896.9588907531</v>
+        <v>33346.13815788006</v>
       </c>
       <c r="F161">
-        <v>1281.539910596662</v>
+        <v>538.5927103723816</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="B162">
-        <v>1357284.169840701</v>
+        <v>241883.7224712971</v>
       </c>
       <c r="C162">
-        <v>17086.94896712853</v>
+        <v>10875.49681736011</v>
       </c>
       <c r="D162">
-        <v>275648.4246938562</v>
+        <v>77371.12863813911</v>
       </c>
       <c r="E162">
-        <v>488256.1059688943</v>
+        <v>31376.86054647843</v>
       </c>
       <c r="F162">
-        <v>1553.032279913281</v>
+        <v>691.1927561853217</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>424.6</v>
+        <v>487.3</v>
       </c>
       <c r="B163">
-        <v>2189949.483561504</v>
+        <v>220113.0322436342</v>
       </c>
       <c r="C163">
-        <v>17130.82235946587</v>
+        <v>9028.547679350384</v>
       </c>
       <c r="D163">
-        <v>363110.0275034305</v>
+        <v>78565.57029382797</v>
       </c>
       <c r="E163">
-        <v>1390651.663535489</v>
+        <v>29471.25213455853</v>
       </c>
       <c r="F163">
-        <v>2917.32800174946</v>
+        <v>714.8200768079414</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>426.8</v>
+        <v>489.9</v>
       </c>
       <c r="B164">
-        <v>4375220.133632954</v>
+        <v>212546.1650297546</v>
       </c>
       <c r="C164">
-        <v>20641.79215298206</v>
+        <v>12188.95300160028</v>
       </c>
       <c r="D164">
-        <v>448825.9991115318</v>
+        <v>72914.0695567806</v>
       </c>
       <c r="E164">
-        <v>1169188.673784145</v>
+        <v>26146.65132108385</v>
       </c>
       <c r="F164">
-        <v>2497.885920226225</v>
+        <v>331.5292218595941</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>429.1</v>
+        <v>491.8</v>
       </c>
       <c r="B165">
-        <v>3296889.44961674</v>
+        <v>206970.3774503808</v>
       </c>
       <c r="C165">
-        <v>21795.98784620352</v>
+        <v>8958.864583244409</v>
       </c>
       <c r="D165">
-        <v>446225.8785200013</v>
+        <v>69266.43440278448</v>
       </c>
       <c r="E165">
-        <v>582157.8208622868</v>
+        <v>26056.36611123698</v>
       </c>
       <c r="F165">
-        <v>1899.378289542841</v>
+        <v>431.0474432434958</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>431.4</v>
+        <v>494.4</v>
       </c>
       <c r="B166">
-        <v>2021058.765600528</v>
+        <v>184603.5102365012</v>
       </c>
       <c r="C166">
-        <v>20590.18353942501</v>
+        <v>9709.2699054943</v>
       </c>
       <c r="D166">
-        <v>428175.7579284708</v>
+        <v>70194.9336657371</v>
       </c>
       <c r="E166">
-        <v>269276.9679404279</v>
+        <v>25071.76529776231</v>
       </c>
       <c r="F166">
-        <v>1840.870658859457</v>
+        <v>767.756588295154</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>433.6</v>
+        <v>497</v>
       </c>
       <c r="B167">
-        <v>1243329.415671977</v>
+        <v>186736.6430226214</v>
       </c>
       <c r="C167">
-        <v>19991.15333294123</v>
+        <v>7229.675227744185</v>
       </c>
       <c r="D167">
-        <v>395541.7295365722</v>
+        <v>68873.43292868973</v>
       </c>
       <c r="E167">
-        <v>168633.9781890847</v>
+        <v>23357.16448428764</v>
       </c>
       <c r="F167">
-        <v>591.4285773362253</v>
+        <v>374.4657333468049</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>436.2</v>
+        <v>499.3</v>
       </c>
       <c r="B168">
-        <v>946894.7293927796</v>
+        <v>176465.9527949586</v>
       </c>
       <c r="C168">
-        <v>17615.02672527854</v>
+        <v>10792.72608973446</v>
       </c>
       <c r="D168">
-        <v>359563.3323461465</v>
+        <v>68347.87458437859</v>
       </c>
       <c r="E168">
-        <v>128429.5357556791</v>
+        <v>22471.55607236773</v>
       </c>
       <c r="F168">
-        <v>555.7242991724006</v>
+        <v>748.0930539694264</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>438.5</v>
+        <v>501.6</v>
       </c>
       <c r="B169">
-        <v>779664.0453765671</v>
+        <v>172195.2625672958</v>
       </c>
       <c r="C169">
-        <v>18069.22241850003</v>
+        <v>11085.77695172474</v>
       </c>
       <c r="D169">
-        <v>326993.2117546159</v>
+        <v>66282.31624006748</v>
       </c>
       <c r="E169">
-        <v>107318.6828338203</v>
+        <v>22795.94766044783</v>
       </c>
       <c r="F169">
-        <v>787.2166684890199</v>
+        <v>721.720374592046</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>440.8</v>
+        <v>503.8</v>
       </c>
       <c r="B170">
-        <v>706433.3613603543</v>
+        <v>155623.2980017051</v>
       </c>
       <c r="C170">
-        <v>18143.41811172149</v>
+        <v>8023.042993628493</v>
       </c>
       <c r="D170">
-        <v>290293.0911630855</v>
+        <v>65928.73869333509</v>
       </c>
       <c r="E170">
-        <v>93317.82991196153</v>
+        <v>21136.67004904618</v>
       </c>
       <c r="F170">
-        <v>818.7090378056359</v>
+        <v>654.3204204049807</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>443.1</v>
+        <v>506.1</v>
       </c>
       <c r="B171">
-        <v>649402.6773441418</v>
+        <v>152252.6077740423</v>
       </c>
       <c r="C171">
-        <v>17767.61380494297</v>
+        <v>10146.09385561877</v>
       </c>
       <c r="D171">
-        <v>254222.970571555</v>
+        <v>63073.18034902396</v>
       </c>
       <c r="E171">
-        <v>83766.97699010275</v>
+        <v>19281.06163712628</v>
       </c>
       <c r="F171">
-        <v>580.2014071222552</v>
+        <v>937.9477410276004</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>445.4</v>
+        <v>508.4</v>
       </c>
       <c r="B172">
-        <v>606171.9933279291</v>
+        <v>156281.9175463795</v>
       </c>
       <c r="C172">
-        <v>16911.80949816446</v>
+        <v>9369.144717609044</v>
       </c>
       <c r="D172">
-        <v>221252.8499800245</v>
+        <v>60147.62200471282</v>
       </c>
       <c r="E172">
-        <v>75006.12406824395</v>
+        <v>17235.45322520638</v>
       </c>
       <c r="F172">
-        <v>641.6937764388749</v>
+        <v>601.5750616502182</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>448</v>
+        <v>510.7</v>
       </c>
       <c r="B173">
-        <v>568637.3070487323</v>
+        <v>135911.2273187166</v>
       </c>
       <c r="C173">
-        <v>16495.68289050177</v>
+        <v>8302.19557959932</v>
       </c>
       <c r="D173">
-        <v>192934.4527895988</v>
+        <v>60652.06366040171</v>
       </c>
       <c r="E173">
-        <v>69681.68163483833</v>
+        <v>17219.84481328648</v>
       </c>
       <c r="F173">
-        <v>515.9894982750498</v>
+        <v>995.2023822728379</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>450.3</v>
+        <v>513.3</v>
       </c>
       <c r="B174">
-        <v>535106.6230325195</v>
+        <v>140444.3601048369</v>
       </c>
       <c r="C174">
-        <v>16169.87858372326</v>
+        <v>11602.60090184921</v>
       </c>
       <c r="D174">
-        <v>160894.3321980683</v>
+        <v>61050.56292335434</v>
       </c>
       <c r="E174">
-        <v>63450.82871297955</v>
+        <v>14885.24399981181</v>
       </c>
       <c r="F174">
-        <v>257.4818675916658</v>
+        <v>511.9115273244925</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>452.5</v>
+        <v>515.5</v>
       </c>
       <c r="B175">
-        <v>490877.2731039683</v>
+        <v>122472.3955392464</v>
       </c>
       <c r="C175">
-        <v>16640.84837723945</v>
+        <v>7529.866943752961</v>
       </c>
       <c r="D175">
-        <v>139100.3038061696</v>
+        <v>60086.98537662195</v>
       </c>
       <c r="E175">
-        <v>60237.83896163635</v>
+        <v>15415.96638841016</v>
       </c>
       <c r="F175">
-        <v>468.0397860684307</v>
+        <v>794.5115731374326</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>454.8</v>
+        <v>517.8</v>
       </c>
       <c r="B176">
-        <v>444746.5890877558</v>
+        <v>115401.7053115835</v>
       </c>
       <c r="C176">
-        <v>16075.04407046094</v>
+        <v>9562.917805743244</v>
       </c>
       <c r="D176">
-        <v>120200.1832146391</v>
+        <v>56811.42703231083</v>
       </c>
       <c r="E176">
-        <v>55166.98603977754</v>
+        <v>13510.35797649026</v>
       </c>
       <c r="F176">
-        <v>809.5321553850499</v>
+        <v>728.1388937600505</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>457.1</v>
+        <v>520.1</v>
       </c>
       <c r="B177">
-        <v>411015.905071543</v>
+        <v>116931.0150839207</v>
       </c>
       <c r="C177">
-        <v>16229.2397636824</v>
+        <v>11385.96866773351</v>
       </c>
       <c r="D177">
-        <v>110090.0626231087</v>
+        <v>57635.86868799969</v>
       </c>
       <c r="E177">
-        <v>53536.13311791875</v>
+        <v>13734.74956457036</v>
       </c>
       <c r="F177">
-        <v>161.0245247016692</v>
+        <v>531.7662143826665</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>459.3</v>
+        <v>522.6</v>
       </c>
       <c r="B178">
-        <v>378286.5551429919</v>
+        <v>102562.8735321132</v>
       </c>
       <c r="C178">
-        <v>13690.20955719859</v>
+        <v>11900.58916989684</v>
       </c>
       <c r="D178">
-        <v>96986.03423120998</v>
+        <v>54676.34874853107</v>
       </c>
       <c r="E178">
-        <v>49363.14336657555</v>
+        <v>12916.47955161395</v>
       </c>
       <c r="F178">
-        <v>711.5824431784349</v>
+        <v>887.4480846246452</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>461.6</v>
+        <v>524.6</v>
       </c>
       <c r="B179">
-        <v>365555.8711267792</v>
+        <v>100988.3602906673</v>
       </c>
       <c r="C179">
-        <v>16534.40525042008</v>
+        <v>10706.28557162754</v>
       </c>
       <c r="D179">
-        <v>91055.91363967949</v>
+        <v>55336.73279695618</v>
       </c>
       <c r="E179">
-        <v>48122.29044471675</v>
+        <v>12319.86354124881</v>
       </c>
       <c r="F179">
-        <v>853.0748124950505</v>
+        <v>467.9935808182245</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>464.2</v>
+        <v>527.2</v>
       </c>
       <c r="B180">
-        <v>341321.1848475823</v>
+        <v>91221.49307678753</v>
       </c>
       <c r="C180">
-        <v>15168.27864275742</v>
+        <v>8866.6908938774</v>
       </c>
       <c r="D180">
-        <v>85307.51644925379</v>
+        <v>54465.23205990881</v>
       </c>
       <c r="E180">
-        <v>46697.84801131115</v>
+        <v>11635.26272777415</v>
       </c>
       <c r="F180">
-        <v>377.3705343312258</v>
+        <v>654.7027258698809</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>466.5</v>
+        <v>529.5</v>
       </c>
       <c r="B181">
-        <v>323090.5008313697</v>
+        <v>88350.80284912477</v>
       </c>
       <c r="C181">
-        <v>14272.47433597888</v>
+        <v>9009.741755867704</v>
       </c>
       <c r="D181">
-        <v>82027.39585772334</v>
+        <v>53879.67371559767</v>
       </c>
       <c r="E181">
-        <v>45066.99508945236</v>
+        <v>11349.65431585424</v>
       </c>
       <c r="F181">
-        <v>498.8629036478487</v>
+        <v>1028.330046492499</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>468.8</v>
+        <v>531.8</v>
       </c>
       <c r="B182">
-        <v>318959.816815157</v>
+        <v>86780.11262146186</v>
       </c>
       <c r="C182">
-        <v>15766.67002920037</v>
+        <v>7382.792617857987</v>
       </c>
       <c r="D182">
-        <v>76487.27526619285</v>
+        <v>51024.11537128656</v>
       </c>
       <c r="E182">
-        <v>42466.14216759356</v>
+        <v>9324.045903934344</v>
       </c>
       <c r="F182">
-        <v>850.3552729644643</v>
+        <v>551.9573671151147</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>471</v>
+        <v>534.3</v>
       </c>
       <c r="B183">
-        <v>305030.4668866058</v>
+        <v>71311.97106965451</v>
       </c>
       <c r="C183">
-        <v>13217.63982271656</v>
+        <v>9217.413120021345</v>
       </c>
       <c r="D183">
-        <v>71993.24687429417</v>
+        <v>50194.59543181794</v>
       </c>
       <c r="E183">
-        <v>39243.15241625035</v>
+        <v>9405.775890977933</v>
       </c>
       <c r="F183">
-        <v>780.9131914412301</v>
+        <v>1217.63923735709</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>473.3</v>
+        <v>536.6</v>
       </c>
       <c r="B184">
-        <v>299899.7828703932</v>
+        <v>75041.28084199163</v>
       </c>
       <c r="C184">
-        <v>13321.83551593805</v>
+        <v>5860.463982011621</v>
       </c>
       <c r="D184">
-        <v>69883.1262827637</v>
+        <v>50699.0370875068</v>
       </c>
       <c r="E184">
-        <v>38482.29949439156</v>
+        <v>9520.167479058031</v>
       </c>
       <c r="F184">
-        <v>562.4055607578457</v>
+        <v>1121.266557979709</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>475.6</v>
+        <v>538.9</v>
       </c>
       <c r="B185">
-        <v>287869.0988541804</v>
+        <v>75770.59061432883</v>
       </c>
       <c r="C185">
-        <v>16116.03120915953</v>
+        <v>7273.514844001904</v>
       </c>
       <c r="D185">
-        <v>66783.00569123322</v>
+        <v>50253.47874319567</v>
       </c>
       <c r="E185">
-        <v>37571.44657253275</v>
+        <v>8264.559067138129</v>
       </c>
       <c r="F185">
-        <v>663.897930074465</v>
+        <v>814.8938786023309</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>478.2</v>
+        <v>541.1</v>
       </c>
       <c r="B186">
-        <v>263334.4125749835</v>
+        <v>75898.62604873822</v>
       </c>
       <c r="C186">
-        <v>12979.90460149684</v>
+        <v>9880.780885905617</v>
       </c>
       <c r="D186">
-        <v>64544.6085008075</v>
+        <v>48519.90119646327</v>
       </c>
       <c r="E186">
-        <v>35167.00413912717</v>
+        <v>8185.28145573648</v>
       </c>
       <c r="F186">
-        <v>228.1936519106439</v>
+        <v>1097.493924415267</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>480.5</v>
+        <v>543.4</v>
       </c>
       <c r="B187">
-        <v>257303.7285587708</v>
+        <v>66927.93582107546</v>
       </c>
       <c r="C187">
-        <v>15434.10029471833</v>
+        <v>7593.8317478959</v>
       </c>
       <c r="D187">
-        <v>62214.48790927706</v>
+        <v>48214.34285215213</v>
       </c>
       <c r="E187">
-        <v>33846.15121726835</v>
+        <v>9109.67304381658</v>
       </c>
       <c r="F187">
-        <v>859.6860212272595</v>
+        <v>901.1212450378853</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>482.8</v>
+        <v>545.9</v>
       </c>
       <c r="B188">
-        <v>231873.0445425582</v>
+        <v>60159.79426926796</v>
       </c>
       <c r="C188">
-        <v>8978.295987939789</v>
+        <v>7398.452250059257</v>
       </c>
       <c r="D188">
-        <v>56734.36731774657</v>
+        <v>47374.82291268351</v>
       </c>
       <c r="E188">
-        <v>32805.29829540955</v>
+        <v>6591.403030860169</v>
       </c>
       <c r="F188">
-        <v>481.1783905438788</v>
+        <v>986.8031152798603</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>485</v>
+        <v>548.2</v>
       </c>
       <c r="B189">
-        <v>240643.694614007</v>
+        <v>61189.10404160519</v>
       </c>
       <c r="C189">
-        <v>13319.26578145601</v>
+        <v>6911.503112049533</v>
       </c>
       <c r="D189">
-        <v>55680.33892584786</v>
+        <v>47459.26456837237</v>
       </c>
       <c r="E189">
-        <v>30802.30854406636</v>
+        <v>7305.794618940266</v>
       </c>
       <c r="F189">
-        <v>631.7363090206409</v>
+        <v>560.43043590248</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>487.3</v>
+        <v>550.5</v>
       </c>
       <c r="B190">
-        <v>218813.0105977943</v>
+        <v>56818.41381394228</v>
       </c>
       <c r="C190">
-        <v>11413.46147467747</v>
+        <v>8874.553974039809</v>
       </c>
       <c r="D190">
-        <v>56550.21833431741</v>
+        <v>46893.70622406126</v>
       </c>
       <c r="E190">
-        <v>28861.45562220755</v>
+        <v>6410.186207020364</v>
       </c>
       <c r="F190">
-        <v>653.2286783372638</v>
+        <v>934.0577565251015</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>489.9</v>
+        <v>552.7</v>
       </c>
       <c r="B191">
-        <v>211178.3243185974</v>
+        <v>60946.4492483518</v>
       </c>
       <c r="C191">
-        <v>14507.33486701481</v>
+        <v>5671.820015943558</v>
       </c>
       <c r="D191">
-        <v>50531.82114389166</v>
+        <v>46060.12867732887</v>
       </c>
       <c r="E191">
-        <v>25497.01318880196</v>
+        <v>5340.908595618715</v>
       </c>
       <c r="F191">
-        <v>267.5244001734391</v>
+        <v>546.657802338038</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>491.8</v>
+        <v>555</v>
       </c>
       <c r="B192">
-        <v>205552.9766530305</v>
+        <v>56675.75902068891</v>
       </c>
       <c r="C192">
-        <v>11228.62696141515</v>
+        <v>7734.870877933841</v>
       </c>
       <c r="D192">
-        <v>46616.06935088825</v>
+        <v>45204.57033301775</v>
       </c>
       <c r="E192">
-        <v>25377.61294900555</v>
+        <v>5205.300183698813</v>
       </c>
       <c r="F192">
-        <v>365.2789661306442</v>
+        <v>600.2851229606558</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>494.4</v>
+        <v>557.2</v>
       </c>
       <c r="B193">
-        <v>183118.2903738335</v>
+        <v>65503.79445509843</v>
       </c>
       <c r="C193">
-        <v>11912.50035375249</v>
+        <v>8762.136919837583</v>
       </c>
       <c r="D193">
-        <v>47177.67216046251</v>
+        <v>45880.99278628536</v>
       </c>
       <c r="E193">
-        <v>24353.17051559997</v>
+        <v>6016.022572297165</v>
       </c>
       <c r="F193">
-        <v>699.5746879668195</v>
+        <v>832.8851687735942</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>497</v>
+        <v>559.8</v>
       </c>
       <c r="B194">
-        <v>185183.6040946366</v>
+        <v>58336.92724121863</v>
       </c>
       <c r="C194">
-        <v>9366.373746089801</v>
+        <v>10102.54224208748</v>
       </c>
       <c r="D194">
-        <v>45489.27497003676</v>
+        <v>45169.49204923799</v>
       </c>
       <c r="E194">
-        <v>22598.72808219436</v>
+        <v>5481.421758822502</v>
       </c>
       <c r="F194">
-        <v>303.8704098029984</v>
+        <v>789.5943138252487</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>499.3</v>
+        <v>562.1</v>
       </c>
       <c r="B195">
-        <v>174852.920078424</v>
+        <v>51666.23701355587</v>
       </c>
       <c r="C195">
-        <v>12870.56943931126</v>
+        <v>4375.59310407775</v>
       </c>
       <c r="D195">
-        <v>44639.15437850631</v>
+        <v>43333.93370492684</v>
       </c>
       <c r="E195">
-        <v>21677.87516033556</v>
+        <v>6615.8133469026</v>
       </c>
       <c r="F195">
-        <v>675.3627791196177</v>
+        <v>1083.221634447867</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>501.6</v>
+        <v>564.3</v>
       </c>
       <c r="B196">
-        <v>170522.2360622113</v>
+        <v>49494.27244796525</v>
       </c>
       <c r="C196">
-        <v>13104.76513253275</v>
+        <v>9192.859145981507</v>
       </c>
       <c r="D196">
-        <v>42249.03378697585</v>
+        <v>42270.35615819448</v>
       </c>
       <c r="E196">
-        <v>21967.02223847676</v>
+        <v>6656.535735500951</v>
       </c>
       <c r="F196">
-        <v>646.8551484362333</v>
+        <v>1005.821680260807</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>503.8</v>
+        <v>566.6</v>
       </c>
       <c r="B197">
-        <v>153892.8861336601</v>
+        <v>57823.58222030248</v>
       </c>
       <c r="C197">
-        <v>9985.734926048972</v>
+        <v>9285.910007971783</v>
       </c>
       <c r="D197">
-        <v>41585.00539507714</v>
+        <v>44214.79781388334</v>
       </c>
       <c r="E197">
-        <v>20274.03248713356</v>
+        <v>3630.927323581049</v>
       </c>
       <c r="F197">
-        <v>577.4130669129981</v>
+        <v>999.4490008834264</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>506.1</v>
+        <v>568.9</v>
       </c>
       <c r="B198">
-        <v>150462.2021174475</v>
+        <v>45852.89199263958</v>
       </c>
       <c r="C198">
-        <v>12049.93061927043</v>
+        <v>7668.960869962058</v>
       </c>
       <c r="D198">
-        <v>38404.88480354669</v>
+        <v>41779.23946957222</v>
       </c>
       <c r="E198">
-        <v>18383.17956527477</v>
+        <v>2935.318911661147</v>
       </c>
       <c r="F198">
-        <v>858.9054362296138</v>
+        <v>763.0763215060442</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>508.4</v>
+        <v>571.5</v>
       </c>
       <c r="B199">
-        <v>154431.5181012348</v>
+        <v>46086.02477875991</v>
       </c>
       <c r="C199">
-        <v>11214.12631249192</v>
+        <v>4059.36619221195</v>
       </c>
       <c r="D199">
-        <v>35154.76421201622</v>
+        <v>44937.73873252486</v>
       </c>
       <c r="E199">
-        <v>16302.32664341597</v>
+        <v>4480.718098186482</v>
       </c>
       <c r="F199">
-        <v>520.3978055462339</v>
+        <v>829.7854665576988</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>510.7</v>
+        <v>573.7</v>
       </c>
       <c r="B200">
-        <v>134000.8340850222</v>
+        <v>39414.06021316932</v>
       </c>
       <c r="C200">
-        <v>10088.32200571338</v>
+        <v>6976.632234115663</v>
       </c>
       <c r="D200">
-        <v>35334.64362048577</v>
+        <v>44864.16118579247</v>
       </c>
       <c r="E200">
-        <v>16251.47372155716</v>
+        <v>5621.440486784833</v>
       </c>
       <c r="F200">
-        <v>911.8901748628532</v>
+        <v>932.3855123706371</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>513.3</v>
+        <v>576</v>
       </c>
       <c r="B201">
-        <v>138466.1478058253</v>
+        <v>39743.36998550641</v>
       </c>
       <c r="C201">
-        <v>13322.19539805072</v>
+        <v>5969.683096105946</v>
       </c>
       <c r="D201">
-        <v>35366.24643006003</v>
+        <v>43958.60284148131</v>
       </c>
       <c r="E201">
-        <v>13877.03128815157</v>
+        <v>3845.832074864932</v>
       </c>
       <c r="F201">
-        <v>426.1858966990285</v>
+        <v>666.0128329932586</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>515.5</v>
+        <v>578.3</v>
       </c>
       <c r="B202">
-        <v>120436.797877274</v>
+        <v>38972.67975784363</v>
       </c>
       <c r="C202">
-        <v>9193.16519156691</v>
+        <v>6512.733958096258</v>
       </c>
       <c r="D202">
-        <v>34092.21803816131</v>
+        <v>43903.04449717019</v>
       </c>
       <c r="E202">
-        <v>14374.04153680836</v>
+        <v>3530.22366294503</v>
       </c>
       <c r="F202">
-        <v>706.7438151757933</v>
+        <v>1049.640153615876</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>517.8</v>
+        <v>580.5</v>
       </c>
       <c r="B203">
-        <v>113306.1138610614</v>
+        <v>33800.71519225316</v>
       </c>
       <c r="C203">
-        <v>11167.3608847884</v>
+        <v>0</v>
       </c>
       <c r="D203">
-        <v>30492.09744663087</v>
+        <v>46689.4669504378</v>
       </c>
       <c r="E203">
-        <v>12433.18861494957</v>
+        <v>4590.946051543382</v>
       </c>
       <c r="F203">
-        <v>638.2361844924098</v>
+        <v>982.2401994288148</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>520.1</v>
+        <v>582.7</v>
       </c>
       <c r="B204">
-        <v>114775.4298448487</v>
+        <v>40028.75062666256</v>
       </c>
       <c r="C204">
-        <v>12931.55657800986</v>
+        <v>2777.26604190372</v>
       </c>
       <c r="D204">
-        <v>30991.97685510038</v>
+        <v>43055.88940370541</v>
       </c>
       <c r="E204">
-        <v>12622.33569309077</v>
+        <v>3211.668440141733</v>
       </c>
       <c r="F204">
-        <v>439.7285538090318</v>
+        <v>1184.840245241751</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>522.6</v>
+        <v>585</v>
       </c>
       <c r="B205">
-        <v>100342.0776533132</v>
+        <v>37258.06039899977</v>
       </c>
       <c r="C205">
-        <v>13382.2040706419</v>
+        <v>7790.316903893996</v>
       </c>
       <c r="D205">
-        <v>27679.6718643064</v>
+        <v>44530.3310593943</v>
       </c>
       <c r="E205">
-        <v>11765.75643020076</v>
+        <v>3696.060028221832</v>
       </c>
       <c r="F205">
-        <v>793.0898248053563</v>
+        <v>1098.467565864373</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>524.6</v>
+        <v>587.6</v>
       </c>
       <c r="B206">
-        <v>98715.39590008483</v>
+        <v>35091.19318512</v>
       </c>
       <c r="C206">
-        <v>12136.72206474754</v>
+        <v>4890.722226143887</v>
       </c>
       <c r="D206">
-        <v>28057.82787167122</v>
+        <v>44478.83032234693</v>
       </c>
       <c r="E206">
-        <v>11138.49301988877</v>
+        <v>2671.459214747167</v>
       </c>
       <c r="F206">
-        <v>371.7788416024132</v>
+        <v>1295.176710916026</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>527.2</v>
+        <v>589.9</v>
       </c>
       <c r="B207">
-        <v>88880.70962088795</v>
+        <v>37520.5029574572</v>
       </c>
       <c r="C207">
-        <v>10230.59545708484</v>
+        <v>6503.773088134163</v>
       </c>
       <c r="D207">
-        <v>26819.4306812455</v>
+        <v>42423.27197803579</v>
       </c>
       <c r="E207">
-        <v>10414.05058648317</v>
+        <v>3865.850802827265</v>
       </c>
       <c r="F207">
-        <v>556.0745634385876</v>
+        <v>1438.804031538647</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>529.5</v>
+        <v>592.1</v>
       </c>
       <c r="B208">
-        <v>85950.02560467531</v>
+        <v>24448.53839186661</v>
       </c>
       <c r="C208">
-        <v>10314.79115030633</v>
+        <v>7841.039130037912</v>
       </c>
       <c r="D208">
-        <v>25909.31008971503</v>
+        <v>46709.69443130343</v>
       </c>
       <c r="E208">
-        <v>10093.19766462438</v>
+        <v>2496.573191425617</v>
       </c>
       <c r="F208">
-        <v>927.5669327552077</v>
+        <v>1431.404077351584</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>531.8</v>
+        <v>594.4</v>
       </c>
       <c r="B209">
-        <v>84319.34158846266</v>
+        <v>27077.84816420371</v>
       </c>
       <c r="C209">
-        <v>8628.986843527822</v>
+        <v>6264.089992028225</v>
       </c>
       <c r="D209">
-        <v>22729.18949818458</v>
+        <v>48564.13608699227</v>
       </c>
       <c r="E209">
-        <v>8032.344742765572</v>
+        <v>2250.964779505715</v>
       </c>
       <c r="F209">
-        <v>449.0593020718279</v>
+        <v>1095.031397974201</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>534.3</v>
+        <v>596.6</v>
       </c>
       <c r="B210">
-        <v>68785.98939692714</v>
+        <v>25505.88359861323</v>
       </c>
       <c r="C210">
-        <v>10399.63433615987</v>
+        <v>3891.356033931937</v>
       </c>
       <c r="D210">
-        <v>21546.8845073906</v>
+        <v>43590.55854025988</v>
       </c>
       <c r="E210">
-        <v>8075.765479875568</v>
+        <v>2441.687168104067</v>
       </c>
       <c r="F210">
-        <v>1112.420573068149</v>
+        <v>1397.631443787143</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>536.6</v>
+        <v>599.2</v>
       </c>
       <c r="B211">
-        <v>72455.30538071452</v>
+        <v>23039.01638473346</v>
       </c>
       <c r="C211">
-        <v>6983.830029381323</v>
+        <v>6121.761356181829</v>
       </c>
       <c r="D211">
-        <v>21726.76391586011</v>
+        <v>48509.05780321256</v>
       </c>
       <c r="E211">
-        <v>8154.912558016762</v>
+        <v>3387.086354629402</v>
       </c>
       <c r="F211">
-        <v>1013.912942384767</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>538.9</v>
-      </c>
-      <c r="B212">
-        <v>73124.62136450187</v>
-      </c>
-      <c r="C212">
-        <v>8338.025722602812</v>
-      </c>
-      <c r="D212">
-        <v>20956.64332432967</v>
-      </c>
-      <c r="E212">
-        <v>6864.059636157979</v>
-      </c>
-      <c r="F212">
-        <v>705.4053117013837</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>541.1</v>
-      </c>
-      <c r="B213">
-        <v>73195.27143595061</v>
-      </c>
-      <c r="C213">
-        <v>10888.99551611903</v>
-      </c>
-      <c r="D213">
-        <v>18912.61493243096</v>
-      </c>
-      <c r="E213">
-        <v>6751.069884814773</v>
-      </c>
-      <c r="F213">
-        <v>985.9632301781485</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>543.4</v>
-      </c>
-      <c r="B214">
-        <v>64164.58741973796</v>
-      </c>
-      <c r="C214">
-        <v>8543.191209340523</v>
-      </c>
-      <c r="D214">
-        <v>18282.49434090051</v>
-      </c>
-      <c r="E214">
-        <v>7640.216962955976</v>
-      </c>
-      <c r="F214">
-        <v>787.4555994947677</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>545.9</v>
-      </c>
-      <c r="B215">
-        <v>57331.23522820245</v>
-      </c>
-      <c r="C215">
-        <v>8283.838701972541</v>
-      </c>
-      <c r="D215">
-        <v>17090.18935010652</v>
-      </c>
-      <c r="E215">
-        <v>5083.637700065979</v>
-      </c>
-      <c r="F215">
-        <v>870.8168704910922</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>548.2</v>
-      </c>
-      <c r="B216">
-        <v>58300.55121198982</v>
-      </c>
-      <c r="C216">
-        <v>7738.034395194023</v>
-      </c>
-      <c r="D216">
-        <v>16850.06875857604</v>
-      </c>
-      <c r="E216">
-        <v>5762.784778207171</v>
-      </c>
-      <c r="F216">
-        <v>442.3092398077115</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>550.5</v>
-      </c>
-      <c r="B217">
-        <v>53869.86719577717</v>
-      </c>
-      <c r="C217">
-        <v>9642.230088415516</v>
-      </c>
-      <c r="D217">
-        <v>15959.9481670456</v>
-      </c>
-      <c r="E217">
-        <v>4831.931856348382</v>
-      </c>
-      <c r="F217">
-        <v>813.801609124328</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>552.7</v>
-      </c>
-      <c r="B218">
-        <v>57940.51726722591</v>
-      </c>
-      <c r="C218">
-        <v>6383.199881931676</v>
-      </c>
-      <c r="D218">
-        <v>14815.91977514688</v>
-      </c>
-      <c r="E218">
-        <v>3728.942105005176</v>
-      </c>
-      <c r="F218">
-        <v>424.3595276010919</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>555</v>
-      </c>
-      <c r="B219">
-        <v>53609.83325101328</v>
-      </c>
-      <c r="C219">
-        <v>8387.395575153168</v>
-      </c>
-      <c r="D219">
-        <v>13635.79918361643</v>
-      </c>
-      <c r="E219">
-        <v>3558.089183146379</v>
-      </c>
-      <c r="F219">
-        <v>475.8518969177121</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>557.2</v>
-      </c>
-      <c r="B220">
-        <v>62380.48332246214</v>
-      </c>
-      <c r="C220">
-        <v>9358.365368669358</v>
-      </c>
-      <c r="D220">
-        <v>14001.77079171772</v>
-      </c>
-      <c r="E220">
-        <v>4335.09943180318</v>
-      </c>
-      <c r="F220">
-        <v>706.4098153944769</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>559.8</v>
-      </c>
-      <c r="B221">
-        <v>55145.79704326524</v>
-      </c>
-      <c r="C221">
-        <v>10632.2387610067</v>
-      </c>
-      <c r="D221">
-        <v>12923.37360129201</v>
-      </c>
-      <c r="E221">
-        <v>3760.656998397584</v>
-      </c>
-      <c r="F221">
-        <v>660.7055372306531</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>562.1</v>
-      </c>
-      <c r="B222">
-        <v>48415.11302705259</v>
-      </c>
-      <c r="C222">
-        <v>4846.434454228158</v>
-      </c>
-      <c r="D222">
-        <v>10763.25300976153</v>
-      </c>
-      <c r="E222">
-        <v>4859.804076538785</v>
-      </c>
-      <c r="F222">
-        <v>952.1979065472715</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>564.3</v>
-      </c>
-      <c r="B223">
-        <v>46185.76309850132</v>
-      </c>
-      <c r="C223">
-        <v>9607.404247744384</v>
-      </c>
-      <c r="D223">
-        <v>9389.224617862816</v>
-      </c>
-      <c r="E223">
-        <v>4866.814325195588</v>
-      </c>
-      <c r="F223">
-        <v>872.7558250240372</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>566.6</v>
-      </c>
-      <c r="B224">
-        <v>54455.07908228871</v>
-      </c>
-      <c r="C224">
-        <v>9641.59994096584</v>
-      </c>
-      <c r="D224">
-        <v>11009.10402633236</v>
-      </c>
-      <c r="E224">
-        <v>1805.961403336782</v>
-      </c>
-      <c r="F224">
-        <v>864.2481943406528</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>568.9</v>
-      </c>
-      <c r="B225">
-        <v>42424.39506607606</v>
-      </c>
-      <c r="C225">
-        <v>7965.795634187329</v>
-      </c>
-      <c r="D225">
-        <v>8248.983434801918</v>
-      </c>
-      <c r="E225">
-        <v>1075.108481477992</v>
-      </c>
-      <c r="F225">
-        <v>625.7405636572721</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>571.5</v>
-      </c>
-      <c r="B226">
-        <v>42589.70878687904</v>
-      </c>
-      <c r="C226">
-        <v>4289.669026524636</v>
-      </c>
-      <c r="D226">
-        <v>11040.58624437617</v>
-      </c>
-      <c r="E226">
-        <v>2580.666048072387</v>
-      </c>
-      <c r="F226">
-        <v>690.036285493451</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>573.7</v>
-      </c>
-      <c r="B227">
-        <v>35860.35885832791</v>
-      </c>
-      <c r="C227">
-        <v>7150.638820040858</v>
-      </c>
-      <c r="D227">
-        <v>10656.55785247745</v>
-      </c>
-      <c r="E227">
-        <v>3687.676296729181</v>
-      </c>
-      <c r="F227">
-        <v>790.5942039702159</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>576</v>
-      </c>
-      <c r="B228">
-        <v>36129.67484211526</v>
-      </c>
-      <c r="C228">
-        <v>6084.834513262347</v>
-      </c>
-      <c r="D228">
-        <v>9426.437260947005</v>
-      </c>
-      <c r="E228">
-        <v>1876.823374870391</v>
-      </c>
-      <c r="F228">
-        <v>522.0865732868315</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>578.3</v>
-      </c>
-      <c r="B229">
-        <v>35298.99082590261</v>
-      </c>
-      <c r="C229">
-        <v>6569.030206483807</v>
-      </c>
-      <c r="D229">
-        <v>9046.31666941653</v>
-      </c>
-      <c r="E229">
-        <v>1525.970453011593</v>
-      </c>
-      <c r="F229">
-        <v>903.578942603448</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>580.5</v>
-      </c>
-      <c r="B230">
-        <v>30069.64089735136</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>11522.28827751785</v>
-      </c>
-      <c r="E230">
-        <v>2552.980701668387</v>
-      </c>
-      <c r="F230">
-        <v>834.1368610802128</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>582.7</v>
-      </c>
-      <c r="B231">
-        <v>36240.29096880009</v>
-      </c>
-      <c r="C231">
-        <v>2720.969793516193</v>
-      </c>
-      <c r="D231">
-        <v>7578.259885619129</v>
-      </c>
-      <c r="E231">
-        <v>1139.990950325188</v>
-      </c>
-      <c r="F231">
-        <v>1034.694779556978</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>585</v>
-      </c>
-      <c r="B232">
-        <v>33409.60695258745</v>
-      </c>
-      <c r="C232">
-        <v>7675.165486737682</v>
-      </c>
-      <c r="D232">
-        <v>8728.139294088684</v>
-      </c>
-      <c r="E232">
-        <v>1589.138028466391</v>
-      </c>
-      <c r="F232">
-        <v>946.1871488735978</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>587.6</v>
-      </c>
-      <c r="B233">
-        <v>31174.92067339057</v>
-      </c>
-      <c r="C233">
-        <v>4709.038879074989</v>
-      </c>
-      <c r="D233">
-        <v>8309.742103662935</v>
-      </c>
-      <c r="E233">
-        <v>524.6955950607934</v>
-      </c>
-      <c r="F233">
-        <v>1140.482870709776</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>589.9</v>
-      </c>
-      <c r="B234">
-        <v>33544.23665717793</v>
-      </c>
-      <c r="C234">
-        <v>6263.234572296482</v>
-      </c>
-      <c r="D234">
-        <v>5929.62151213246</v>
-      </c>
-      <c r="E234">
-        <v>1683.842673201996</v>
-      </c>
-      <c r="F234">
-        <v>1281.975240026392</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>592.1</v>
-      </c>
-      <c r="B235">
-        <v>20414.88672862666</v>
-      </c>
-      <c r="C235">
-        <v>7544.204365812671</v>
-      </c>
-      <c r="D235">
-        <v>9905.593120233778</v>
-      </c>
-      <c r="E235">
-        <v>280.85292185879</v>
-      </c>
-      <c r="F235">
-        <v>1272.533158503157</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>594.4</v>
-      </c>
-      <c r="B236">
-        <v>22984.20271241401</v>
-      </c>
-      <c r="C236">
-        <v>5908.400059034164</v>
-      </c>
-      <c r="D236">
-        <v>11435.4725287033</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>934.0255278197728</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>596.6</v>
-      </c>
-      <c r="B237">
-        <v>21354.85278386276</v>
-      </c>
-      <c r="C237">
-        <v>3479.369852550353</v>
-      </c>
-      <c r="D237">
-        <v>6151.444136804614</v>
-      </c>
-      <c r="E237">
-        <v>157.0102486567939</v>
-      </c>
-      <c r="F237">
-        <v>1234.583446296541</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>599.2</v>
-      </c>
-      <c r="B238">
-        <v>18820.16650466587</v>
-      </c>
-      <c r="C238">
-        <v>5643.243244887664</v>
-      </c>
-      <c r="D238">
-        <v>10703.04694637886</v>
-      </c>
-      <c r="E238">
-        <v>1062.567815251196</v>
-      </c>
-      <c r="F238">
-        <v>668.8791681327202</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>601.4</v>
-      </c>
-      <c r="B239">
-        <v>14090.81657611461</v>
-      </c>
-      <c r="C239">
-        <v>4974.213038403861</v>
-      </c>
-      <c r="D239">
-        <v>10239.01855448018</v>
-      </c>
-      <c r="E239">
-        <v>249.5780639079994</v>
-      </c>
-      <c r="F239">
-        <v>989.4370866094823</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>603.7</v>
-      </c>
-      <c r="B240">
-        <v>25860.13255990198</v>
-      </c>
-      <c r="C240">
-        <v>6528.408731625346</v>
-      </c>
-      <c r="D240">
-        <v>14828.8979629497</v>
-      </c>
-      <c r="E240">
-        <v>2008.725142049193</v>
-      </c>
-      <c r="F240">
-        <v>1030.929455926101</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>605.9</v>
-      </c>
-      <c r="B241">
-        <v>31530.78263135083</v>
-      </c>
-      <c r="C241">
-        <v>7409.378525141572</v>
-      </c>
-      <c r="D241">
-        <v>15774.869571051</v>
-      </c>
-      <c r="E241">
-        <v>1725.735390706003</v>
-      </c>
-      <c r="F241">
-        <v>781.4873744028664</v>
+        <v>834.3405888387961</v>
       </c>
     </row>
   </sheetData>
